--- a/datos.xlsx
+++ b/datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2756"/>
+  <dimension ref="A1:F2843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42531,6 +42531,1526 @@
         <v>50</v>
       </c>
     </row>
+    <row r="2757">
+      <c r="A2757" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2757" t="inlineStr">
+        <is>
+          <t>[1, 3, 19]</t>
+        </is>
+      </c>
+      <c r="C2757" t="inlineStr"/>
+      <c r="D2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr"/>
+      <c r="F2757" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2758" t="inlineStr">
+        <is>
+          <t>[3, 9, 14]</t>
+        </is>
+      </c>
+      <c r="C2758" t="inlineStr"/>
+      <c r="D2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr"/>
+      <c r="F2758" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2759" t="inlineStr">
+        <is>
+          <t>[3, 8, 14]</t>
+        </is>
+      </c>
+      <c r="C2759" t="inlineStr"/>
+      <c r="D2759" t="inlineStr"/>
+      <c r="E2759" t="inlineStr"/>
+      <c r="F2759" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2760" t="inlineStr">
+        <is>
+          <t>[3, 7, 14]</t>
+        </is>
+      </c>
+      <c r="C2760" t="inlineStr"/>
+      <c r="D2760" t="inlineStr"/>
+      <c r="E2760" t="inlineStr"/>
+      <c r="F2760" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2761" t="inlineStr">
+        <is>
+          <t>[2, 12, 13]</t>
+        </is>
+      </c>
+      <c r="C2761" t="inlineStr"/>
+      <c r="D2761" t="inlineStr"/>
+      <c r="E2761" t="inlineStr"/>
+      <c r="F2761" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2762" t="inlineStr">
+        <is>
+          <t>[6, 17, 22]</t>
+        </is>
+      </c>
+      <c r="C2762" t="inlineStr"/>
+      <c r="D2762" t="inlineStr"/>
+      <c r="E2762" t="inlineStr"/>
+      <c r="F2762" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2763" t="inlineStr">
+        <is>
+          <t>[14, 17, 34]</t>
+        </is>
+      </c>
+      <c r="C2763" t="inlineStr"/>
+      <c r="D2763" t="inlineStr"/>
+      <c r="E2763" t="inlineStr"/>
+      <c r="F2763" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2764" t="inlineStr">
+        <is>
+          <t>[5, 18, 34]</t>
+        </is>
+      </c>
+      <c r="C2764" t="inlineStr"/>
+      <c r="D2764" t="inlineStr"/>
+      <c r="E2764" t="inlineStr"/>
+      <c r="F2764" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2765" t="inlineStr">
+        <is>
+          <t>[18, 32, 34]</t>
+        </is>
+      </c>
+      <c r="C2765" t="inlineStr"/>
+      <c r="D2765" t="inlineStr"/>
+      <c r="E2765" t="inlineStr"/>
+      <c r="F2765" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2766" t="inlineStr">
+        <is>
+          <t>[16, 28, 34]</t>
+        </is>
+      </c>
+      <c r="C2766" t="inlineStr"/>
+      <c r="D2766" t="inlineStr"/>
+      <c r="E2766" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2766" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2767" t="inlineStr">
+        <is>
+          <t>[16, 28, 32]</t>
+        </is>
+      </c>
+      <c r="C2767" t="inlineStr"/>
+      <c r="D2767" t="inlineStr"/>
+      <c r="E2767" t="inlineStr"/>
+      <c r="F2767" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2768" t="inlineStr">
+        <is>
+          <t>[12, 16, 32]</t>
+        </is>
+      </c>
+      <c r="C2768" t="inlineStr"/>
+      <c r="D2768" t="inlineStr"/>
+      <c r="E2768" t="inlineStr"/>
+      <c r="F2768" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2769" t="inlineStr">
+        <is>
+          <t>[18, 27, 32]</t>
+        </is>
+      </c>
+      <c r="C2769" t="inlineStr"/>
+      <c r="D2769" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2769" t="inlineStr"/>
+      <c r="F2769" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2770" t="inlineStr">
+        <is>
+          <t>[4, 23, 25]</t>
+        </is>
+      </c>
+      <c r="C2770" t="inlineStr"/>
+      <c r="D2770" t="inlineStr"/>
+      <c r="E2770" t="inlineStr"/>
+      <c r="F2770" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2771" t="inlineStr">
+        <is>
+          <t>[4, 23, 31]</t>
+        </is>
+      </c>
+      <c r="C2771" t="inlineStr"/>
+      <c r="D2771" t="inlineStr"/>
+      <c r="E2771" t="inlineStr"/>
+      <c r="F2771" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2772" t="inlineStr">
+        <is>
+          <t>[5, 28, 29]</t>
+        </is>
+      </c>
+      <c r="C2772" t="inlineStr"/>
+      <c r="D2772" t="inlineStr"/>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2773" t="inlineStr">
+        <is>
+          <t>[14, 26, 36]</t>
+        </is>
+      </c>
+      <c r="C2773" t="inlineStr"/>
+      <c r="D2773" t="inlineStr"/>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2774" t="inlineStr">
+        <is>
+          <t>[10, 14, 26]</t>
+        </is>
+      </c>
+      <c r="C2774" t="inlineStr"/>
+      <c r="D2774" t="inlineStr"/>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2775" t="inlineStr">
+        <is>
+          <t>[20, 25, 28]</t>
+        </is>
+      </c>
+      <c r="C2775" t="inlineStr"/>
+      <c r="D2775" t="inlineStr"/>
+      <c r="E2775" t="inlineStr"/>
+      <c r="F2775" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2776" t="inlineStr">
+        <is>
+          <t>[1, 20, 34]</t>
+        </is>
+      </c>
+      <c r="C2776" t="inlineStr"/>
+      <c r="D2776" t="inlineStr"/>
+      <c r="E2776" t="inlineStr"/>
+      <c r="F2776" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2777" t="inlineStr">
+        <is>
+          <t>[1, 27, 34]</t>
+        </is>
+      </c>
+      <c r="C2777" t="inlineStr"/>
+      <c r="D2777" t="inlineStr"/>
+      <c r="E2777" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2777" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2778" t="inlineStr">
+        <is>
+          <t>[14, 24, 33]</t>
+        </is>
+      </c>
+      <c r="C2778" t="inlineStr"/>
+      <c r="D2778" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2778" t="inlineStr"/>
+      <c r="F2778" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2779" t="inlineStr">
+        <is>
+          <t>[3, 12, 15]</t>
+        </is>
+      </c>
+      <c r="C2779" t="inlineStr"/>
+      <c r="D2779" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2779" t="inlineStr"/>
+      <c r="F2779" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2780" t="inlineStr">
+        <is>
+          <t>[12, 24, 30]</t>
+        </is>
+      </c>
+      <c r="C2780" t="inlineStr"/>
+      <c r="D2780" t="inlineStr"/>
+      <c r="E2780" t="inlineStr"/>
+      <c r="F2780" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2781" t="inlineStr">
+        <is>
+          <t>[15, 17, 30]</t>
+        </is>
+      </c>
+      <c r="C2781" t="inlineStr"/>
+      <c r="D2781" t="inlineStr"/>
+      <c r="E2781" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2781" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2782" t="inlineStr">
+        <is>
+          <t>[14, 15, 24]</t>
+        </is>
+      </c>
+      <c r="C2782" t="inlineStr"/>
+      <c r="D2782" t="inlineStr"/>
+      <c r="E2782" t="inlineStr"/>
+      <c r="F2782" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2783" t="inlineStr">
+        <is>
+          <t>[15, 18, 34]</t>
+        </is>
+      </c>
+      <c r="C2783" t="inlineStr"/>
+      <c r="D2783" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2783" t="inlineStr"/>
+      <c r="F2783" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2784" t="inlineStr">
+        <is>
+          <t>[15, 32, 34]</t>
+        </is>
+      </c>
+      <c r="C2784" t="inlineStr"/>
+      <c r="D2784" t="inlineStr"/>
+      <c r="E2784" t="inlineStr"/>
+      <c r="F2784" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2785" t="inlineStr">
+        <is>
+          <t>[16, 19, 28]</t>
+        </is>
+      </c>
+      <c r="C2785" t="inlineStr"/>
+      <c r="D2785" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2785" t="inlineStr"/>
+      <c r="F2785" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2786" t="inlineStr">
+        <is>
+          <t>[12, 18, 28]</t>
+        </is>
+      </c>
+      <c r="C2786" t="inlineStr"/>
+      <c r="D2786" t="inlineStr"/>
+      <c r="E2786" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2786" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2787" t="inlineStr">
+        <is>
+          <t>[12, 20, 35]</t>
+        </is>
+      </c>
+      <c r="C2787" t="inlineStr"/>
+      <c r="D2787" t="inlineStr"/>
+      <c r="E2787" t="inlineStr"/>
+      <c r="F2787" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>[7, 19, 34]</t>
+        </is>
+      </c>
+      <c r="C2788" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2788" t="inlineStr"/>
+      <c r="E2788" t="inlineStr"/>
+      <c r="F2788" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>[7, 27, 32]</t>
+        </is>
+      </c>
+      <c r="C2789" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2789" t="inlineStr"/>
+      <c r="E2789" t="inlineStr"/>
+      <c r="F2789" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>[0, 20, 31]</t>
+        </is>
+      </c>
+      <c r="C2790" t="inlineStr"/>
+      <c r="D2790" t="inlineStr"/>
+      <c r="E2790" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2790" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>[0, 3, 32]</t>
+        </is>
+      </c>
+      <c r="C2791" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2791" t="inlineStr"/>
+      <c r="E2791" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2791" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2792" t="inlineStr">
+        <is>
+          <t>[0, 6, 17]</t>
+        </is>
+      </c>
+      <c r="C2792" t="inlineStr"/>
+      <c r="D2792" t="inlineStr"/>
+      <c r="E2792" t="inlineStr"/>
+      <c r="F2792" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2793" t="inlineStr">
+        <is>
+          <t>[6, 17, 32]</t>
+        </is>
+      </c>
+      <c r="C2793" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2793" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2794" t="inlineStr">
+        <is>
+          <t>[15, 17, 34]</t>
+        </is>
+      </c>
+      <c r="C2794" t="inlineStr"/>
+      <c r="D2794" t="inlineStr"/>
+      <c r="E2794" t="inlineStr"/>
+      <c r="F2794" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2795" t="inlineStr">
+        <is>
+          <t>[0, 22, 36]</t>
+        </is>
+      </c>
+      <c r="C2795" t="inlineStr"/>
+      <c r="D2795" t="inlineStr"/>
+      <c r="E2795" t="inlineStr"/>
+      <c r="F2795" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2796" t="inlineStr">
+        <is>
+          <t>[11, 17, 22]</t>
+        </is>
+      </c>
+      <c r="C2796" t="inlineStr"/>
+      <c r="D2796" t="inlineStr"/>
+      <c r="E2796" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2796" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>[7, 25, 34]</t>
+        </is>
+      </c>
+      <c r="C2797" t="inlineStr"/>
+      <c r="D2797" t="inlineStr"/>
+      <c r="E2797" t="inlineStr"/>
+      <c r="F2797" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>[7, 13, 16]</t>
+        </is>
+      </c>
+      <c r="C2798" t="inlineStr"/>
+      <c r="D2798" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2798" t="inlineStr"/>
+      <c r="F2798" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>[18, 24, 26]</t>
+        </is>
+      </c>
+      <c r="C2799" t="inlineStr"/>
+      <c r="D2799" t="inlineStr"/>
+      <c r="E2799" t="inlineStr"/>
+      <c r="F2799" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>[0, 16, 23]</t>
+        </is>
+      </c>
+      <c r="C2800" t="inlineStr"/>
+      <c r="D2800" t="inlineStr"/>
+      <c r="E2800" t="inlineStr"/>
+      <c r="F2800" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>[22, 25, 26]</t>
+        </is>
+      </c>
+      <c r="C2801" t="inlineStr"/>
+      <c r="D2801" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2801" t="inlineStr"/>
+      <c r="F2801" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>[3, 6, 33]</t>
+        </is>
+      </c>
+      <c r="C2802" t="inlineStr"/>
+      <c r="D2802" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2802" t="inlineStr"/>
+      <c r="F2802" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>[2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="C2803" t="inlineStr"/>
+      <c r="D2803" t="inlineStr"/>
+      <c r="E2803" t="inlineStr"/>
+      <c r="F2803" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>[0, 10, 12]</t>
+        </is>
+      </c>
+      <c r="C2804" t="inlineStr"/>
+      <c r="D2804" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2804" t="inlineStr"/>
+      <c r="F2804" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>[10, 12, 29]</t>
+        </is>
+      </c>
+      <c r="C2805" t="inlineStr"/>
+      <c r="D2805" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2805" t="inlineStr"/>
+      <c r="F2805" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>[2, 10, 24]</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr"/>
+      <c r="D2806" t="inlineStr"/>
+      <c r="E2806" t="inlineStr"/>
+      <c r="F2806" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>[10, 19, 24]</t>
+        </is>
+      </c>
+      <c r="C2807" t="inlineStr"/>
+      <c r="D2807" t="inlineStr"/>
+      <c r="E2807" t="inlineStr"/>
+      <c r="F2807" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>[10, 28, 30]</t>
+        </is>
+      </c>
+      <c r="C2808" t="inlineStr"/>
+      <c r="D2808" t="inlineStr"/>
+      <c r="E2808" t="inlineStr"/>
+      <c r="F2808" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>[10, 15, 21]</t>
+        </is>
+      </c>
+      <c r="C2809" t="inlineStr"/>
+      <c r="D2809" t="inlineStr"/>
+      <c r="E2809" t="inlineStr"/>
+      <c r="F2809" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>[1, 13, 15]</t>
+        </is>
+      </c>
+      <c r="C2810" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2810" t="inlineStr"/>
+      <c r="E2810" t="inlineStr"/>
+      <c r="F2810" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>[7, 14, 18]</t>
+        </is>
+      </c>
+      <c r="C2811" t="inlineStr"/>
+      <c r="D2811" t="inlineStr"/>
+      <c r="E2811" t="inlineStr"/>
+      <c r="F2811" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>[9, 14, 18]</t>
+        </is>
+      </c>
+      <c r="C2812" t="inlineStr"/>
+      <c r="D2812" t="inlineStr"/>
+      <c r="E2812" t="inlineStr"/>
+      <c r="F2812" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>[1, 14, 27]</t>
+        </is>
+      </c>
+      <c r="C2813" t="inlineStr"/>
+      <c r="D2813" t="inlineStr"/>
+      <c r="E2813" t="inlineStr"/>
+      <c r="F2813" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>[1, 3, 36]</t>
+        </is>
+      </c>
+      <c r="C2814" t="inlineStr"/>
+      <c r="D2814" t="inlineStr"/>
+      <c r="E2814" t="inlineStr"/>
+      <c r="F2814" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>[3, 24, 36]</t>
+        </is>
+      </c>
+      <c r="C2815" t="inlineStr"/>
+      <c r="D2815" t="inlineStr"/>
+      <c r="E2815" t="inlineStr"/>
+      <c r="F2815" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>[2, 3, 12]</t>
+        </is>
+      </c>
+      <c r="C2816" t="inlineStr"/>
+      <c r="D2816" t="inlineStr"/>
+      <c r="E2816" t="inlineStr"/>
+      <c r="F2816" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>[0, 11, 29]</t>
+        </is>
+      </c>
+      <c r="C2817" t="inlineStr"/>
+      <c r="D2817" t="inlineStr"/>
+      <c r="E2817" t="inlineStr"/>
+      <c r="F2817" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2818" t="inlineStr">
+        <is>
+          <t>[3, 11, 21]</t>
+        </is>
+      </c>
+      <c r="C2818" t="inlineStr"/>
+      <c r="D2818" t="inlineStr"/>
+      <c r="E2818" t="inlineStr"/>
+      <c r="F2818" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2819" t="inlineStr">
+        <is>
+          <t>[11, 20, 33]</t>
+        </is>
+      </c>
+      <c r="C2819" t="inlineStr"/>
+      <c r="D2819" t="inlineStr"/>
+      <c r="E2819" t="inlineStr"/>
+      <c r="F2819" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2820" t="inlineStr">
+        <is>
+          <t>[25, 32, 34]</t>
+        </is>
+      </c>
+      <c r="C2820" t="inlineStr"/>
+      <c r="D2820" t="inlineStr"/>
+      <c r="E2820" t="inlineStr"/>
+      <c r="F2820" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>[25, 28, 29]</t>
+        </is>
+      </c>
+      <c r="C2821" t="inlineStr"/>
+      <c r="D2821" t="inlineStr"/>
+      <c r="E2821" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2821" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2822" t="inlineStr">
+        <is>
+          <t>[1, 12, 28]</t>
+        </is>
+      </c>
+      <c r="C2822" t="inlineStr"/>
+      <c r="D2822" t="inlineStr"/>
+      <c r="E2822" t="inlineStr"/>
+      <c r="F2822" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2823" t="inlineStr">
+        <is>
+          <t>[6, 13, 35]</t>
+        </is>
+      </c>
+      <c r="C2823" t="inlineStr"/>
+      <c r="D2823" t="inlineStr"/>
+      <c r="E2823" t="inlineStr"/>
+      <c r="F2823" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2824" t="inlineStr">
+        <is>
+          <t>[25, 32, 33]</t>
+        </is>
+      </c>
+      <c r="C2824" t="inlineStr"/>
+      <c r="D2824" t="inlineStr"/>
+      <c r="E2824" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2824" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2825" t="inlineStr">
+        <is>
+          <t>[11, 17, 25]</t>
+        </is>
+      </c>
+      <c r="C2825" t="inlineStr"/>
+      <c r="D2825" t="inlineStr"/>
+      <c r="E2825" t="inlineStr"/>
+      <c r="F2825" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2826" t="inlineStr">
+        <is>
+          <t>[0, 17, 26]</t>
+        </is>
+      </c>
+      <c r="C2826" t="inlineStr"/>
+      <c r="D2826" t="inlineStr"/>
+      <c r="E2826" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2826" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2827" t="inlineStr">
+        <is>
+          <t>[10, 21, 25]</t>
+        </is>
+      </c>
+      <c r="C2827" t="inlineStr"/>
+      <c r="D2827" t="inlineStr"/>
+      <c r="E2827" t="inlineStr"/>
+      <c r="F2827" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2828" t="inlineStr">
+        <is>
+          <t>[20, 21, 31]</t>
+        </is>
+      </c>
+      <c r="C2828" t="inlineStr"/>
+      <c r="D2828" t="inlineStr"/>
+      <c r="E2828" t="inlineStr"/>
+      <c r="F2828" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2829" t="inlineStr">
+        <is>
+          <t>[29, 30, 31]</t>
+        </is>
+      </c>
+      <c r="C2829" t="inlineStr"/>
+      <c r="D2829" t="inlineStr"/>
+      <c r="E2829" t="inlineStr"/>
+      <c r="F2829" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2830" t="inlineStr">
+        <is>
+          <t>[4, 12, 21]</t>
+        </is>
+      </c>
+      <c r="C2830" t="inlineStr"/>
+      <c r="D2830" t="inlineStr"/>
+      <c r="E2830" t="inlineStr"/>
+      <c r="F2830" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2831" t="inlineStr">
+        <is>
+          <t>[12, 21, 28]</t>
+        </is>
+      </c>
+      <c r="C2831" t="inlineStr"/>
+      <c r="D2831" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2831" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2831" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2832" t="inlineStr">
+        <is>
+          <t>[2, 15, 27]</t>
+        </is>
+      </c>
+      <c r="C2832" t="inlineStr"/>
+      <c r="D2832" t="inlineStr"/>
+      <c r="E2832" t="inlineStr"/>
+      <c r="F2832" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2833" t="inlineStr">
+        <is>
+          <t>[9, 34, 36]</t>
+        </is>
+      </c>
+      <c r="C2833" t="inlineStr"/>
+      <c r="D2833" t="inlineStr"/>
+      <c r="E2833" t="inlineStr"/>
+      <c r="F2833" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2834" t="inlineStr">
+        <is>
+          <t>[8, 9, 10]</t>
+        </is>
+      </c>
+      <c r="C2834" t="inlineStr"/>
+      <c r="D2834" t="inlineStr"/>
+      <c r="E2834" t="inlineStr"/>
+      <c r="F2834" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2835" t="inlineStr">
+        <is>
+          <t>[4, 8, 10]</t>
+        </is>
+      </c>
+      <c r="C2835" t="inlineStr"/>
+      <c r="D2835" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2835" t="inlineStr"/>
+      <c r="F2835" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2836" t="inlineStr">
+        <is>
+          <t>[8, 10, 15]</t>
+        </is>
+      </c>
+      <c r="C2836" t="inlineStr"/>
+      <c r="D2836" t="inlineStr"/>
+      <c r="E2836" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2836" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2837" t="inlineStr">
+        <is>
+          <t>[10, 15, 34]</t>
+        </is>
+      </c>
+      <c r="C2837" t="inlineStr"/>
+      <c r="D2837" t="inlineStr"/>
+      <c r="E2837" t="inlineStr"/>
+      <c r="F2837" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2838" t="inlineStr">
+        <is>
+          <t>[1, 24, 35]</t>
+        </is>
+      </c>
+      <c r="C2838" t="inlineStr"/>
+      <c r="D2838" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2838" t="inlineStr"/>
+      <c r="F2838" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2839" t="inlineStr">
+        <is>
+          <t>[19, 27, 33]</t>
+        </is>
+      </c>
+      <c r="C2839" t="inlineStr"/>
+      <c r="D2839" t="inlineStr"/>
+      <c r="E2839" t="inlineStr"/>
+      <c r="F2839" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2840" t="inlineStr">
+        <is>
+          <t>[9, 19, 30]</t>
+        </is>
+      </c>
+      <c r="C2840" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2840" t="inlineStr"/>
+      <c r="E2840" t="inlineStr"/>
+      <c r="F2840" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2841" t="inlineStr">
+        <is>
+          <t>[3, 6, 23]</t>
+        </is>
+      </c>
+      <c r="C2841" t="inlineStr"/>
+      <c r="D2841" t="inlineStr"/>
+      <c r="E2841" t="inlineStr"/>
+      <c r="F2841" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2842" t="inlineStr">
+        <is>
+          <t>[6, 23, 35]</t>
+        </is>
+      </c>
+      <c r="C2842" t="inlineStr"/>
+      <c r="D2842" t="inlineStr"/>
+      <c r="E2842" t="inlineStr"/>
+      <c r="F2842" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2843" t="inlineStr">
+        <is>
+          <t>[6, 24, 29]</t>
+        </is>
+      </c>
+      <c r="C2843" t="inlineStr"/>
+      <c r="D2843" t="inlineStr"/>
+      <c r="E2843" t="inlineStr"/>
+      <c r="F2843" t="n">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2843"/>
+  <dimension ref="A1:F3044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44051,6 +44051,3602 @@
         <v>87</v>
       </c>
     </row>
+    <row r="2844">
+      <c r="A2844" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2844" t="inlineStr">
+        <is>
+          <t>[3, 6, 11, 22]</t>
+        </is>
+      </c>
+      <c r="C2844" t="inlineStr"/>
+      <c r="D2844" t="inlineStr"/>
+      <c r="E2844" t="inlineStr"/>
+      <c r="F2844" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2845" t="inlineStr">
+        <is>
+          <t>[2, 3, 6, 12]</t>
+        </is>
+      </c>
+      <c r="C2845" t="inlineStr"/>
+      <c r="D2845" t="inlineStr"/>
+      <c r="E2845" t="inlineStr"/>
+      <c r="F2845" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2846" t="inlineStr">
+        <is>
+          <t>[10, 14, 15, 21]</t>
+        </is>
+      </c>
+      <c r="C2846" t="inlineStr"/>
+      <c r="D2846" t="inlineStr"/>
+      <c r="E2846" t="inlineStr"/>
+      <c r="F2846" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2847" t="inlineStr">
+        <is>
+          <t>[5, 15, 21, 35]</t>
+        </is>
+      </c>
+      <c r="C2847" t="inlineStr"/>
+      <c r="D2847" t="inlineStr"/>
+      <c r="E2847" t="inlineStr"/>
+      <c r="F2847" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2848" t="inlineStr">
+        <is>
+          <t>[2, 21, 31, 35]</t>
+        </is>
+      </c>
+      <c r="C2848" t="inlineStr"/>
+      <c r="D2848" t="inlineStr"/>
+      <c r="E2848" t="inlineStr"/>
+      <c r="F2848" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2849" t="inlineStr">
+        <is>
+          <t>[29, 30, 31, 35]</t>
+        </is>
+      </c>
+      <c r="C2849" t="inlineStr"/>
+      <c r="D2849" t="inlineStr"/>
+      <c r="E2849" t="inlineStr"/>
+      <c r="F2849" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2850" t="inlineStr">
+        <is>
+          <t>[24, 29, 32, 35]</t>
+        </is>
+      </c>
+      <c r="C2850" t="inlineStr"/>
+      <c r="D2850" t="inlineStr"/>
+      <c r="E2850" t="inlineStr"/>
+      <c r="F2850" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2851" t="inlineStr">
+        <is>
+          <t>[12, 15, 19, 25]</t>
+        </is>
+      </c>
+      <c r="C2851" t="inlineStr"/>
+      <c r="D2851" t="inlineStr"/>
+      <c r="E2851" t="inlineStr"/>
+      <c r="F2851" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2852" t="inlineStr">
+        <is>
+          <t>[9, 25, 27, 32]</t>
+        </is>
+      </c>
+      <c r="C2852" t="inlineStr"/>
+      <c r="D2852" t="inlineStr"/>
+      <c r="E2852" t="inlineStr"/>
+      <c r="F2852" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2853" t="inlineStr">
+        <is>
+          <t>[0, 26, 30, 31]</t>
+        </is>
+      </c>
+      <c r="C2853" t="inlineStr"/>
+      <c r="D2853" t="inlineStr"/>
+      <c r="E2853" t="inlineStr"/>
+      <c r="F2853" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2854" t="inlineStr">
+        <is>
+          <t>[3, 7, 11, 17]</t>
+        </is>
+      </c>
+      <c r="C2854" t="inlineStr"/>
+      <c r="D2854" t="inlineStr"/>
+      <c r="E2854" t="inlineStr"/>
+      <c r="F2854" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2855" t="inlineStr">
+        <is>
+          <t>[2, 3, 11, 12]</t>
+        </is>
+      </c>
+      <c r="C2855" t="inlineStr"/>
+      <c r="D2855" t="inlineStr"/>
+      <c r="E2855" t="inlineStr"/>
+      <c r="F2855" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2856" t="inlineStr">
+        <is>
+          <t>[2, 5, 6, 8]</t>
+        </is>
+      </c>
+      <c r="C2856" t="inlineStr"/>
+      <c r="D2856" t="inlineStr"/>
+      <c r="E2856" t="inlineStr"/>
+      <c r="F2856" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2857" t="inlineStr">
+        <is>
+          <t>[1, 3, 14, 21]</t>
+        </is>
+      </c>
+      <c r="C2857" t="inlineStr"/>
+      <c r="D2857" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2857" t="inlineStr"/>
+      <c r="F2857" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t>[5, 10, 14, 21]</t>
+        </is>
+      </c>
+      <c r="C2858" t="inlineStr"/>
+      <c r="D2858" t="inlineStr"/>
+      <c r="E2858" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2858" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2859" t="inlineStr">
+        <is>
+          <t>[5, 10, 20, 34]</t>
+        </is>
+      </c>
+      <c r="C2859" t="inlineStr"/>
+      <c r="D2859" t="inlineStr"/>
+      <c r="E2859" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2859" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2860" t="inlineStr">
+        <is>
+          <t>[1, 19, 25, 33]</t>
+        </is>
+      </c>
+      <c r="C2860" t="inlineStr"/>
+      <c r="D2860" t="inlineStr"/>
+      <c r="E2860" t="inlineStr"/>
+      <c r="F2860" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2861" t="inlineStr">
+        <is>
+          <t>[12, 23, 27, 35]</t>
+        </is>
+      </c>
+      <c r="C2861" t="inlineStr"/>
+      <c r="D2861" t="inlineStr"/>
+      <c r="E2861" t="inlineStr"/>
+      <c r="F2861" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>[6, 19, 33, 35]</t>
+        </is>
+      </c>
+      <c r="C2862" t="inlineStr"/>
+      <c r="D2862" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2862" t="inlineStr"/>
+      <c r="F2862" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t>[6, 7, 32, 33]</t>
+        </is>
+      </c>
+      <c r="C2863" t="inlineStr"/>
+      <c r="D2863" t="inlineStr"/>
+      <c r="E2863" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2863" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>[3, 11, 21, 25]</t>
+        </is>
+      </c>
+      <c r="C2864" t="inlineStr"/>
+      <c r="D2864" t="inlineStr"/>
+      <c r="E2864" t="inlineStr"/>
+      <c r="F2864" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>[3, 21, 22, 35]</t>
+        </is>
+      </c>
+      <c r="C2865" t="inlineStr"/>
+      <c r="D2865" t="inlineStr"/>
+      <c r="E2865" t="inlineStr"/>
+      <c r="F2865" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>[1, 3, 14, 27]</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr"/>
+      <c r="D2866" t="inlineStr"/>
+      <c r="E2866" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2866" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>[14, 16, 22, 29]</t>
+        </is>
+      </c>
+      <c r="C2867" t="inlineStr"/>
+      <c r="D2867" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2867" t="inlineStr"/>
+      <c r="F2867" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>[14, 24, 27, 29]</t>
+        </is>
+      </c>
+      <c r="C2868" t="inlineStr"/>
+      <c r="D2868" t="inlineStr"/>
+      <c r="E2868" t="inlineStr"/>
+      <c r="F2868" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>[1, 5, 10, 20]</t>
+        </is>
+      </c>
+      <c r="C2869" t="inlineStr"/>
+      <c r="D2869" t="inlineStr"/>
+      <c r="E2869" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2869" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>[1, 5, 20, 21]</t>
+        </is>
+      </c>
+      <c r="C2870" t="inlineStr"/>
+      <c r="D2870" t="inlineStr"/>
+      <c r="E2870" t="inlineStr"/>
+      <c r="F2870" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>[1, 19, 21, 31]</t>
+        </is>
+      </c>
+      <c r="C2871" t="inlineStr"/>
+      <c r="D2871" t="inlineStr"/>
+      <c r="E2871" t="inlineStr"/>
+      <c r="F2871" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>[3, 6, 12, 18]</t>
+        </is>
+      </c>
+      <c r="C2872" t="inlineStr"/>
+      <c r="D2872" t="inlineStr"/>
+      <c r="E2872" t="inlineStr"/>
+      <c r="F2872" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>[6, 19, 24, 33]</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr"/>
+      <c r="D2873" t="inlineStr"/>
+      <c r="E2873" t="inlineStr"/>
+      <c r="F2873" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>[24, 29, 32, 33]</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr"/>
+      <c r="D2874" t="inlineStr"/>
+      <c r="E2874" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2874" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>[3, 7, 11, 17]</t>
+        </is>
+      </c>
+      <c r="C2875" t="inlineStr"/>
+      <c r="D2875" t="inlineStr"/>
+      <c r="E2875" t="inlineStr"/>
+      <c r="F2875" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>[2, 5, 8, 14]</t>
+        </is>
+      </c>
+      <c r="C2876" t="inlineStr"/>
+      <c r="D2876" t="inlineStr"/>
+      <c r="E2876" t="inlineStr"/>
+      <c r="F2876" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>[0, 10, 14, 15]</t>
+        </is>
+      </c>
+      <c r="C2877" t="inlineStr"/>
+      <c r="D2877" t="inlineStr"/>
+      <c r="E2877" t="inlineStr"/>
+      <c r="F2877" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>[10, 14, 15, 21]</t>
+        </is>
+      </c>
+      <c r="C2878" t="inlineStr"/>
+      <c r="D2878" t="inlineStr"/>
+      <c r="E2878" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2878" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>[5, 10, 34, 35]</t>
+        </is>
+      </c>
+      <c r="C2879" t="inlineStr"/>
+      <c r="D2879" t="inlineStr"/>
+      <c r="E2879" t="inlineStr"/>
+      <c r="F2879" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t>[5, 19, 28, 33]</t>
+        </is>
+      </c>
+      <c r="C2880" t="inlineStr"/>
+      <c r="D2880" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2880" t="inlineStr"/>
+      <c r="F2880" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2881" t="inlineStr">
+        <is>
+          <t>[9, 23, 27, 35]</t>
+        </is>
+      </c>
+      <c r="C2881" t="inlineStr"/>
+      <c r="D2881" t="inlineStr"/>
+      <c r="E2881" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2881" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2882" t="inlineStr">
+        <is>
+          <t>[6, 19, 23, 35]</t>
+        </is>
+      </c>
+      <c r="C2882" t="inlineStr"/>
+      <c r="D2882" t="inlineStr"/>
+      <c r="E2882" t="inlineStr"/>
+      <c r="F2882" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2883" t="inlineStr">
+        <is>
+          <t>[6, 19, 24, 33]</t>
+        </is>
+      </c>
+      <c r="C2883" t="inlineStr"/>
+      <c r="D2883" t="inlineStr"/>
+      <c r="E2883" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2883" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2884" t="inlineStr">
+        <is>
+          <t>[17, 21, 25, 33]</t>
+        </is>
+      </c>
+      <c r="C2884" t="inlineStr"/>
+      <c r="D2884" t="inlineStr"/>
+      <c r="E2884" t="inlineStr"/>
+      <c r="F2884" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2885" t="inlineStr">
+        <is>
+          <t>[3, 9, 33, 35]</t>
+        </is>
+      </c>
+      <c r="C2885" t="inlineStr"/>
+      <c r="D2885" t="inlineStr"/>
+      <c r="E2885" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2885" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2886" t="inlineStr">
+        <is>
+          <t>[14, 22, 27, 29]</t>
+        </is>
+      </c>
+      <c r="C2886" t="inlineStr"/>
+      <c r="D2886" t="inlineStr"/>
+      <c r="E2886" t="inlineStr"/>
+      <c r="F2886" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2887" t="inlineStr">
+        <is>
+          <t>[3, 6, 8, 22]</t>
+        </is>
+      </c>
+      <c r="C2887" t="inlineStr"/>
+      <c r="D2887" t="inlineStr"/>
+      <c r="E2887" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2887" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2888" t="inlineStr">
+        <is>
+          <t>[7, 8, 11, 24]</t>
+        </is>
+      </c>
+      <c r="C2888" t="inlineStr"/>
+      <c r="D2888" t="inlineStr"/>
+      <c r="E2888" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2888" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2889" t="inlineStr">
+        <is>
+          <t>[7, 8, 11, 24]</t>
+        </is>
+      </c>
+      <c r="C2889" t="inlineStr"/>
+      <c r="D2889" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2889" t="inlineStr"/>
+      <c r="F2889" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2890" t="inlineStr">
+        <is>
+          <t>[8, 10, 11, 14]</t>
+        </is>
+      </c>
+      <c r="C2890" t="inlineStr"/>
+      <c r="D2890" t="inlineStr"/>
+      <c r="E2890" t="inlineStr"/>
+      <c r="F2890" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2891" t="inlineStr">
+        <is>
+          <t>[0, 10, 14, 17]</t>
+        </is>
+      </c>
+      <c r="C2891" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2891" t="inlineStr"/>
+      <c r="E2891" t="inlineStr"/>
+      <c r="F2891" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2892" t="inlineStr">
+        <is>
+          <t>[10, 14, 15, 18]</t>
+        </is>
+      </c>
+      <c r="C2892" t="inlineStr"/>
+      <c r="D2892" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2892" t="inlineStr"/>
+      <c r="F2892" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2893" t="inlineStr">
+        <is>
+          <t>[14, 18, 19, 33]</t>
+        </is>
+      </c>
+      <c r="C2893" t="inlineStr"/>
+      <c r="D2893" t="inlineStr"/>
+      <c r="E2893" t="inlineStr"/>
+      <c r="F2893" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2894" t="inlineStr">
+        <is>
+          <t>[14, 19, 24, 29]</t>
+        </is>
+      </c>
+      <c r="C2894" t="inlineStr"/>
+      <c r="D2894" t="inlineStr"/>
+      <c r="E2894" t="inlineStr"/>
+      <c r="F2894" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2895" t="inlineStr">
+        <is>
+          <t>[7, 16, 24, 29]</t>
+        </is>
+      </c>
+      <c r="C2895" t="inlineStr"/>
+      <c r="D2895" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2895" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2895" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2896" t="inlineStr">
+        <is>
+          <t>[7, 16, 24, 29]</t>
+        </is>
+      </c>
+      <c r="C2896" t="inlineStr"/>
+      <c r="D2896" t="inlineStr"/>
+      <c r="E2896" t="inlineStr"/>
+      <c r="F2896" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2897" t="inlineStr">
+        <is>
+          <t>[14, 16, 22, 29]</t>
+        </is>
+      </c>
+      <c r="C2897" t="inlineStr"/>
+      <c r="D2897" t="inlineStr"/>
+      <c r="E2897" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2897" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2898" t="inlineStr">
+        <is>
+          <t>[5, 10, 14, 29]</t>
+        </is>
+      </c>
+      <c r="C2898" t="inlineStr"/>
+      <c r="D2898" t="inlineStr"/>
+      <c r="E2898" t="inlineStr"/>
+      <c r="F2898" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2899" t="inlineStr">
+        <is>
+          <t>[1, 5, 20, 25]</t>
+        </is>
+      </c>
+      <c r="C2899" t="inlineStr"/>
+      <c r="D2899" t="inlineStr"/>
+      <c r="E2899" t="inlineStr"/>
+      <c r="F2899" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>[1, 20, 25, 27]</t>
+        </is>
+      </c>
+      <c r="C2900" t="inlineStr"/>
+      <c r="D2900" t="inlineStr"/>
+      <c r="E2900" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2900" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2901" t="inlineStr">
+        <is>
+          <t>[3, 12, 19, 27]</t>
+        </is>
+      </c>
+      <c r="C2901" t="inlineStr"/>
+      <c r="D2901" t="inlineStr"/>
+      <c r="E2901" t="inlineStr"/>
+      <c r="F2901" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2902" t="inlineStr">
+        <is>
+          <t>[6, 19, 35, 36]</t>
+        </is>
+      </c>
+      <c r="C2902" t="inlineStr"/>
+      <c r="D2902" t="inlineStr"/>
+      <c r="E2902" t="inlineStr"/>
+      <c r="F2902" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>[6, 7, 32, 33]</t>
+        </is>
+      </c>
+      <c r="C2903" t="inlineStr"/>
+      <c r="D2903" t="inlineStr"/>
+      <c r="E2903" t="inlineStr"/>
+      <c r="F2903" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>[3, 7, 11, 12]</t>
+        </is>
+      </c>
+      <c r="C2904" t="inlineStr"/>
+      <c r="D2904" t="inlineStr"/>
+      <c r="E2904" t="inlineStr"/>
+      <c r="F2904" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>[2, 3, 6, 12]</t>
+        </is>
+      </c>
+      <c r="C2905" t="inlineStr"/>
+      <c r="D2905" t="inlineStr"/>
+      <c r="E2905" t="inlineStr"/>
+      <c r="F2905" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>[3, 10, 21, 26]</t>
+        </is>
+      </c>
+      <c r="C2906" t="inlineStr"/>
+      <c r="D2906" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2906" t="inlineStr"/>
+      <c r="F2906" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>[1, 25, 28, 33]</t>
+        </is>
+      </c>
+      <c r="C2907" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2907" t="inlineStr"/>
+      <c r="E2907" t="inlineStr"/>
+      <c r="F2907" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>[1, 19, 27, 28]</t>
+        </is>
+      </c>
+      <c r="C2908" t="inlineStr"/>
+      <c r="D2908" t="inlineStr"/>
+      <c r="E2908" t="inlineStr"/>
+      <c r="F2908" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>[6, 19, 23, 35]</t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr"/>
+      <c r="D2909" t="inlineStr"/>
+      <c r="E2909" t="inlineStr"/>
+      <c r="F2909" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>[6, 19, 24, 33]</t>
+        </is>
+      </c>
+      <c r="C2910" t="inlineStr"/>
+      <c r="D2910" t="inlineStr"/>
+      <c r="E2910" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2910" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>[6, 7, 30, 33]</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr"/>
+      <c r="D2911" t="inlineStr"/>
+      <c r="E2911" t="inlineStr"/>
+      <c r="F2911" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>[3, 11, 12, 21]</t>
+        </is>
+      </c>
+      <c r="C2912" t="inlineStr"/>
+      <c r="D2912" t="inlineStr"/>
+      <c r="E2912" t="inlineStr"/>
+      <c r="F2912" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>[1, 3, 14, 27]</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr"/>
+      <c r="D2913" t="inlineStr"/>
+      <c r="E2913" t="inlineStr"/>
+      <c r="F2913" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>[3, 14, 22, 29]</t>
+        </is>
+      </c>
+      <c r="C2914" t="inlineStr"/>
+      <c r="D2914" t="inlineStr"/>
+      <c r="E2914" t="inlineStr"/>
+      <c r="F2914" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>[7, 8, 24, 29]</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr"/>
+      <c r="D2915" t="inlineStr"/>
+      <c r="E2915" t="inlineStr"/>
+      <c r="F2915" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>[0, 6, 8, 11, 14, 18]</t>
+        </is>
+      </c>
+      <c r="C2916" t="inlineStr"/>
+      <c r="D2916" t="inlineStr"/>
+      <c r="E2916" t="inlineStr"/>
+      <c r="F2916" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>[6, 12, 14, 16, 18, 29]</t>
+        </is>
+      </c>
+      <c r="C2917" t="inlineStr"/>
+      <c r="D2917" t="inlineStr"/>
+      <c r="E2917" t="inlineStr"/>
+      <c r="F2917" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>[12, 13, 14, 18, 21, 29]</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr"/>
+      <c r="D2918" t="inlineStr"/>
+      <c r="E2918" t="inlineStr"/>
+      <c r="F2918" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>[5, 13, 14, 18, 21, 29]</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr"/>
+      <c r="D2919" t="inlineStr"/>
+      <c r="E2919" t="inlineStr"/>
+      <c r="F2919" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>[1, 5, 20, 27, 33, 35]</t>
+        </is>
+      </c>
+      <c r="C2920" t="inlineStr"/>
+      <c r="D2920" t="inlineStr"/>
+      <c r="E2920" t="inlineStr"/>
+      <c r="F2920" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>[1, 3, 5, 22, 23, 27]</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr"/>
+      <c r="D2921" t="inlineStr"/>
+      <c r="E2921" t="inlineStr"/>
+      <c r="F2921" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>[16, 22, 23, 24, 29, 30]</t>
+        </is>
+      </c>
+      <c r="C2922" t="inlineStr"/>
+      <c r="D2922" t="inlineStr"/>
+      <c r="E2922" t="inlineStr"/>
+      <c r="F2922" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>[6, 7, 8, 22, 24, 30]</t>
+        </is>
+      </c>
+      <c r="C2923" t="inlineStr"/>
+      <c r="D2923" t="inlineStr"/>
+      <c r="E2923" t="inlineStr"/>
+      <c r="F2923" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>[6, 7, 8, 11, 22, 24]</t>
+        </is>
+      </c>
+      <c r="C2924" t="inlineStr"/>
+      <c r="D2924" t="inlineStr"/>
+      <c r="E2924" t="inlineStr"/>
+      <c r="F2924" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>[0, 6, 8, 10, 18, 22]</t>
+        </is>
+      </c>
+      <c r="C2925" t="inlineStr"/>
+      <c r="D2925" t="inlineStr"/>
+      <c r="E2925" t="inlineStr"/>
+      <c r="F2925" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>[0, 8, 10, 15, 18, 27]</t>
+        </is>
+      </c>
+      <c r="C2926" t="inlineStr"/>
+      <c r="D2926" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2926" t="inlineStr"/>
+      <c r="F2926" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>[8, 10, 14, 18, 19, 34]</t>
+        </is>
+      </c>
+      <c r="C2927" t="inlineStr"/>
+      <c r="D2927" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2927" t="inlineStr"/>
+      <c r="F2927" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>[14, 16, 18, 19, 34, 35]</t>
+        </is>
+      </c>
+      <c r="C2928" t="inlineStr"/>
+      <c r="D2928" t="inlineStr"/>
+      <c r="E2928" t="inlineStr"/>
+      <c r="F2928" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>[8, 12, 13, 14, 18, 21]</t>
+        </is>
+      </c>
+      <c r="C2929" t="inlineStr"/>
+      <c r="D2929" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2929" t="inlineStr"/>
+      <c r="F2929" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>[5, 14, 18, 21, 26, 29]</t>
+        </is>
+      </c>
+      <c r="C2930" t="inlineStr"/>
+      <c r="D2930" t="inlineStr"/>
+      <c r="E2930" t="inlineStr"/>
+      <c r="F2930" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>[1, 5, 14, 27, 34, 35]</t>
+        </is>
+      </c>
+      <c r="C2931" t="inlineStr"/>
+      <c r="D2931" t="inlineStr"/>
+      <c r="E2931" t="inlineStr"/>
+      <c r="F2931" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>[3, 5, 14, 23, 27, 29]</t>
+        </is>
+      </c>
+      <c r="C2932" t="inlineStr"/>
+      <c r="D2932" t="inlineStr"/>
+      <c r="E2932" t="inlineStr"/>
+      <c r="F2932" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>[3, 6, 16, 24, 29, 30]</t>
+        </is>
+      </c>
+      <c r="C2933" t="inlineStr"/>
+      <c r="D2933" t="inlineStr"/>
+      <c r="E2933" t="inlineStr"/>
+      <c r="F2933" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>[6, 7, 11, 12, 22, 25]</t>
+        </is>
+      </c>
+      <c r="C2934" t="inlineStr"/>
+      <c r="D2934" t="inlineStr"/>
+      <c r="E2934" t="inlineStr"/>
+      <c r="F2934" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>[11, 12, 13, 23, 25, 26]</t>
+        </is>
+      </c>
+      <c r="C2935" t="inlineStr"/>
+      <c r="D2935" t="inlineStr"/>
+      <c r="E2935" t="inlineStr"/>
+      <c r="F2935" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>[0, 5, 20, 25, 32, 33]</t>
+        </is>
+      </c>
+      <c r="C2936" t="inlineStr"/>
+      <c r="D2936" t="inlineStr"/>
+      <c r="E2936" t="inlineStr"/>
+      <c r="F2936" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 25, 31, 33]</t>
+        </is>
+      </c>
+      <c r="C2937" t="inlineStr"/>
+      <c r="D2937" t="inlineStr"/>
+      <c r="E2937" t="inlineStr"/>
+      <c r="F2937" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>[6, 12, 15, 18, 19, 30]</t>
+        </is>
+      </c>
+      <c r="C2938" t="inlineStr"/>
+      <c r="D2938" t="inlineStr"/>
+      <c r="E2938" t="inlineStr"/>
+      <c r="F2938" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>[3, 6, 7, 12, 13, 19]</t>
+        </is>
+      </c>
+      <c r="C2939" t="inlineStr"/>
+      <c r="D2939" t="inlineStr"/>
+      <c r="E2939" t="inlineStr"/>
+      <c r="F2939" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2940" t="inlineStr">
+        <is>
+          <t>[6, 7, 10, 13, 24, 33]</t>
+        </is>
+      </c>
+      <c r="C2940" t="inlineStr"/>
+      <c r="D2940" t="inlineStr"/>
+      <c r="E2940" t="inlineStr"/>
+      <c r="F2940" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2941" t="inlineStr">
+        <is>
+          <t>[10, 17, 20, 21, 25, 33]</t>
+        </is>
+      </c>
+      <c r="C2941" t="inlineStr"/>
+      <c r="D2941" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2941" t="inlineStr"/>
+      <c r="F2941" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2942" t="inlineStr">
+        <is>
+          <t>[3, 9, 10, 11, 16, 25]</t>
+        </is>
+      </c>
+      <c r="C2942" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2942" t="inlineStr"/>
+      <c r="E2942" t="inlineStr"/>
+      <c r="F2942" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2943" t="inlineStr">
+        <is>
+          <t>[4, 5, 8, 20, 21, 32]</t>
+        </is>
+      </c>
+      <c r="C2943" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2943" t="inlineStr"/>
+      <c r="E2943" t="inlineStr"/>
+      <c r="F2943" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2944" t="inlineStr">
+        <is>
+          <t>[2, 8, 17, 20, 21, 30]</t>
+        </is>
+      </c>
+      <c r="C2944" t="inlineStr"/>
+      <c r="D2944" t="inlineStr"/>
+      <c r="E2944" t="inlineStr"/>
+      <c r="F2944" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2945" t="inlineStr">
+        <is>
+          <t>[2, 15, 18, 21, 30, 31]</t>
+        </is>
+      </c>
+      <c r="C2945" t="inlineStr"/>
+      <c r="D2945" t="inlineStr"/>
+      <c r="E2945" t="inlineStr"/>
+      <c r="F2945" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>[12, 15, 18, 27, 29, 35]</t>
+        </is>
+      </c>
+      <c r="C2946" t="inlineStr"/>
+      <c r="D2946" t="inlineStr"/>
+      <c r="E2946" t="inlineStr"/>
+      <c r="F2946" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>[11, 12, 15, 27, 28, 35]</t>
+        </is>
+      </c>
+      <c r="C2947" t="inlineStr"/>
+      <c r="D2947" t="inlineStr"/>
+      <c r="E2947" t="inlineStr"/>
+      <c r="F2947" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>[7, 14, 27, 30, 32, 34]</t>
+        </is>
+      </c>
+      <c r="C2948" t="inlineStr"/>
+      <c r="D2948" t="inlineStr"/>
+      <c r="E2948" t="inlineStr"/>
+      <c r="F2948" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>[7, 10, 27, 30, 34, 36]</t>
+        </is>
+      </c>
+      <c r="C2949" t="inlineStr"/>
+      <c r="D2949" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2949" t="inlineStr"/>
+      <c r="F2949" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2950" t="inlineStr">
+        <is>
+          <t>[10, 14, 17, 21, 22, 26]</t>
+        </is>
+      </c>
+      <c r="C2950" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2950" t="inlineStr"/>
+      <c r="E2950" t="inlineStr"/>
+      <c r="F2950" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2951" t="inlineStr">
+        <is>
+          <t>[2, 10, 12, 13, 18, 21]</t>
+        </is>
+      </c>
+      <c r="C2951" t="inlineStr"/>
+      <c r="D2951" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2951" t="inlineStr"/>
+      <c r="F2951" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2952" t="inlineStr">
+        <is>
+          <t>[1, 3, 14, 22, 27, 35]</t>
+        </is>
+      </c>
+      <c r="C2952" t="inlineStr"/>
+      <c r="D2952" t="inlineStr"/>
+      <c r="E2952" t="inlineStr"/>
+      <c r="F2952" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2953" t="inlineStr">
+        <is>
+          <t>[3, 7, 14, 16, 19, 29]</t>
+        </is>
+      </c>
+      <c r="C2953" t="inlineStr"/>
+      <c r="D2953" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2953" t="inlineStr"/>
+      <c r="F2953" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>[0, 7, 12, 14, 16, 29]</t>
+        </is>
+      </c>
+      <c r="C2954" t="inlineStr"/>
+      <c r="D2954" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2954" t="inlineStr"/>
+      <c r="F2954" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>[1, 12, 14, 16, 19, 29]</t>
+        </is>
+      </c>
+      <c r="C2955" t="inlineStr"/>
+      <c r="D2955" t="inlineStr"/>
+      <c r="E2955" t="inlineStr"/>
+      <c r="F2955" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>[3, 14, 16, 19, 27, 29]</t>
+        </is>
+      </c>
+      <c r="C2956" t="inlineStr"/>
+      <c r="D2956" t="inlineStr"/>
+      <c r="E2956" t="inlineStr"/>
+      <c r="F2956" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>[3, 6, 14, 22, 29, 30]</t>
+        </is>
+      </c>
+      <c r="C2957" t="inlineStr"/>
+      <c r="D2957" t="inlineStr"/>
+      <c r="E2957" t="inlineStr"/>
+      <c r="F2957" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>[6, 7, 8, 11, 12, 22]</t>
+        </is>
+      </c>
+      <c r="C2958" t="inlineStr"/>
+      <c r="D2958" t="inlineStr"/>
+      <c r="E2958" t="inlineStr"/>
+      <c r="F2958" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>[2, 6, 11, 12, 14, 23]</t>
+        </is>
+      </c>
+      <c r="C2959" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2959" t="inlineStr"/>
+      <c r="E2959" t="inlineStr"/>
+      <c r="F2959" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t>[3, 5, 10, 14, 24, 26]</t>
+        </is>
+      </c>
+      <c r="C2960" t="inlineStr"/>
+      <c r="D2960" t="inlineStr"/>
+      <c r="E2960" t="inlineStr"/>
+      <c r="F2960" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>[0, 4, 5, 32]</t>
+        </is>
+      </c>
+      <c r="C2961" t="inlineStr"/>
+      <c r="D2961" t="inlineStr"/>
+      <c r="E2961" t="inlineStr"/>
+      <c r="F2961" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2962" t="inlineStr">
+        <is>
+          <t>[3, 5, 8, 9]</t>
+        </is>
+      </c>
+      <c r="C2962" t="inlineStr"/>
+      <c r="D2962" t="inlineStr"/>
+      <c r="E2962" t="inlineStr"/>
+      <c r="F2962" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2963" t="inlineStr">
+        <is>
+          <t>[13, 27, 30, 34]</t>
+        </is>
+      </c>
+      <c r="C2963" t="inlineStr"/>
+      <c r="D2963" t="inlineStr"/>
+      <c r="E2963" t="inlineStr"/>
+      <c r="F2963" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>[10, 19, 33, 34]</t>
+        </is>
+      </c>
+      <c r="C2964" t="inlineStr"/>
+      <c r="D2964" t="inlineStr"/>
+      <c r="E2964" t="inlineStr"/>
+      <c r="F2964" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2965" t="inlineStr">
+        <is>
+          <t>[6, 10, 28, 33]</t>
+        </is>
+      </c>
+      <c r="C2965" t="inlineStr"/>
+      <c r="D2965" t="inlineStr"/>
+      <c r="E2965" t="inlineStr"/>
+      <c r="F2965" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2966" t="inlineStr">
+        <is>
+          <t>[3, 9, 23, 33]</t>
+        </is>
+      </c>
+      <c r="C2966" t="inlineStr"/>
+      <c r="D2966" t="inlineStr"/>
+      <c r="E2966" t="inlineStr"/>
+      <c r="F2966" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2967" t="inlineStr">
+        <is>
+          <t>[1, 22, 27, 35]</t>
+        </is>
+      </c>
+      <c r="C2967" t="inlineStr"/>
+      <c r="D2967" t="inlineStr"/>
+      <c r="E2967" t="inlineStr"/>
+      <c r="F2967" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2968" t="inlineStr">
+        <is>
+          <t>[0, 1, 14, 22]</t>
+        </is>
+      </c>
+      <c r="C2968" t="inlineStr"/>
+      <c r="D2968" t="inlineStr"/>
+      <c r="E2968" t="inlineStr"/>
+      <c r="F2968" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2969" t="inlineStr">
+        <is>
+          <t>[6, 7, 23, 35]</t>
+        </is>
+      </c>
+      <c r="C2969" t="inlineStr"/>
+      <c r="D2969" t="inlineStr"/>
+      <c r="E2969" t="inlineStr"/>
+      <c r="F2969" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2970" t="inlineStr">
+        <is>
+          <t>[12, 23, 25, 29]</t>
+        </is>
+      </c>
+      <c r="C2970" t="inlineStr"/>
+      <c r="D2970" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2970" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2970" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2971" t="inlineStr">
+        <is>
+          <t>[1, 10, 20, 33]</t>
+        </is>
+      </c>
+      <c r="C2971" t="inlineStr"/>
+      <c r="D2971" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2971" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2971" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2972" t="inlineStr">
+        <is>
+          <t>[0, 14, 20, 28]</t>
+        </is>
+      </c>
+      <c r="C2972" t="inlineStr"/>
+      <c r="D2972" t="inlineStr"/>
+      <c r="E2972" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2972" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>[0, 3, 5, 32]</t>
+        </is>
+      </c>
+      <c r="C2973" t="inlineStr"/>
+      <c r="D2973" t="inlineStr"/>
+      <c r="E2973" t="inlineStr"/>
+      <c r="F2973" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2974" t="inlineStr">
+        <is>
+          <t>[3, 21, 30, 34]</t>
+        </is>
+      </c>
+      <c r="C2974" t="inlineStr"/>
+      <c r="D2974" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2974" t="inlineStr"/>
+      <c r="F2974" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2975" t="inlineStr">
+        <is>
+          <t>[12, 27, 30, 34]</t>
+        </is>
+      </c>
+      <c r="C2975" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2975" t="inlineStr"/>
+      <c r="E2975" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2975" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2976" t="inlineStr">
+        <is>
+          <t>[7, 23, 24, 30]</t>
+        </is>
+      </c>
+      <c r="C2976" t="inlineStr"/>
+      <c r="D2976" t="inlineStr"/>
+      <c r="E2976" t="inlineStr"/>
+      <c r="F2976" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2977" t="inlineStr">
+        <is>
+          <t>[3, 7, 24, 30]</t>
+        </is>
+      </c>
+      <c r="C2977" t="inlineStr"/>
+      <c r="D2977" t="inlineStr"/>
+      <c r="E2977" t="inlineStr"/>
+      <c r="F2977" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2978" t="inlineStr">
+        <is>
+          <t>[7, 23, 32, 34]</t>
+        </is>
+      </c>
+      <c r="C2978" t="inlineStr"/>
+      <c r="D2978" t="inlineStr"/>
+      <c r="E2978" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2978" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2979" t="inlineStr">
+        <is>
+          <t>[4, 6, 8, 24]</t>
+        </is>
+      </c>
+      <c r="C2979" t="inlineStr"/>
+      <c r="D2979" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2979" t="inlineStr"/>
+      <c r="F2979" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>[4, 10, 17, 22]</t>
+        </is>
+      </c>
+      <c r="C2980" t="inlineStr"/>
+      <c r="D2980" t="inlineStr"/>
+      <c r="E2980" t="inlineStr"/>
+      <c r="F2980" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>[6, 10, 15, 17]</t>
+        </is>
+      </c>
+      <c r="C2981" t="inlineStr"/>
+      <c r="D2981" t="inlineStr"/>
+      <c r="E2981" t="inlineStr"/>
+      <c r="F2981" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2982" t="inlineStr">
+        <is>
+          <t>[5, 8, 10, 14]</t>
+        </is>
+      </c>
+      <c r="C2982" t="inlineStr"/>
+      <c r="D2982" t="inlineStr"/>
+      <c r="E2982" t="inlineStr"/>
+      <c r="F2982" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2983" t="inlineStr">
+        <is>
+          <t>[5, 8, 10, 14]</t>
+        </is>
+      </c>
+      <c r="C2983" t="inlineStr"/>
+      <c r="D2983" t="inlineStr"/>
+      <c r="E2983" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2983" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>[14, 15, 17, 18]</t>
+        </is>
+      </c>
+      <c r="C2984" t="inlineStr"/>
+      <c r="D2984" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2984" t="inlineStr"/>
+      <c r="F2984" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2985" t="inlineStr">
+        <is>
+          <t>[14, 18, 33, 35]</t>
+        </is>
+      </c>
+      <c r="C2985" t="inlineStr"/>
+      <c r="D2985" t="inlineStr"/>
+      <c r="E2985" t="inlineStr"/>
+      <c r="F2985" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2986" t="inlineStr">
+        <is>
+          <t>[5, 21, 31, 34]</t>
+        </is>
+      </c>
+      <c r="C2986" t="inlineStr"/>
+      <c r="D2986" t="inlineStr"/>
+      <c r="E2986" t="inlineStr"/>
+      <c r="F2986" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2987" t="inlineStr">
+        <is>
+          <t>[19, 20, 28, 33]</t>
+        </is>
+      </c>
+      <c r="C2987" t="inlineStr"/>
+      <c r="D2987" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2987" t="inlineStr"/>
+      <c r="F2987" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2988" t="inlineStr">
+        <is>
+          <t>[0, 3, 13, 19]</t>
+        </is>
+      </c>
+      <c r="C2988" t="inlineStr"/>
+      <c r="D2988" t="inlineStr"/>
+      <c r="E2988" t="inlineStr"/>
+      <c r="F2988" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2989" t="inlineStr">
+        <is>
+          <t>[3, 12, 30, 34]</t>
+        </is>
+      </c>
+      <c r="C2989" t="inlineStr"/>
+      <c r="D2989" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2989" t="inlineStr"/>
+      <c r="F2989" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2990" t="inlineStr">
+        <is>
+          <t>[2, 8, 16, 17]</t>
+        </is>
+      </c>
+      <c r="C2990" t="inlineStr"/>
+      <c r="D2990" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2990" t="inlineStr"/>
+      <c r="F2990" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2991" t="inlineStr">
+        <is>
+          <t>[3, 6, 17, 31]</t>
+        </is>
+      </c>
+      <c r="C2991" t="inlineStr"/>
+      <c r="D2991" t="inlineStr"/>
+      <c r="E2991" t="inlineStr"/>
+      <c r="F2991" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2992" t="inlineStr">
+        <is>
+          <t>[6, 7, 16, 31]</t>
+        </is>
+      </c>
+      <c r="C2992" t="inlineStr"/>
+      <c r="D2992" t="inlineStr"/>
+      <c r="E2992" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2992" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2993" t="inlineStr">
+        <is>
+          <t>[0, 1, 7, 14]</t>
+        </is>
+      </c>
+      <c r="C2993" t="inlineStr"/>
+      <c r="D2993" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2993" t="inlineStr"/>
+      <c r="F2993" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t>[6, 10, 17, 18]</t>
+        </is>
+      </c>
+      <c r="C2994" t="inlineStr"/>
+      <c r="D2994" t="inlineStr"/>
+      <c r="E2994" t="inlineStr"/>
+      <c r="F2994" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2995" t="inlineStr">
+        <is>
+          <t>[5, 14, 32, 33]</t>
+        </is>
+      </c>
+      <c r="C2995" t="inlineStr"/>
+      <c r="D2995" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2995" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2995" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2996" t="inlineStr">
+        <is>
+          <t>[5, 15, 22, 32]</t>
+        </is>
+      </c>
+      <c r="C2996" t="inlineStr"/>
+      <c r="D2996" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2996" t="inlineStr"/>
+      <c r="F2996" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2997" t="inlineStr">
+        <is>
+          <t>[0, 12, 17, 28]</t>
+        </is>
+      </c>
+      <c r="C2997" t="inlineStr"/>
+      <c r="D2997" t="inlineStr"/>
+      <c r="E2997" t="inlineStr"/>
+      <c r="F2997" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2998" t="inlineStr">
+        <is>
+          <t>[3, 30, 32, 34]</t>
+        </is>
+      </c>
+      <c r="C2998" t="inlineStr"/>
+      <c r="D2998" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2998" t="inlineStr"/>
+      <c r="F2998" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2999" t="inlineStr">
+        <is>
+          <t>[3, 12, 21, 34]</t>
+        </is>
+      </c>
+      <c r="C2999" t="inlineStr"/>
+      <c r="D2999" t="inlineStr"/>
+      <c r="E2999" t="inlineStr"/>
+      <c r="F2999" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3000" t="inlineStr">
+        <is>
+          <t>[10, 11, 12, 34]</t>
+        </is>
+      </c>
+      <c r="C3000" t="inlineStr"/>
+      <c r="D3000" t="inlineStr"/>
+      <c r="E3000" t="inlineStr"/>
+      <c r="F3000" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3001" t="inlineStr">
+        <is>
+          <t>[17, 19, 20, 28]</t>
+        </is>
+      </c>
+      <c r="C3001" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3001" t="inlineStr"/>
+      <c r="E3001" t="inlineStr"/>
+      <c r="F3001" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3002" t="inlineStr">
+        <is>
+          <t>[0, 8, 17, 35]</t>
+        </is>
+      </c>
+      <c r="C3002" t="inlineStr"/>
+      <c r="D3002" t="inlineStr"/>
+      <c r="E3002" t="inlineStr"/>
+      <c r="F3002" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>[11, 18, 31, 36]</t>
+        </is>
+      </c>
+      <c r="C3003" t="inlineStr"/>
+      <c r="D3003" t="inlineStr"/>
+      <c r="E3003" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3003" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3004" t="inlineStr">
+        <is>
+          <t>[6, 29, 30, 35]</t>
+        </is>
+      </c>
+      <c r="C3004" t="inlineStr"/>
+      <c r="D3004" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3004" t="inlineStr"/>
+      <c r="F3004" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3005" t="inlineStr">
+        <is>
+          <t>[9, 12, 15, 32]</t>
+        </is>
+      </c>
+      <c r="C3005" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3005" t="inlineStr"/>
+      <c r="E3005" t="inlineStr"/>
+      <c r="F3005" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3006" t="inlineStr">
+        <is>
+          <t>[12, 15, 25, 32]</t>
+        </is>
+      </c>
+      <c r="C3006" t="inlineStr"/>
+      <c r="D3006" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3006" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3006" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3007" t="inlineStr">
+        <is>
+          <t>[9, 12, 27, 32]</t>
+        </is>
+      </c>
+      <c r="C3007" t="inlineStr"/>
+      <c r="D3007" t="inlineStr"/>
+      <c r="E3007" t="inlineStr"/>
+      <c r="F3007" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3008" t="inlineStr">
+        <is>
+          <t>[9, 12, 18, 35]</t>
+        </is>
+      </c>
+      <c r="C3008" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3008" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3008" t="inlineStr"/>
+      <c r="F3008" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3009" t="inlineStr">
+        <is>
+          <t>[6, 11, 14, 28]</t>
+        </is>
+      </c>
+      <c r="C3009" t="inlineStr"/>
+      <c r="D3009" t="inlineStr"/>
+      <c r="E3009" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3009" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>[7, 23, 24, 30]</t>
+        </is>
+      </c>
+      <c r="C3010" t="inlineStr"/>
+      <c r="D3010" t="inlineStr"/>
+      <c r="E3010" t="inlineStr"/>
+      <c r="F3010" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3011" t="inlineStr">
+        <is>
+          <t>[2, 7, 28, 30]</t>
+        </is>
+      </c>
+      <c r="C3011" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3011" t="inlineStr"/>
+      <c r="E3011" t="inlineStr"/>
+      <c r="F3011" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3012" t="inlineStr">
+        <is>
+          <t>[2, 5, 25, 36]</t>
+        </is>
+      </c>
+      <c r="C3012" t="inlineStr"/>
+      <c r="D3012" t="inlineStr"/>
+      <c r="E3012" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3012" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3013" t="inlineStr">
+        <is>
+          <t>[3, 8, 17, 34]</t>
+        </is>
+      </c>
+      <c r="C3013" t="inlineStr"/>
+      <c r="D3013" t="inlineStr"/>
+      <c r="E3013" t="inlineStr"/>
+      <c r="F3013" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3014" t="inlineStr">
+        <is>
+          <t>[0, 3, 6, 29]</t>
+        </is>
+      </c>
+      <c r="C3014" t="inlineStr"/>
+      <c r="D3014" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3014" t="inlineStr"/>
+      <c r="F3014" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3015" t="inlineStr">
+        <is>
+          <t>[3, 6, 7, 24]</t>
+        </is>
+      </c>
+      <c r="C3015" t="inlineStr"/>
+      <c r="D3015" t="inlineStr"/>
+      <c r="E3015" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3015" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3016" t="inlineStr">
+        <is>
+          <t>[3, 12, 26, 33]</t>
+        </is>
+      </c>
+      <c r="C3016" t="inlineStr"/>
+      <c r="D3016" t="inlineStr"/>
+      <c r="E3016" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3016" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3017" t="inlineStr">
+        <is>
+          <t>[8, 11, 20, 26]</t>
+        </is>
+      </c>
+      <c r="C3017" t="inlineStr"/>
+      <c r="D3017" t="inlineStr"/>
+      <c r="E3017" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3017" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3018" t="inlineStr">
+        <is>
+          <t>[5, 20, 27, 30]</t>
+        </is>
+      </c>
+      <c r="C3018" t="inlineStr"/>
+      <c r="D3018" t="inlineStr"/>
+      <c r="E3018" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3018" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3019" t="inlineStr">
+        <is>
+          <t>[1, 8, 9, 30]</t>
+        </is>
+      </c>
+      <c r="C3019" t="inlineStr"/>
+      <c r="D3019" t="inlineStr"/>
+      <c r="E3019" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3019" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3020" t="inlineStr">
+        <is>
+          <t>[2, 3, 9, 34]</t>
+        </is>
+      </c>
+      <c r="C3020" t="inlineStr"/>
+      <c r="D3020" t="inlineStr"/>
+      <c r="E3020" t="inlineStr"/>
+      <c r="F3020" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3021" t="inlineStr">
+        <is>
+          <t>[12, 21, 30, 34]</t>
+        </is>
+      </c>
+      <c r="C3021" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3021" t="inlineStr"/>
+      <c r="E3021" t="inlineStr"/>
+      <c r="F3021" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3022" t="inlineStr">
+        <is>
+          <t>[9, 29, 33, 36]</t>
+        </is>
+      </c>
+      <c r="C3022" t="inlineStr"/>
+      <c r="D3022" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3022" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3022" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>[23, 25, 28, 29]</t>
+        </is>
+      </c>
+      <c r="C3023" t="inlineStr"/>
+      <c r="D3023" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3023" t="inlineStr"/>
+      <c r="F3023" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3024" t="inlineStr">
+        <is>
+          <t>[3, 12, 26, 29]</t>
+        </is>
+      </c>
+      <c r="C3024" t="inlineStr"/>
+      <c r="D3024" t="inlineStr"/>
+      <c r="E3024" t="inlineStr"/>
+      <c r="F3024" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3025" t="inlineStr">
+        <is>
+          <t>[2, 3, 26, 29]</t>
+        </is>
+      </c>
+      <c r="C3025" t="inlineStr"/>
+      <c r="D3025" t="inlineStr"/>
+      <c r="E3025" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3025" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3026" t="inlineStr">
+        <is>
+          <t>[10, 12, 26, 29]</t>
+        </is>
+      </c>
+      <c r="C3026" t="inlineStr"/>
+      <c r="D3026" t="inlineStr"/>
+      <c r="E3026" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3026" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3027" t="inlineStr">
+        <is>
+          <t>[1, 3, 20, 27]</t>
+        </is>
+      </c>
+      <c r="C3027" t="inlineStr"/>
+      <c r="D3027" t="inlineStr"/>
+      <c r="E3027" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3027" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3028" t="inlineStr">
+        <is>
+          <t>[0, 6, 7, 22]</t>
+        </is>
+      </c>
+      <c r="C3028" t="inlineStr"/>
+      <c r="D3028" t="inlineStr"/>
+      <c r="E3028" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3028" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3029" t="inlineStr">
+        <is>
+          <t>[6, 8, 17, 35]</t>
+        </is>
+      </c>
+      <c r="C3029" t="inlineStr"/>
+      <c r="D3029" t="inlineStr"/>
+      <c r="E3029" t="inlineStr"/>
+      <c r="F3029" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3030" t="inlineStr">
+        <is>
+          <t>[1, 10, 26, 29]</t>
+        </is>
+      </c>
+      <c r="C3030" t="inlineStr"/>
+      <c r="D3030" t="inlineStr"/>
+      <c r="E3030" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3030" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3031" t="inlineStr">
+        <is>
+          <t>[2, 13, 26, 29]</t>
+        </is>
+      </c>
+      <c r="C3031" t="inlineStr"/>
+      <c r="D3031" t="inlineStr"/>
+      <c r="E3031" t="inlineStr"/>
+      <c r="F3031" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3032" t="inlineStr">
+        <is>
+          <t>[1, 12, 21, 33]</t>
+        </is>
+      </c>
+      <c r="C3032" t="inlineStr"/>
+      <c r="D3032" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3032" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3032" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3033" t="inlineStr">
+        <is>
+          <t>[1, 22, 23, 27]</t>
+        </is>
+      </c>
+      <c r="C3033" t="inlineStr"/>
+      <c r="D3033" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3033" t="inlineStr"/>
+      <c r="F3033" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3034" t="inlineStr">
+        <is>
+          <t>[0, 6, 27, 28]</t>
+        </is>
+      </c>
+      <c r="C3034" t="inlineStr"/>
+      <c r="D3034" t="inlineStr"/>
+      <c r="E3034" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3034" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3035" t="inlineStr">
+        <is>
+          <t>[6, 8, 17, 32]</t>
+        </is>
+      </c>
+      <c r="C3035" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3035" t="inlineStr"/>
+      <c r="E3035" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3035" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3036" t="inlineStr">
+        <is>
+          <t>[3, 15, 29, 31]</t>
+        </is>
+      </c>
+      <c r="C3036" t="inlineStr"/>
+      <c r="D3036" t="inlineStr"/>
+      <c r="E3036" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3036" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3037" t="inlineStr">
+        <is>
+          <t>[0, 6, 7, 14]</t>
+        </is>
+      </c>
+      <c r="C3037" t="inlineStr"/>
+      <c r="D3037" t="inlineStr"/>
+      <c r="E3037" t="inlineStr"/>
+      <c r="F3037" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3038" t="inlineStr">
+        <is>
+          <t>[7, 19, 32, 35]</t>
+        </is>
+      </c>
+      <c r="C3038" t="inlineStr"/>
+      <c r="D3038" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3038" t="inlineStr"/>
+      <c r="F3038" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3039" t="inlineStr">
+        <is>
+          <t>[6, 16, 22, 23]</t>
+        </is>
+      </c>
+      <c r="C3039" t="inlineStr"/>
+      <c r="D3039" t="inlineStr"/>
+      <c r="E3039" t="inlineStr"/>
+      <c r="F3039" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3040" t="inlineStr">
+        <is>
+          <t>[3, 21, 26, 33]</t>
+        </is>
+      </c>
+      <c r="C3040" t="inlineStr"/>
+      <c r="D3040" t="inlineStr"/>
+      <c r="E3040" t="inlineStr"/>
+      <c r="F3040" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3041" t="inlineStr">
+        <is>
+          <t>[3, 10, 21, 29]</t>
+        </is>
+      </c>
+      <c r="C3041" t="inlineStr"/>
+      <c r="D3041" t="inlineStr"/>
+      <c r="E3041" t="inlineStr"/>
+      <c r="F3041" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3042" t="inlineStr">
+        <is>
+          <t>[1, 17, 20, 33]</t>
+        </is>
+      </c>
+      <c r="C3042" t="inlineStr"/>
+      <c r="D3042" t="inlineStr"/>
+      <c r="E3042" t="inlineStr"/>
+      <c r="F3042" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3043" t="inlineStr">
+        <is>
+          <t>[0, 13, 19, 28]</t>
+        </is>
+      </c>
+      <c r="C3043" t="inlineStr"/>
+      <c r="D3043" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3043" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3043" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3044" t="inlineStr">
+        <is>
+          <t>[3, 5, 30, 32]</t>
+        </is>
+      </c>
+      <c r="C3044" t="inlineStr"/>
+      <c r="D3044" t="inlineStr"/>
+      <c r="E3044" t="inlineStr"/>
+      <c r="F3044" t="n">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3044"/>
+  <dimension ref="A1:F3161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47647,6 +47647,2050 @@
         <v>84</v>
       </c>
     </row>
+    <row r="3045">
+      <c r="A3045" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3045" t="inlineStr">
+        <is>
+          <t>[6, 20, 26]</t>
+        </is>
+      </c>
+      <c r="C3045" t="inlineStr"/>
+      <c r="D3045" t="inlineStr"/>
+      <c r="E3045" t="inlineStr"/>
+      <c r="F3045" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3046" t="inlineStr">
+        <is>
+          <t>[8, 13, 34]</t>
+        </is>
+      </c>
+      <c r="C3046" t="inlineStr"/>
+      <c r="D3046" t="inlineStr"/>
+      <c r="E3046" t="inlineStr"/>
+      <c r="F3046" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3047" t="inlineStr">
+        <is>
+          <t>[16, 17, 31]</t>
+        </is>
+      </c>
+      <c r="C3047" t="inlineStr"/>
+      <c r="D3047" t="inlineStr"/>
+      <c r="E3047" t="inlineStr"/>
+      <c r="F3047" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3048" t="inlineStr">
+        <is>
+          <t>[0, 6, 7]</t>
+        </is>
+      </c>
+      <c r="C3048" t="inlineStr"/>
+      <c r="D3048" t="inlineStr"/>
+      <c r="E3048" t="inlineStr"/>
+      <c r="F3048" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3049" t="inlineStr">
+        <is>
+          <t>[18, 24, 34]</t>
+        </is>
+      </c>
+      <c r="C3049" t="inlineStr"/>
+      <c r="D3049" t="inlineStr"/>
+      <c r="E3049" t="inlineStr"/>
+      <c r="F3049" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3050" t="inlineStr">
+        <is>
+          <t>[0, 18, 19]</t>
+        </is>
+      </c>
+      <c r="C3050" t="inlineStr"/>
+      <c r="D3050" t="inlineStr"/>
+      <c r="E3050" t="inlineStr"/>
+      <c r="F3050" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3051" t="inlineStr">
+        <is>
+          <t>[2, 18, 35]</t>
+        </is>
+      </c>
+      <c r="C3051" t="inlineStr"/>
+      <c r="D3051" t="inlineStr"/>
+      <c r="E3051" t="inlineStr"/>
+      <c r="F3051" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3052" t="inlineStr">
+        <is>
+          <t>[2, 12, 35]</t>
+        </is>
+      </c>
+      <c r="C3052" t="inlineStr"/>
+      <c r="D3052" t="inlineStr"/>
+      <c r="E3052" t="inlineStr"/>
+      <c r="F3052" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3053" t="inlineStr">
+        <is>
+          <t>[7, 14, 21]</t>
+        </is>
+      </c>
+      <c r="C3053" t="inlineStr"/>
+      <c r="D3053" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3053" t="inlineStr"/>
+      <c r="F3053" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3054" t="inlineStr">
+        <is>
+          <t>[11, 14, 29]</t>
+        </is>
+      </c>
+      <c r="C3054" t="inlineStr"/>
+      <c r="D3054" t="inlineStr"/>
+      <c r="E3054" t="inlineStr"/>
+      <c r="F3054" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3055" t="inlineStr">
+        <is>
+          <t>[2, 29, 31]</t>
+        </is>
+      </c>
+      <c r="C3055" t="inlineStr"/>
+      <c r="D3055" t="inlineStr"/>
+      <c r="E3055" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3055" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3056" t="inlineStr">
+        <is>
+          <t>[26, 29, 31]</t>
+        </is>
+      </c>
+      <c r="C3056" t="inlineStr"/>
+      <c r="D3056" t="inlineStr"/>
+      <c r="E3056" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3056" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3057" t="inlineStr">
+        <is>
+          <t>[0, 7, 23]</t>
+        </is>
+      </c>
+      <c r="C3057" t="inlineStr"/>
+      <c r="D3057" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3057" t="inlineStr"/>
+      <c r="F3057" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3058">
+      <c r="A3058" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3058" t="inlineStr">
+        <is>
+          <t>[3, 11, 24]</t>
+        </is>
+      </c>
+      <c r="C3058" t="inlineStr"/>
+      <c r="D3058" t="inlineStr"/>
+      <c r="E3058" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3058" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3059" t="inlineStr">
+        <is>
+          <t>[3, 7, 19]</t>
+        </is>
+      </c>
+      <c r="C3059" t="inlineStr"/>
+      <c r="D3059" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3059" t="inlineStr"/>
+      <c r="F3059" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3060" t="inlineStr">
+        <is>
+          <t>[3, 11, 14]</t>
+        </is>
+      </c>
+      <c r="C3060" t="inlineStr"/>
+      <c r="D3060" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3060" t="inlineStr"/>
+      <c r="F3060" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3061" t="inlineStr">
+        <is>
+          <t>[4, 11, 21]</t>
+        </is>
+      </c>
+      <c r="C3061" t="inlineStr"/>
+      <c r="D3061" t="inlineStr"/>
+      <c r="E3061" t="inlineStr"/>
+      <c r="F3061" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3062" t="inlineStr">
+        <is>
+          <t>[0, 5, 8]</t>
+        </is>
+      </c>
+      <c r="C3062" t="inlineStr"/>
+      <c r="D3062" t="inlineStr"/>
+      <c r="E3062" t="inlineStr"/>
+      <c r="F3062" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3063" t="inlineStr">
+        <is>
+          <t>[0, 5, 8]</t>
+        </is>
+      </c>
+      <c r="C3063" t="inlineStr"/>
+      <c r="D3063" t="inlineStr"/>
+      <c r="E3063" t="inlineStr"/>
+      <c r="F3063" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3064" t="inlineStr">
+        <is>
+          <t>[1, 8, 10]</t>
+        </is>
+      </c>
+      <c r="C3064" t="inlineStr"/>
+      <c r="D3064" t="inlineStr"/>
+      <c r="E3064" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3064" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3065" t="inlineStr">
+        <is>
+          <t>[1, 18, 34]</t>
+        </is>
+      </c>
+      <c r="C3065" t="inlineStr"/>
+      <c r="D3065" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3065" t="inlineStr"/>
+      <c r="F3065" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3066" t="inlineStr">
+        <is>
+          <t>[19, 22, 27]</t>
+        </is>
+      </c>
+      <c r="C3066" t="inlineStr"/>
+      <c r="D3066" t="inlineStr"/>
+      <c r="E3066" t="inlineStr"/>
+      <c r="F3066" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3067" t="inlineStr">
+        <is>
+          <t>[3, 22, 30]</t>
+        </is>
+      </c>
+      <c r="C3067" t="inlineStr"/>
+      <c r="D3067" t="inlineStr"/>
+      <c r="E3067" t="inlineStr"/>
+      <c r="F3067" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3068" t="inlineStr">
+        <is>
+          <t>[8, 14, 24]</t>
+        </is>
+      </c>
+      <c r="C3068" t="inlineStr"/>
+      <c r="D3068" t="inlineStr"/>
+      <c r="E3068" t="inlineStr"/>
+      <c r="F3068" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3069" t="inlineStr">
+        <is>
+          <t>[12, 13, 24]</t>
+        </is>
+      </c>
+      <c r="C3069" t="inlineStr"/>
+      <c r="D3069" t="inlineStr"/>
+      <c r="E3069" t="inlineStr"/>
+      <c r="F3069" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3070" t="inlineStr">
+        <is>
+          <t>[12, 26, 33]</t>
+        </is>
+      </c>
+      <c r="C3070" t="inlineStr"/>
+      <c r="D3070" t="inlineStr"/>
+      <c r="E3070" t="inlineStr"/>
+      <c r="F3070" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3071" t="inlineStr">
+        <is>
+          <t>[5, 23, 27]</t>
+        </is>
+      </c>
+      <c r="C3071" t="inlineStr"/>
+      <c r="D3071" t="inlineStr"/>
+      <c r="E3071" t="inlineStr"/>
+      <c r="F3071" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3072" t="inlineStr">
+        <is>
+          <t>[0, 13, 23]</t>
+        </is>
+      </c>
+      <c r="C3072" t="inlineStr"/>
+      <c r="D3072" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3072" t="inlineStr"/>
+      <c r="F3072" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3073" t="inlineStr">
+        <is>
+          <t>[12, 23, 34]</t>
+        </is>
+      </c>
+      <c r="C3073" t="inlineStr"/>
+      <c r="D3073" t="inlineStr"/>
+      <c r="E3073" t="inlineStr"/>
+      <c r="F3073" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3074" t="inlineStr">
+        <is>
+          <t>[27, 29, 33]</t>
+        </is>
+      </c>
+      <c r="C3074" t="inlineStr"/>
+      <c r="D3074" t="inlineStr"/>
+      <c r="E3074" t="inlineStr"/>
+      <c r="F3074" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3075" t="inlineStr">
+        <is>
+          <t>[7, 10, 26]</t>
+        </is>
+      </c>
+      <c r="C3075" t="inlineStr"/>
+      <c r="D3075" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3075" t="inlineStr"/>
+      <c r="F3075" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="inlineStr">
+        <is>
+          <t>[1, 26, 36]</t>
+        </is>
+      </c>
+      <c r="C3076" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3076" t="inlineStr"/>
+      <c r="E3076" t="inlineStr"/>
+      <c r="F3076" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3077" t="inlineStr">
+        <is>
+          <t>[2, 23, 36]</t>
+        </is>
+      </c>
+      <c r="C3077" t="inlineStr"/>
+      <c r="D3077" t="inlineStr"/>
+      <c r="E3077" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3077" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3078" t="inlineStr">
+        <is>
+          <t>[18, 24, 33]</t>
+        </is>
+      </c>
+      <c r="C3078" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3078" t="inlineStr"/>
+      <c r="E3078" t="inlineStr"/>
+      <c r="F3078" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3079" t="inlineStr">
+        <is>
+          <t>[22, 23, 32]</t>
+        </is>
+      </c>
+      <c r="C3079" t="inlineStr"/>
+      <c r="D3079" t="inlineStr"/>
+      <c r="E3079" t="inlineStr"/>
+      <c r="F3079" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3080" t="inlineStr">
+        <is>
+          <t>[13, 17, 28]</t>
+        </is>
+      </c>
+      <c r="C3080" t="inlineStr"/>
+      <c r="D3080" t="inlineStr"/>
+      <c r="E3080" t="inlineStr"/>
+      <c r="F3080" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3081" t="inlineStr">
+        <is>
+          <t>[0, 19, 22]</t>
+        </is>
+      </c>
+      <c r="C3081" t="inlineStr"/>
+      <c r="D3081" t="inlineStr"/>
+      <c r="E3081" t="inlineStr"/>
+      <c r="F3081" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3082" t="inlineStr">
+        <is>
+          <t>[10, 29, 33]</t>
+        </is>
+      </c>
+      <c r="C3082" t="inlineStr"/>
+      <c r="D3082" t="inlineStr"/>
+      <c r="E3082" t="inlineStr"/>
+      <c r="F3082" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3083" t="inlineStr">
+        <is>
+          <t>[8, 30, 33]</t>
+        </is>
+      </c>
+      <c r="C3083" t="inlineStr"/>
+      <c r="D3083" t="inlineStr"/>
+      <c r="E3083" t="inlineStr"/>
+      <c r="F3083" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3084" t="inlineStr">
+        <is>
+          <t>[10, 15, 27]</t>
+        </is>
+      </c>
+      <c r="C3084" t="inlineStr"/>
+      <c r="D3084" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3084" t="inlineStr"/>
+      <c r="F3084" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3085" t="inlineStr">
+        <is>
+          <t>[14, 15, 29]</t>
+        </is>
+      </c>
+      <c r="C3085" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3085" t="inlineStr"/>
+      <c r="E3085" t="inlineStr"/>
+      <c r="F3085" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3086" t="inlineStr">
+        <is>
+          <t>[15, 20, 35]</t>
+        </is>
+      </c>
+      <c r="C3086" t="inlineStr"/>
+      <c r="D3086" t="inlineStr"/>
+      <c r="E3086" t="inlineStr"/>
+      <c r="F3086" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="inlineStr">
+        <is>
+          <t>[18, 20, 28]</t>
+        </is>
+      </c>
+      <c r="C3087" t="inlineStr"/>
+      <c r="D3087" t="inlineStr"/>
+      <c r="E3087" t="inlineStr"/>
+      <c r="F3087" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3088" t="inlineStr">
+        <is>
+          <t>[15, 18, 31]</t>
+        </is>
+      </c>
+      <c r="C3088" t="inlineStr"/>
+      <c r="D3088" t="inlineStr"/>
+      <c r="E3088" t="inlineStr"/>
+      <c r="F3088" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3089" t="inlineStr">
+        <is>
+          <t>[12, 18, 35]</t>
+        </is>
+      </c>
+      <c r="C3089" t="inlineStr"/>
+      <c r="D3089" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3089" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3089" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3090">
+      <c r="A3090" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3090" t="inlineStr">
+        <is>
+          <t>[6, 12, 19]</t>
+        </is>
+      </c>
+      <c r="C3090" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3090" t="inlineStr"/>
+      <c r="E3090" t="inlineStr"/>
+      <c r="F3090" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3091" t="inlineStr">
+        <is>
+          <t>[1, 6, 9]</t>
+        </is>
+      </c>
+      <c r="C3091" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3091" t="inlineStr"/>
+      <c r="E3091" t="inlineStr"/>
+      <c r="F3091" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3092" t="inlineStr">
+        <is>
+          <t>[15, 16, 21]</t>
+        </is>
+      </c>
+      <c r="C3092" t="inlineStr"/>
+      <c r="D3092" t="inlineStr"/>
+      <c r="E3092" t="inlineStr"/>
+      <c r="F3092" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3093" t="inlineStr">
+        <is>
+          <t>[7, 15, 20]</t>
+        </is>
+      </c>
+      <c r="C3093" t="inlineStr"/>
+      <c r="D3093" t="inlineStr"/>
+      <c r="E3093" t="inlineStr"/>
+      <c r="F3093" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3094" t="inlineStr">
+        <is>
+          <t>[6, 20, 32]</t>
+        </is>
+      </c>
+      <c r="C3094" t="inlineStr"/>
+      <c r="D3094" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3094" t="inlineStr"/>
+      <c r="F3094" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3095" t="inlineStr">
+        <is>
+          <t>[6, 30, 35]</t>
+        </is>
+      </c>
+      <c r="C3095" t="inlineStr"/>
+      <c r="D3095" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3095" t="inlineStr"/>
+      <c r="F3095" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3096" t="inlineStr">
+        <is>
+          <t>[12, 18, 31]</t>
+        </is>
+      </c>
+      <c r="C3096" t="inlineStr"/>
+      <c r="D3096" t="inlineStr"/>
+      <c r="E3096" t="inlineStr"/>
+      <c r="F3096" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3097" t="inlineStr">
+        <is>
+          <t>[1, 12, 18]</t>
+        </is>
+      </c>
+      <c r="C3097" t="inlineStr"/>
+      <c r="D3097" t="inlineStr"/>
+      <c r="E3097" t="inlineStr"/>
+      <c r="F3097" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3098" t="inlineStr">
+        <is>
+          <t>[1, 14, 28]</t>
+        </is>
+      </c>
+      <c r="C3098" t="inlineStr"/>
+      <c r="D3098" t="inlineStr"/>
+      <c r="E3098" t="inlineStr"/>
+      <c r="F3098" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="inlineStr">
+        <is>
+          <t>[23, 33, 34]</t>
+        </is>
+      </c>
+      <c r="C3099" t="inlineStr"/>
+      <c r="D3099" t="inlineStr"/>
+      <c r="E3099" t="inlineStr"/>
+      <c r="F3099" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3100" t="inlineStr">
+        <is>
+          <t>[10, 20, 22]</t>
+        </is>
+      </c>
+      <c r="C3100" t="inlineStr"/>
+      <c r="D3100" t="inlineStr"/>
+      <c r="E3100" t="inlineStr"/>
+      <c r="F3100" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3101" t="inlineStr">
+        <is>
+          <t>[7, 9, 16]</t>
+        </is>
+      </c>
+      <c r="C3101" t="inlineStr"/>
+      <c r="D3101" t="inlineStr"/>
+      <c r="E3101" t="inlineStr"/>
+      <c r="F3101" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3102" t="inlineStr">
+        <is>
+          <t>[15, 21, 33, 34]</t>
+        </is>
+      </c>
+      <c r="C3102" t="inlineStr"/>
+      <c r="D3102" t="inlineStr"/>
+      <c r="E3102" t="inlineStr"/>
+      <c r="F3102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3103" t="inlineStr">
+        <is>
+          <t>[25, 28, 29, 36]</t>
+        </is>
+      </c>
+      <c r="C3103" t="inlineStr"/>
+      <c r="D3103" t="inlineStr"/>
+      <c r="E3103" t="inlineStr"/>
+      <c r="F3103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3104" t="inlineStr">
+        <is>
+          <t>[1, 8, 13, 28]</t>
+        </is>
+      </c>
+      <c r="C3104" t="inlineStr"/>
+      <c r="D3104" t="inlineStr"/>
+      <c r="E3104" t="inlineStr"/>
+      <c r="F3104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3105" t="inlineStr">
+        <is>
+          <t>[0, 7, 22, 32]</t>
+        </is>
+      </c>
+      <c r="C3105" t="inlineStr"/>
+      <c r="D3105" t="inlineStr"/>
+      <c r="E3105" t="inlineStr"/>
+      <c r="F3105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3106" t="inlineStr">
+        <is>
+          <t>[8, 16, 21, 30]</t>
+        </is>
+      </c>
+      <c r="C3106" t="inlineStr"/>
+      <c r="D3106" t="inlineStr"/>
+      <c r="E3106" t="inlineStr"/>
+      <c r="F3106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3107" t="inlineStr">
+        <is>
+          <t>[3, 7, 9, 22]</t>
+        </is>
+      </c>
+      <c r="C3107" t="inlineStr"/>
+      <c r="D3107" t="inlineStr"/>
+      <c r="E3107" t="inlineStr"/>
+      <c r="F3107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3108">
+      <c r="A3108" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3108" t="inlineStr">
+        <is>
+          <t>[2, 27, 33, 35]</t>
+        </is>
+      </c>
+      <c r="C3108" t="inlineStr"/>
+      <c r="D3108" t="inlineStr"/>
+      <c r="E3108" t="inlineStr"/>
+      <c r="F3108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3109">
+      <c r="A3109" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="inlineStr">
+        <is>
+          <t>[3, 7, 8, 21]</t>
+        </is>
+      </c>
+      <c r="C3109" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3109" t="inlineStr"/>
+      <c r="E3109" t="inlineStr"/>
+      <c r="F3109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110">
+      <c r="A3110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3110" t="inlineStr">
+        <is>
+          <t>[10, 12, 22, 26]</t>
+        </is>
+      </c>
+      <c r="C3110" t="inlineStr"/>
+      <c r="D3110" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3110" t="inlineStr"/>
+      <c r="F3110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3111" t="inlineStr">
+        <is>
+          <t>[10, 12, 22, 35]</t>
+        </is>
+      </c>
+      <c r="C3111" t="inlineStr"/>
+      <c r="D3111" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3111" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3112">
+      <c r="A3112" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3112" t="inlineStr">
+        <is>
+          <t>[1, 27, 28, 35]</t>
+        </is>
+      </c>
+      <c r="C3112" t="inlineStr"/>
+      <c r="D3112" t="inlineStr"/>
+      <c r="E3112" t="inlineStr"/>
+      <c r="F3112" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3113">
+      <c r="A3113" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3113" t="inlineStr">
+        <is>
+          <t>[4, 5, 22, 23]</t>
+        </is>
+      </c>
+      <c r="C3113" t="inlineStr"/>
+      <c r="D3113" t="inlineStr"/>
+      <c r="E3113" t="inlineStr"/>
+      <c r="F3113" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3114">
+      <c r="A3114" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3114" t="inlineStr">
+        <is>
+          <t>[10, 12, 23, 34]</t>
+        </is>
+      </c>
+      <c r="C3114" t="inlineStr"/>
+      <c r="D3114" t="inlineStr"/>
+      <c r="E3114" t="inlineStr"/>
+      <c r="F3114" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3115" t="inlineStr">
+        <is>
+          <t>[1, 20, 33, 36]</t>
+        </is>
+      </c>
+      <c r="C3115" t="inlineStr"/>
+      <c r="D3115" t="inlineStr"/>
+      <c r="E3115" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3115" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3116" t="inlineStr">
+        <is>
+          <t>[1, 20, 22, 36]</t>
+        </is>
+      </c>
+      <c r="C3116" t="inlineStr"/>
+      <c r="D3116" t="inlineStr"/>
+      <c r="E3116" t="inlineStr"/>
+      <c r="F3116" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3117" t="inlineStr">
+        <is>
+          <t>[3, 22, 23, 30]</t>
+        </is>
+      </c>
+      <c r="C3117" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3117" t="inlineStr"/>
+      <c r="E3117" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3117" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3118" t="inlineStr">
+        <is>
+          <t>[0, 6, 7, 35]</t>
+        </is>
+      </c>
+      <c r="C3118" t="inlineStr"/>
+      <c r="D3118" t="inlineStr"/>
+      <c r="E3118" t="inlineStr"/>
+      <c r="F3118" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3119" t="inlineStr">
+        <is>
+          <t>[13, 18, 24, 32]</t>
+        </is>
+      </c>
+      <c r="C3119" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3119" t="inlineStr"/>
+      <c r="E3119" t="inlineStr"/>
+      <c r="F3119" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3120" t="inlineStr">
+        <is>
+          <t>[17, 18, 23, 27]</t>
+        </is>
+      </c>
+      <c r="C3120" t="inlineStr"/>
+      <c r="D3120" t="inlineStr"/>
+      <c r="E3120" t="inlineStr"/>
+      <c r="F3120" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3121" t="inlineStr">
+        <is>
+          <t>[5, 14, 16, 26]</t>
+        </is>
+      </c>
+      <c r="C3121" t="inlineStr"/>
+      <c r="D3121" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3121" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3121" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3122" t="inlineStr">
+        <is>
+          <t>[5, 8, 10, 20]</t>
+        </is>
+      </c>
+      <c r="C3122" t="inlineStr"/>
+      <c r="D3122" t="inlineStr"/>
+      <c r="E3122" t="inlineStr"/>
+      <c r="F3122" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3123" t="inlineStr">
+        <is>
+          <t>[0, 8, 11, 20]</t>
+        </is>
+      </c>
+      <c r="C3123" t="inlineStr"/>
+      <c r="D3123" t="inlineStr"/>
+      <c r="E3123" t="inlineStr"/>
+      <c r="F3123" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3124" t="inlineStr">
+        <is>
+          <t>[18, 29, 30, 31]</t>
+        </is>
+      </c>
+      <c r="C3124" t="inlineStr"/>
+      <c r="D3124" t="inlineStr"/>
+      <c r="E3124" t="inlineStr"/>
+      <c r="F3124" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3125" t="inlineStr">
+        <is>
+          <t>[1, 12, 14, 30]</t>
+        </is>
+      </c>
+      <c r="C3125" t="inlineStr"/>
+      <c r="D3125" t="inlineStr"/>
+      <c r="E3125" t="inlineStr"/>
+      <c r="F3125" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3126" t="inlineStr">
+        <is>
+          <t>[0, 13, 19, 28]</t>
+        </is>
+      </c>
+      <c r="C3126" t="inlineStr"/>
+      <c r="D3126" t="inlineStr"/>
+      <c r="E3126" t="inlineStr"/>
+      <c r="F3126" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3127" t="inlineStr">
+        <is>
+          <t>[10, 14, 27, 29]</t>
+        </is>
+      </c>
+      <c r="C3127" t="inlineStr"/>
+      <c r="D3127" t="inlineStr"/>
+      <c r="E3127" t="inlineStr"/>
+      <c r="F3127" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3128" t="inlineStr">
+        <is>
+          <t>[5, 7, 14, 18]</t>
+        </is>
+      </c>
+      <c r="C3128" t="inlineStr"/>
+      <c r="D3128" t="inlineStr"/>
+      <c r="E3128" t="inlineStr"/>
+      <c r="F3128" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3129" t="inlineStr">
+        <is>
+          <t>[5, 8, 11, 20]</t>
+        </is>
+      </c>
+      <c r="C3129" t="inlineStr"/>
+      <c r="D3129" t="inlineStr"/>
+      <c r="E3129" t="inlineStr"/>
+      <c r="F3129" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3130" t="inlineStr">
+        <is>
+          <t>[18, 27, 28, 33]</t>
+        </is>
+      </c>
+      <c r="C3130" t="inlineStr"/>
+      <c r="D3130" t="inlineStr"/>
+      <c r="E3130" t="inlineStr"/>
+      <c r="F3130" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3131" t="inlineStr">
+        <is>
+          <t>[12, 29, 31, 33]</t>
+        </is>
+      </c>
+      <c r="C3131" t="inlineStr"/>
+      <c r="D3131" t="inlineStr"/>
+      <c r="E3131" t="inlineStr"/>
+      <c r="F3131" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3132" t="inlineStr">
+        <is>
+          <t>[8, 13, 22, 28]</t>
+        </is>
+      </c>
+      <c r="C3132" t="inlineStr"/>
+      <c r="D3132" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3132" t="inlineStr"/>
+      <c r="F3132" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3133">
+      <c r="A3133" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3133" t="inlineStr">
+        <is>
+          <t>[12, 23, 34, 36]</t>
+        </is>
+      </c>
+      <c r="C3133" t="inlineStr"/>
+      <c r="D3133" t="inlineStr"/>
+      <c r="E3133" t="inlineStr"/>
+      <c r="F3133" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3134">
+      <c r="A3134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3134" t="inlineStr">
+        <is>
+          <t>[10, 12, 17, 28]</t>
+        </is>
+      </c>
+      <c r="C3134" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3134" t="inlineStr"/>
+      <c r="E3134" t="inlineStr"/>
+      <c r="F3134" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3135">
+      <c r="A3135" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3135" t="inlineStr">
+        <is>
+          <t>[6, 17, 18, 24]</t>
+        </is>
+      </c>
+      <c r="C3135" t="inlineStr"/>
+      <c r="D3135" t="inlineStr"/>
+      <c r="E3135" t="inlineStr"/>
+      <c r="F3135" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3136">
+      <c r="A3136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3136" t="inlineStr">
+        <is>
+          <t>[5, 31, 32, 35]</t>
+        </is>
+      </c>
+      <c r="C3136" t="inlineStr"/>
+      <c r="D3136" t="inlineStr"/>
+      <c r="E3136" t="inlineStr"/>
+      <c r="F3136" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3137">
+      <c r="A3137" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3137" t="inlineStr">
+        <is>
+          <t>[8, 15, 20, 21]</t>
+        </is>
+      </c>
+      <c r="C3137" t="inlineStr"/>
+      <c r="D3137" t="inlineStr"/>
+      <c r="E3137" t="inlineStr"/>
+      <c r="F3137" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3138">
+      <c r="A3138" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3138" t="inlineStr">
+        <is>
+          <t>[3, 18, 24, 30]</t>
+        </is>
+      </c>
+      <c r="C3138" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3138" t="inlineStr"/>
+      <c r="E3138" t="inlineStr"/>
+      <c r="F3138" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3139">
+      <c r="A3139" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3139" t="inlineStr">
+        <is>
+          <t>[6, 18, 31, 35]</t>
+        </is>
+      </c>
+      <c r="C3139" t="inlineStr"/>
+      <c r="D3139" t="inlineStr"/>
+      <c r="E3139" t="inlineStr"/>
+      <c r="F3139" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3140">
+      <c r="A3140" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3140" t="inlineStr">
+        <is>
+          <t>[12, 21, 32, 35]</t>
+        </is>
+      </c>
+      <c r="C3140" t="inlineStr"/>
+      <c r="D3140" t="inlineStr"/>
+      <c r="E3140" t="inlineStr"/>
+      <c r="F3140" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3141">
+      <c r="A3141" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3141" t="inlineStr">
+        <is>
+          <t>[2, 10, 21, 35]</t>
+        </is>
+      </c>
+      <c r="C3141" t="inlineStr"/>
+      <c r="D3141" t="inlineStr"/>
+      <c r="E3141" t="inlineStr"/>
+      <c r="F3141" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3142">
+      <c r="A3142" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3142" t="inlineStr">
+        <is>
+          <t>[6, 10, 29, 36]</t>
+        </is>
+      </c>
+      <c r="C3142" t="inlineStr"/>
+      <c r="D3142" t="inlineStr"/>
+      <c r="E3142" t="inlineStr"/>
+      <c r="F3142" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3143">
+      <c r="A3143" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3143" t="inlineStr">
+        <is>
+          <t>[18, 19, 24, 32]</t>
+        </is>
+      </c>
+      <c r="C3143" t="inlineStr"/>
+      <c r="D3143" t="inlineStr"/>
+      <c r="E3143" t="inlineStr"/>
+      <c r="F3143" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3144">
+      <c r="A3144" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3144" t="inlineStr">
+        <is>
+          <t>[8, 10, 24, 34]</t>
+        </is>
+      </c>
+      <c r="C3144" t="inlineStr"/>
+      <c r="D3144" t="inlineStr"/>
+      <c r="E3144" t="inlineStr"/>
+      <c r="F3144" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3145">
+      <c r="A3145" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3145" t="inlineStr">
+        <is>
+          <t>[2, 5, 8, 10]</t>
+        </is>
+      </c>
+      <c r="C3145" t="inlineStr"/>
+      <c r="D3145" t="inlineStr"/>
+      <c r="E3145" t="inlineStr"/>
+      <c r="F3145" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3146">
+      <c r="A3146" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3146" t="inlineStr">
+        <is>
+          <t>[1, 2, 8, 27]</t>
+        </is>
+      </c>
+      <c r="C3146" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3146" t="inlineStr"/>
+      <c r="E3146" t="inlineStr"/>
+      <c r="F3146" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3147">
+      <c r="A3147" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3147" t="inlineStr">
+        <is>
+          <t>[0, 15, 19, 27]</t>
+        </is>
+      </c>
+      <c r="C3147" t="inlineStr"/>
+      <c r="D3147" t="inlineStr"/>
+      <c r="E3147" t="inlineStr"/>
+      <c r="F3147" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3148">
+      <c r="A3148" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3148" t="inlineStr">
+        <is>
+          <t>[8, 10, 11, 15]</t>
+        </is>
+      </c>
+      <c r="C3148" t="inlineStr"/>
+      <c r="D3148" t="inlineStr"/>
+      <c r="E3148" t="inlineStr"/>
+      <c r="F3148" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3149" t="inlineStr">
+        <is>
+          <t>[1, 8, 10, 26]</t>
+        </is>
+      </c>
+      <c r="C3149" t="inlineStr"/>
+      <c r="D3149" t="inlineStr"/>
+      <c r="E3149" t="inlineStr"/>
+      <c r="F3149" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3150">
+      <c r="A3150" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3150" t="inlineStr">
+        <is>
+          <t>[1, 24, 26, 33]</t>
+        </is>
+      </c>
+      <c r="C3150" t="inlineStr"/>
+      <c r="D3150" t="inlineStr"/>
+      <c r="E3150" t="inlineStr"/>
+      <c r="F3150" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3151" t="inlineStr">
+        <is>
+          <t>[5, 23, 28, 33]</t>
+        </is>
+      </c>
+      <c r="C3151" t="inlineStr"/>
+      <c r="D3151" t="inlineStr"/>
+      <c r="E3151" t="inlineStr"/>
+      <c r="F3151" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3152" t="inlineStr">
+        <is>
+          <t>[0, 12, 13, 28]</t>
+        </is>
+      </c>
+      <c r="C3152" t="inlineStr"/>
+      <c r="D3152" t="inlineStr"/>
+      <c r="E3152" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3152" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3153" t="inlineStr">
+        <is>
+          <t>[10, 12, 23, 34]</t>
+        </is>
+      </c>
+      <c r="C3153" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3153" t="inlineStr"/>
+      <c r="E3153" t="inlineStr"/>
+      <c r="F3153" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3154" t="inlineStr">
+        <is>
+          <t>[10, 12, 28, 33]</t>
+        </is>
+      </c>
+      <c r="C3154" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3154" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3154" t="inlineStr"/>
+      <c r="F3154" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3155" t="inlineStr">
+        <is>
+          <t>[3, 6, 12, 18]</t>
+        </is>
+      </c>
+      <c r="C3155" t="inlineStr"/>
+      <c r="D3155" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3155" t="inlineStr"/>
+      <c r="F3155" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3156" t="inlineStr">
+        <is>
+          <t>[24, 25, 27, 33]</t>
+        </is>
+      </c>
+      <c r="C3156" t="inlineStr"/>
+      <c r="D3156" t="inlineStr"/>
+      <c r="E3156" t="inlineStr"/>
+      <c r="F3156" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3157" t="inlineStr">
+        <is>
+          <t>[3, 23, 27, 35]</t>
+        </is>
+      </c>
+      <c r="C3157" t="inlineStr"/>
+      <c r="D3157" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3157" t="inlineStr"/>
+      <c r="F3157" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3158" t="inlineStr">
+        <is>
+          <t>[15, 22, 33, 35]</t>
+        </is>
+      </c>
+      <c r="C3158" t="inlineStr"/>
+      <c r="D3158" t="inlineStr"/>
+      <c r="E3158" t="inlineStr"/>
+      <c r="F3158" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3159" t="inlineStr">
+        <is>
+          <t>[7, 20, 30, 33]</t>
+        </is>
+      </c>
+      <c r="C3159" t="inlineStr"/>
+      <c r="D3159" t="inlineStr"/>
+      <c r="E3159" t="inlineStr"/>
+      <c r="F3159" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3160" t="inlineStr">
+        <is>
+          <t>[12, 13, 24, 33]</t>
+        </is>
+      </c>
+      <c r="C3160" t="inlineStr"/>
+      <c r="D3160" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3160" t="inlineStr"/>
+      <c r="F3160" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3161" t="inlineStr">
+        <is>
+          <t>[1, 20, 24, 33]</t>
+        </is>
+      </c>
+      <c r="C3161" t="inlineStr"/>
+      <c r="D3161" t="inlineStr"/>
+      <c r="E3161" t="inlineStr"/>
+      <c r="F3161" t="n">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3161"/>
+  <dimension ref="A1:F3459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49691,6 +49691,4938 @@
         <v>60</v>
       </c>
     </row>
+    <row r="3162">
+      <c r="A3162" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3162" t="inlineStr">
+        <is>
+          <t>[1, 10, 19, 28]</t>
+        </is>
+      </c>
+      <c r="C3162" t="inlineStr"/>
+      <c r="D3162" t="inlineStr"/>
+      <c r="E3162" t="inlineStr"/>
+      <c r="F3162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3163" t="inlineStr">
+        <is>
+          <t>[1, 5, 10, 17]</t>
+        </is>
+      </c>
+      <c r="C3163" t="inlineStr"/>
+      <c r="D3163" t="inlineStr"/>
+      <c r="E3163" t="inlineStr"/>
+      <c r="F3163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3164" t="inlineStr">
+        <is>
+          <t>[13, 15, 21, 29]</t>
+        </is>
+      </c>
+      <c r="C3164" t="inlineStr"/>
+      <c r="D3164" t="inlineStr"/>
+      <c r="E3164" t="inlineStr"/>
+      <c r="F3164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="A3165" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3165" t="inlineStr">
+        <is>
+          <t>[2, 4, 20, 29]</t>
+        </is>
+      </c>
+      <c r="C3165" t="inlineStr"/>
+      <c r="D3165" t="inlineStr"/>
+      <c r="E3165" t="inlineStr"/>
+      <c r="F3165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="A3166" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3166" t="inlineStr">
+        <is>
+          <t>[11, 12, 24, 36]</t>
+        </is>
+      </c>
+      <c r="C3166" t="inlineStr"/>
+      <c r="D3166" t="inlineStr"/>
+      <c r="E3166" t="inlineStr"/>
+      <c r="F3166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3167" t="inlineStr">
+        <is>
+          <t>[7, 10, 14, 17]</t>
+        </is>
+      </c>
+      <c r="C3167" t="inlineStr"/>
+      <c r="D3167" t="inlineStr"/>
+      <c r="E3167" t="inlineStr"/>
+      <c r="F3167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="A3168" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3168" t="inlineStr">
+        <is>
+          <t>[2, 7, 33, 36]</t>
+        </is>
+      </c>
+      <c r="C3168" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3168" t="inlineStr"/>
+      <c r="E3168" t="inlineStr"/>
+      <c r="F3168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="A3169" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3169" t="inlineStr">
+        <is>
+          <t>[8, 16, 20, 32]</t>
+        </is>
+      </c>
+      <c r="C3169" t="inlineStr"/>
+      <c r="D3169" t="inlineStr"/>
+      <c r="E3169" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170">
+      <c r="A3170" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3170" t="inlineStr">
+        <is>
+          <t>[1, 20, 27, 33]</t>
+        </is>
+      </c>
+      <c r="C3170" t="inlineStr"/>
+      <c r="D3170" t="inlineStr"/>
+      <c r="E3170" t="inlineStr"/>
+      <c r="F3170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3171" t="inlineStr">
+        <is>
+          <t>[5, 10, 12, 33]</t>
+        </is>
+      </c>
+      <c r="C3171" t="inlineStr"/>
+      <c r="D3171" t="inlineStr"/>
+      <c r="E3171" t="inlineStr"/>
+      <c r="F3171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3172" t="inlineStr">
+        <is>
+          <t>[1, 6, 16, 24]</t>
+        </is>
+      </c>
+      <c r="C3172" t="inlineStr"/>
+      <c r="D3172" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3172" t="inlineStr"/>
+      <c r="F3172" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3173" t="inlineStr">
+        <is>
+          <t>[6, 28, 29, 34]</t>
+        </is>
+      </c>
+      <c r="C3173" t="inlineStr"/>
+      <c r="D3173" t="inlineStr"/>
+      <c r="E3173" t="inlineStr"/>
+      <c r="F3173" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3174" t="inlineStr">
+        <is>
+          <t>[0, 14, 18, 33]</t>
+        </is>
+      </c>
+      <c r="C3174" t="inlineStr"/>
+      <c r="D3174" t="inlineStr"/>
+      <c r="E3174" t="inlineStr"/>
+      <c r="F3174" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3175" t="inlineStr">
+        <is>
+          <t>[8, 13, 19, 20]</t>
+        </is>
+      </c>
+      <c r="C3175" t="inlineStr"/>
+      <c r="D3175" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3175" t="inlineStr"/>
+      <c r="F3175" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3176" t="inlineStr">
+        <is>
+          <t>[3, 10, 13, 21]</t>
+        </is>
+      </c>
+      <c r="C3176" t="inlineStr"/>
+      <c r="D3176" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3176" t="inlineStr"/>
+      <c r="F3176" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3177" t="inlineStr">
+        <is>
+          <t>[4, 5, 7, 11]</t>
+        </is>
+      </c>
+      <c r="C3177" t="inlineStr"/>
+      <c r="D3177" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3177" t="inlineStr"/>
+      <c r="F3177" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3178" t="inlineStr">
+        <is>
+          <t>[0, 3, 13, 29]</t>
+        </is>
+      </c>
+      <c r="C3178" t="inlineStr"/>
+      <c r="D3178" t="inlineStr"/>
+      <c r="E3178" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3178" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3179" t="inlineStr">
+        <is>
+          <t>[0, 2, 18, 36]</t>
+        </is>
+      </c>
+      <c r="C3179" t="inlineStr"/>
+      <c r="D3179" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3179" t="inlineStr"/>
+      <c r="F3179" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3180" t="inlineStr">
+        <is>
+          <t>[2, 17, 20, 23]</t>
+        </is>
+      </c>
+      <c r="C3180" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3180" t="inlineStr"/>
+      <c r="E3180" t="inlineStr"/>
+      <c r="F3180" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3181" t="inlineStr">
+        <is>
+          <t>[1, 22, 24, 29]</t>
+        </is>
+      </c>
+      <c r="C3181" t="inlineStr"/>
+      <c r="D3181" t="inlineStr"/>
+      <c r="E3181" t="inlineStr"/>
+      <c r="F3181" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3182" t="inlineStr">
+        <is>
+          <t>[0, 7, 14, 33]</t>
+        </is>
+      </c>
+      <c r="C3182" t="inlineStr"/>
+      <c r="D3182" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3182" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3182" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3183" t="inlineStr">
+        <is>
+          <t>[1, 18, 22, 23]</t>
+        </is>
+      </c>
+      <c r="C3183" t="inlineStr"/>
+      <c r="D3183" t="inlineStr"/>
+      <c r="E3183" t="inlineStr"/>
+      <c r="F3183" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3184" t="inlineStr">
+        <is>
+          <t>[1, 3, 16, 21]</t>
+        </is>
+      </c>
+      <c r="C3184" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3184" t="inlineStr"/>
+      <c r="E3184" t="inlineStr"/>
+      <c r="F3184" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3185" t="inlineStr">
+        <is>
+          <t>[6, 9, 18, 26]</t>
+        </is>
+      </c>
+      <c r="C3185" t="inlineStr"/>
+      <c r="D3185" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3185" t="inlineStr"/>
+      <c r="F3185" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3186" t="inlineStr">
+        <is>
+          <t>[8, 9, 18, 34]</t>
+        </is>
+      </c>
+      <c r="C3186" t="inlineStr"/>
+      <c r="D3186" t="inlineStr"/>
+      <c r="E3186" t="inlineStr"/>
+      <c r="F3186" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3187" t="inlineStr">
+        <is>
+          <t>[13, 25, 29, 31]</t>
+        </is>
+      </c>
+      <c r="C3187" t="inlineStr"/>
+      <c r="D3187" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3187" t="inlineStr"/>
+      <c r="F3187" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3188" t="inlineStr">
+        <is>
+          <t>[11, 21, 24, 33]</t>
+        </is>
+      </c>
+      <c r="C3188" t="inlineStr"/>
+      <c r="D3188" t="inlineStr"/>
+      <c r="E3188" t="inlineStr"/>
+      <c r="F3188" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3189" t="inlineStr">
+        <is>
+          <t>[2, 5, 11, 35]</t>
+        </is>
+      </c>
+      <c r="C3189" t="inlineStr"/>
+      <c r="D3189" t="inlineStr"/>
+      <c r="E3189" t="inlineStr"/>
+      <c r="F3189" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3190" t="inlineStr">
+        <is>
+          <t>[17, 28, 29, 33]</t>
+        </is>
+      </c>
+      <c r="C3190" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3190" t="inlineStr"/>
+      <c r="E3190" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3190" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3191" t="inlineStr">
+        <is>
+          <t>[13, 26, 33, 34]</t>
+        </is>
+      </c>
+      <c r="C3191" t="inlineStr"/>
+      <c r="D3191" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3191" t="inlineStr"/>
+      <c r="F3191" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3192" t="inlineStr">
+        <is>
+          <t>[7, 10, 16, 27]</t>
+        </is>
+      </c>
+      <c r="C3192" t="inlineStr"/>
+      <c r="D3192" t="inlineStr"/>
+      <c r="E3192" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3192" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3193" t="inlineStr">
+        <is>
+          <t>[10, 17, 18, 34]</t>
+        </is>
+      </c>
+      <c r="C3193" t="inlineStr"/>
+      <c r="D3193" t="inlineStr"/>
+      <c r="E3193" t="inlineStr"/>
+      <c r="F3193" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3194" t="inlineStr">
+        <is>
+          <t>[10, 14, 18, 27]</t>
+        </is>
+      </c>
+      <c r="C3194" t="inlineStr"/>
+      <c r="D3194" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3194" t="inlineStr"/>
+      <c r="F3194" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3195" t="inlineStr">
+        <is>
+          <t>[10, 16, 21, 34]</t>
+        </is>
+      </c>
+      <c r="C3195" t="inlineStr"/>
+      <c r="D3195" t="inlineStr"/>
+      <c r="E3195" t="inlineStr"/>
+      <c r="F3195" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3196" t="inlineStr">
+        <is>
+          <t>[1, 14, 20, 33]</t>
+        </is>
+      </c>
+      <c r="C3196" t="inlineStr"/>
+      <c r="D3196" t="inlineStr"/>
+      <c r="E3196" t="inlineStr"/>
+      <c r="F3196" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3197" t="inlineStr">
+        <is>
+          <t>[8, 10, 27, 34]</t>
+        </is>
+      </c>
+      <c r="C3197" t="inlineStr"/>
+      <c r="D3197" t="inlineStr"/>
+      <c r="E3197" t="inlineStr"/>
+      <c r="F3197" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3198" t="inlineStr">
+        <is>
+          <t>[1, 2, 8, 18]</t>
+        </is>
+      </c>
+      <c r="C3198" t="inlineStr"/>
+      <c r="D3198" t="inlineStr"/>
+      <c r="E3198" t="inlineStr"/>
+      <c r="F3198" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3199" t="inlineStr">
+        <is>
+          <t>[6, 9, 13, 34]</t>
+        </is>
+      </c>
+      <c r="C3199" t="inlineStr"/>
+      <c r="D3199" t="inlineStr"/>
+      <c r="E3199" t="inlineStr"/>
+      <c r="F3199" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3200" t="inlineStr">
+        <is>
+          <t>[9, 14, 24, 32]</t>
+        </is>
+      </c>
+      <c r="C3200" t="inlineStr"/>
+      <c r="D3200" t="inlineStr"/>
+      <c r="E3200" t="inlineStr"/>
+      <c r="F3200" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3201" t="inlineStr">
+        <is>
+          <t>[1, 12, 14, 20]</t>
+        </is>
+      </c>
+      <c r="C3201" t="inlineStr"/>
+      <c r="D3201" t="inlineStr"/>
+      <c r="E3201" t="inlineStr"/>
+      <c r="F3201" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3202" t="inlineStr">
+        <is>
+          <t>[24, 25, 29, 34]</t>
+        </is>
+      </c>
+      <c r="C3202" t="inlineStr"/>
+      <c r="D3202" t="inlineStr"/>
+      <c r="E3202" t="inlineStr"/>
+      <c r="F3202" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3203" t="inlineStr">
+        <is>
+          <t>[3, 14, 33, 35]</t>
+        </is>
+      </c>
+      <c r="C3203" t="inlineStr"/>
+      <c r="D3203" t="inlineStr"/>
+      <c r="E3203" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3203" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3204" t="inlineStr">
+        <is>
+          <t>[4, 22, 26, 35]</t>
+        </is>
+      </c>
+      <c r="C3204" t="inlineStr"/>
+      <c r="D3204" t="inlineStr"/>
+      <c r="E3204" t="inlineStr"/>
+      <c r="F3204" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3205" t="inlineStr">
+        <is>
+          <t>[8, 16, 24, 28]</t>
+        </is>
+      </c>
+      <c r="C3205" t="inlineStr"/>
+      <c r="D3205" t="inlineStr"/>
+      <c r="E3205" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3205" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3206" t="inlineStr">
+        <is>
+          <t>[10, 17, 25, 30]</t>
+        </is>
+      </c>
+      <c r="C3206" t="inlineStr"/>
+      <c r="D3206" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3206" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3206" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3207" t="inlineStr">
+        <is>
+          <t>[12, 16, 17, 19]</t>
+        </is>
+      </c>
+      <c r="C3207" t="inlineStr"/>
+      <c r="D3207" t="inlineStr"/>
+      <c r="E3207" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3207" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="inlineStr">
+        <is>
+          <t>[7, 11, 29, 33]</t>
+        </is>
+      </c>
+      <c r="C3208" t="inlineStr"/>
+      <c r="D3208" t="inlineStr"/>
+      <c r="E3208" t="inlineStr"/>
+      <c r="F3208" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3209" t="inlineStr">
+        <is>
+          <t>[14, 18, 26, 33]</t>
+        </is>
+      </c>
+      <c r="C3209" t="inlineStr"/>
+      <c r="D3209" t="inlineStr"/>
+      <c r="E3209" t="inlineStr"/>
+      <c r="F3209" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3210" t="inlineStr">
+        <is>
+          <t>[3, 5, 10, 35]</t>
+        </is>
+      </c>
+      <c r="C3210" t="inlineStr"/>
+      <c r="D3210" t="inlineStr"/>
+      <c r="E3210" t="inlineStr"/>
+      <c r="F3210" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3211" t="inlineStr">
+        <is>
+          <t>[1, 17, 18, 25]</t>
+        </is>
+      </c>
+      <c r="C3211" t="inlineStr"/>
+      <c r="D3211" t="inlineStr"/>
+      <c r="E3211" t="inlineStr"/>
+      <c r="F3211" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3212" t="inlineStr">
+        <is>
+          <t>[0, 18, 30, 35]</t>
+        </is>
+      </c>
+      <c r="C3212" t="inlineStr"/>
+      <c r="D3212" t="inlineStr"/>
+      <c r="E3212" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3212" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="A3213" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3213" t="inlineStr">
+        <is>
+          <t>[3, 6, 16, 28]</t>
+        </is>
+      </c>
+      <c r="C3213" t="inlineStr"/>
+      <c r="D3213" t="inlineStr"/>
+      <c r="E3213" t="inlineStr"/>
+      <c r="F3213" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="A3214" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3214" t="inlineStr">
+        <is>
+          <t>[3, 7, 10, 20]</t>
+        </is>
+      </c>
+      <c r="C3214" t="inlineStr"/>
+      <c r="D3214" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3214" t="inlineStr"/>
+      <c r="F3214" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="A3215" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3215" t="inlineStr">
+        <is>
+          <t>[8, 12, 14, 33]</t>
+        </is>
+      </c>
+      <c r="C3215" t="inlineStr"/>
+      <c r="D3215" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3215" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3215" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3216" t="inlineStr">
+        <is>
+          <t>[0, 8, 13, 14]</t>
+        </is>
+      </c>
+      <c r="C3216" t="inlineStr"/>
+      <c r="D3216" t="inlineStr"/>
+      <c r="E3216" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3216" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3217" t="inlineStr">
+        <is>
+          <t>[3, 11, 21, 23]</t>
+        </is>
+      </c>
+      <c r="C3217" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3217" t="inlineStr"/>
+      <c r="E3217" t="inlineStr"/>
+      <c r="F3217" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3218" t="inlineStr">
+        <is>
+          <t>[14, 15, 18, 23]</t>
+        </is>
+      </c>
+      <c r="C3218" t="inlineStr"/>
+      <c r="D3218" t="inlineStr"/>
+      <c r="E3218" t="inlineStr"/>
+      <c r="F3218" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3219" t="inlineStr">
+        <is>
+          <t>[2, 5, 29, 35]</t>
+        </is>
+      </c>
+      <c r="C3219" t="inlineStr"/>
+      <c r="D3219" t="inlineStr"/>
+      <c r="E3219" t="inlineStr"/>
+      <c r="F3219" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3220" t="inlineStr">
+        <is>
+          <t>[0, 19, 26, 28]</t>
+        </is>
+      </c>
+      <c r="C3220" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3220" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3220" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3220" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3221" t="inlineStr">
+        <is>
+          <t>[9, 15, 17, 25]</t>
+        </is>
+      </c>
+      <c r="C3221" t="inlineStr"/>
+      <c r="D3221" t="inlineStr"/>
+      <c r="E3221" t="inlineStr"/>
+      <c r="F3221" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3222" t="inlineStr"/>
+      <c r="D3222" t="inlineStr"/>
+      <c r="E3222" t="inlineStr"/>
+      <c r="F3222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3223" t="inlineStr"/>
+      <c r="D3223" t="inlineStr"/>
+      <c r="E3223" t="inlineStr"/>
+      <c r="F3223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3224" t="inlineStr"/>
+      <c r="D3224" t="inlineStr"/>
+      <c r="E3224" t="inlineStr"/>
+      <c r="F3224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3225" t="inlineStr"/>
+      <c r="D3225" t="inlineStr"/>
+      <c r="E3225" t="inlineStr"/>
+      <c r="F3225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3226" t="inlineStr"/>
+      <c r="D3226" t="inlineStr"/>
+      <c r="E3226" t="inlineStr"/>
+      <c r="F3226" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3227" t="inlineStr"/>
+      <c r="D3227" t="inlineStr"/>
+      <c r="E3227" t="inlineStr"/>
+      <c r="F3227" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3228" t="inlineStr"/>
+      <c r="D3228" t="inlineStr"/>
+      <c r="E3228" t="inlineStr"/>
+      <c r="F3228" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3229" t="inlineStr"/>
+      <c r="D3229" t="inlineStr"/>
+      <c r="E3229" t="inlineStr"/>
+      <c r="F3229" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3230" t="inlineStr"/>
+      <c r="D3230" t="inlineStr"/>
+      <c r="E3230" t="inlineStr"/>
+      <c r="F3230" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3231" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="C3231" t="inlineStr"/>
+      <c r="D3231" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3231" t="inlineStr"/>
+      <c r="F3231" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3232" t="inlineStr"/>
+      <c r="D3232" t="inlineStr"/>
+      <c r="E3232" t="inlineStr"/>
+      <c r="F3232" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3233" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="C3233" t="inlineStr"/>
+      <c r="D3233" t="inlineStr"/>
+      <c r="E3233" t="inlineStr"/>
+      <c r="F3233" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3234" t="inlineStr"/>
+      <c r="D3234" t="inlineStr"/>
+      <c r="E3234" t="inlineStr"/>
+      <c r="F3234" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3235" t="inlineStr"/>
+      <c r="D3235" t="inlineStr"/>
+      <c r="E3235" t="inlineStr"/>
+      <c r="F3235" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3236" t="inlineStr"/>
+      <c r="D3236" t="inlineStr"/>
+      <c r="E3236" t="inlineStr"/>
+      <c r="F3236" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3237" t="inlineStr"/>
+      <c r="D3237" t="inlineStr"/>
+      <c r="E3237" t="inlineStr"/>
+      <c r="F3237" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3238" t="inlineStr"/>
+      <c r="D3238" t="inlineStr"/>
+      <c r="E3238" t="inlineStr"/>
+      <c r="F3238" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3239" t="inlineStr"/>
+      <c r="D3239" t="inlineStr"/>
+      <c r="E3239" t="inlineStr"/>
+      <c r="F3239" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3240" t="inlineStr"/>
+      <c r="D3240" t="inlineStr"/>
+      <c r="E3240" t="inlineStr"/>
+      <c r="F3240" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3241" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C3241" t="inlineStr"/>
+      <c r="D3241" t="inlineStr"/>
+      <c r="E3241" t="inlineStr"/>
+      <c r="F3241" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3242" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="C3242" t="inlineStr"/>
+      <c r="D3242" t="inlineStr"/>
+      <c r="E3242" t="inlineStr"/>
+      <c r="F3242" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3243" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="C3243" t="inlineStr"/>
+      <c r="D3243" t="inlineStr"/>
+      <c r="E3243" t="inlineStr"/>
+      <c r="F3243" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3244" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3244" t="inlineStr"/>
+      <c r="D3244" t="inlineStr"/>
+      <c r="E3244" t="inlineStr"/>
+      <c r="F3244" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3245" t="inlineStr"/>
+      <c r="D3245" t="inlineStr"/>
+      <c r="E3245" t="inlineStr"/>
+      <c r="F3245" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3246" t="inlineStr"/>
+      <c r="D3246" t="inlineStr"/>
+      <c r="E3246" t="inlineStr"/>
+      <c r="F3246" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3247" t="inlineStr">
+        <is>
+          <t>[31]</t>
+        </is>
+      </c>
+      <c r="C3247" t="inlineStr"/>
+      <c r="D3247" t="inlineStr"/>
+      <c r="E3247" t="inlineStr"/>
+      <c r="F3247" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3248" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3248" t="inlineStr"/>
+      <c r="D3248" t="inlineStr"/>
+      <c r="E3248" t="inlineStr"/>
+      <c r="F3248" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3249" t="inlineStr"/>
+      <c r="D3249" t="inlineStr"/>
+      <c r="E3249" t="inlineStr"/>
+      <c r="F3249" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3250" t="inlineStr"/>
+      <c r="D3250" t="inlineStr"/>
+      <c r="E3250" t="inlineStr"/>
+      <c r="F3250" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3251" t="inlineStr"/>
+      <c r="D3251" t="inlineStr"/>
+      <c r="E3251" t="inlineStr"/>
+      <c r="F3251" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3252" t="inlineStr"/>
+      <c r="D3252" t="inlineStr"/>
+      <c r="E3252" t="inlineStr"/>
+      <c r="F3252" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3253" t="inlineStr"/>
+      <c r="D3253" t="inlineStr"/>
+      <c r="E3253" t="inlineStr"/>
+      <c r="F3253" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3254" t="inlineStr"/>
+      <c r="D3254" t="inlineStr"/>
+      <c r="E3254" t="inlineStr"/>
+      <c r="F3254" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3255" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3255" t="inlineStr"/>
+      <c r="D3255" t="inlineStr"/>
+      <c r="E3255" t="inlineStr"/>
+      <c r="F3255" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3256" t="inlineStr"/>
+      <c r="D3256" t="inlineStr"/>
+      <c r="E3256" t="inlineStr"/>
+      <c r="F3256" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3257" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C3257" t="inlineStr"/>
+      <c r="D3257" t="inlineStr"/>
+      <c r="E3257" t="inlineStr"/>
+      <c r="F3257" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3258" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3258" t="inlineStr"/>
+      <c r="D3258" t="inlineStr"/>
+      <c r="E3258" t="inlineStr"/>
+      <c r="F3258" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3259" t="inlineStr"/>
+      <c r="D3259" t="inlineStr"/>
+      <c r="E3259" t="inlineStr"/>
+      <c r="F3259" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3260" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3260" t="inlineStr"/>
+      <c r="D3260" t="inlineStr"/>
+      <c r="E3260" t="inlineStr"/>
+      <c r="F3260" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3261" t="inlineStr"/>
+      <c r="D3261" t="inlineStr"/>
+      <c r="E3261" t="inlineStr"/>
+      <c r="F3261" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3262" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C3262" t="inlineStr"/>
+      <c r="D3262" t="inlineStr"/>
+      <c r="E3262" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3262" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3263" t="inlineStr"/>
+      <c r="D3263" t="inlineStr"/>
+      <c r="E3263" t="inlineStr"/>
+      <c r="F3263" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3264" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C3264" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3264" t="inlineStr"/>
+      <c r="E3264" t="inlineStr"/>
+      <c r="F3264" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3265" t="inlineStr"/>
+      <c r="D3265" t="inlineStr"/>
+      <c r="E3265" t="inlineStr"/>
+      <c r="F3265" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3266" t="inlineStr"/>
+      <c r="D3266" t="inlineStr"/>
+      <c r="E3266" t="inlineStr"/>
+      <c r="F3266" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3267" t="inlineStr"/>
+      <c r="D3267" t="inlineStr"/>
+      <c r="E3267" t="inlineStr"/>
+      <c r="F3267" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3268" t="inlineStr"/>
+      <c r="D3268" t="inlineStr"/>
+      <c r="E3268" t="inlineStr"/>
+      <c r="F3268" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3269" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3269" t="inlineStr"/>
+      <c r="D3269" t="inlineStr"/>
+      <c r="E3269" t="inlineStr"/>
+      <c r="F3269" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3270" t="inlineStr"/>
+      <c r="D3270" t="inlineStr"/>
+      <c r="E3270" t="inlineStr"/>
+      <c r="F3270" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3271" t="inlineStr"/>
+      <c r="D3271" t="inlineStr"/>
+      <c r="E3271" t="inlineStr"/>
+      <c r="F3271" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3272" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C3272" t="inlineStr"/>
+      <c r="D3272" t="inlineStr"/>
+      <c r="E3272" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3272" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3273" t="inlineStr"/>
+      <c r="D3273" t="inlineStr"/>
+      <c r="E3273" t="inlineStr"/>
+      <c r="F3273" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3274" t="inlineStr">
+        <is>
+          <t>[36]</t>
+        </is>
+      </c>
+      <c r="C3274" t="inlineStr"/>
+      <c r="D3274" t="inlineStr"/>
+      <c r="E3274" t="inlineStr"/>
+      <c r="F3274" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3275" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3275" t="inlineStr"/>
+      <c r="D3275" t="inlineStr"/>
+      <c r="E3275" t="inlineStr"/>
+      <c r="F3275" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3276" t="inlineStr"/>
+      <c r="D3276" t="inlineStr"/>
+      <c r="E3276" t="inlineStr"/>
+      <c r="F3276" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3277" t="inlineStr"/>
+      <c r="D3277" t="inlineStr"/>
+      <c r="E3277" t="inlineStr"/>
+      <c r="F3277" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3278" t="inlineStr">
+        <is>
+          <t>[36]</t>
+        </is>
+      </c>
+      <c r="C3278" t="inlineStr"/>
+      <c r="D3278" t="inlineStr"/>
+      <c r="E3278" t="inlineStr"/>
+      <c r="F3278" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3279" t="inlineStr"/>
+      <c r="D3279" t="inlineStr"/>
+      <c r="E3279" t="inlineStr"/>
+      <c r="F3279" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3280" t="inlineStr"/>
+      <c r="D3280" t="inlineStr"/>
+      <c r="E3280" t="inlineStr"/>
+      <c r="F3280" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3281" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3281" t="inlineStr"/>
+      <c r="D3281" t="inlineStr"/>
+      <c r="E3281" t="inlineStr"/>
+      <c r="F3281" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3282" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C3282" t="inlineStr"/>
+      <c r="D3282" t="inlineStr"/>
+      <c r="E3282" t="inlineStr"/>
+      <c r="F3282" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3283" t="inlineStr"/>
+      <c r="D3283" t="inlineStr"/>
+      <c r="E3283" t="inlineStr"/>
+      <c r="F3283" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3284" t="inlineStr"/>
+      <c r="D3284" t="inlineStr"/>
+      <c r="E3284" t="inlineStr"/>
+      <c r="F3284" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3285" t="inlineStr"/>
+      <c r="D3285" t="inlineStr"/>
+      <c r="E3285" t="inlineStr"/>
+      <c r="F3285" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3286" t="inlineStr"/>
+      <c r="D3286" t="inlineStr"/>
+      <c r="E3286" t="inlineStr"/>
+      <c r="F3286" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3287" t="inlineStr"/>
+      <c r="D3287" t="inlineStr"/>
+      <c r="E3287" t="inlineStr"/>
+      <c r="F3287" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3288" t="inlineStr"/>
+      <c r="D3288" t="inlineStr"/>
+      <c r="E3288" t="inlineStr"/>
+      <c r="F3288" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3289" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3289" t="inlineStr"/>
+      <c r="D3289" t="inlineStr"/>
+      <c r="E3289" t="inlineStr"/>
+      <c r="F3289" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3290" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C3290" t="inlineStr"/>
+      <c r="D3290" t="inlineStr"/>
+      <c r="E3290" t="inlineStr"/>
+      <c r="F3290" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3291" t="inlineStr"/>
+      <c r="D3291" t="inlineStr"/>
+      <c r="E3291" t="inlineStr"/>
+      <c r="F3291" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3292" t="inlineStr"/>
+      <c r="D3292" t="inlineStr"/>
+      <c r="E3292" t="inlineStr"/>
+      <c r="F3292" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3293" t="inlineStr"/>
+      <c r="D3293" t="inlineStr"/>
+      <c r="E3293" t="inlineStr"/>
+      <c r="F3293" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3294" t="inlineStr"/>
+      <c r="D3294" t="inlineStr"/>
+      <c r="E3294" t="inlineStr"/>
+      <c r="F3294" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3295" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="C3295" t="inlineStr"/>
+      <c r="D3295" t="inlineStr"/>
+      <c r="E3295" t="inlineStr"/>
+      <c r="F3295" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3296" t="inlineStr"/>
+      <c r="D3296" t="inlineStr"/>
+      <c r="E3296" t="inlineStr"/>
+      <c r="F3296" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3297" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="C3297" t="inlineStr"/>
+      <c r="D3297" t="inlineStr"/>
+      <c r="E3297" t="inlineStr"/>
+      <c r="F3297" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3298" t="inlineStr"/>
+      <c r="D3298" t="inlineStr"/>
+      <c r="E3298" t="inlineStr"/>
+      <c r="F3298" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3299" t="inlineStr"/>
+      <c r="D3299" t="inlineStr"/>
+      <c r="E3299" t="inlineStr"/>
+      <c r="F3299" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3300" t="inlineStr"/>
+      <c r="D3300" t="inlineStr"/>
+      <c r="E3300" t="inlineStr"/>
+      <c r="F3300" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3301" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="C3301" t="inlineStr"/>
+      <c r="D3301" t="inlineStr"/>
+      <c r="E3301" t="inlineStr"/>
+      <c r="F3301" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3302" t="inlineStr"/>
+      <c r="D3302" t="inlineStr"/>
+      <c r="E3302" t="inlineStr"/>
+      <c r="F3302" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3303" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3303" t="inlineStr"/>
+      <c r="D3303" t="inlineStr"/>
+      <c r="E3303" t="inlineStr"/>
+      <c r="F3303" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3304" t="inlineStr"/>
+      <c r="D3304" t="inlineStr"/>
+      <c r="E3304" t="inlineStr"/>
+      <c r="F3304" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3305" t="inlineStr"/>
+      <c r="D3305" t="inlineStr"/>
+      <c r="E3305" t="inlineStr"/>
+      <c r="F3305" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3306" t="inlineStr"/>
+      <c r="D3306" t="inlineStr"/>
+      <c r="E3306" t="inlineStr"/>
+      <c r="F3306" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3307" t="inlineStr"/>
+      <c r="D3307" t="inlineStr"/>
+      <c r="E3307" t="inlineStr"/>
+      <c r="F3307" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3308" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3308" t="inlineStr"/>
+      <c r="D3308" t="inlineStr"/>
+      <c r="E3308" t="inlineStr"/>
+      <c r="F3308" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3309" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3309" t="inlineStr"/>
+      <c r="D3309" t="inlineStr"/>
+      <c r="E3309" t="inlineStr"/>
+      <c r="F3309" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3310" t="inlineStr">
+        <is>
+          <t>[33]</t>
+        </is>
+      </c>
+      <c r="C3310" t="inlineStr"/>
+      <c r="D3310" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3310" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3310" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3311" t="inlineStr"/>
+      <c r="D3311" t="inlineStr"/>
+      <c r="E3311" t="inlineStr"/>
+      <c r="F3311" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3312" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3312" t="inlineStr"/>
+      <c r="D3312" t="inlineStr"/>
+      <c r="E3312" t="inlineStr"/>
+      <c r="F3312" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3313" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3313" t="inlineStr"/>
+      <c r="D3313" t="inlineStr"/>
+      <c r="E3313" t="inlineStr"/>
+      <c r="F3313" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3314" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3314" t="inlineStr"/>
+      <c r="D3314" t="inlineStr"/>
+      <c r="E3314" t="inlineStr"/>
+      <c r="F3314" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3315" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="C3315" t="inlineStr"/>
+      <c r="D3315" t="inlineStr"/>
+      <c r="E3315" t="inlineStr"/>
+      <c r="F3315" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3316" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C3316" t="inlineStr"/>
+      <c r="D3316" t="inlineStr"/>
+      <c r="E3316" t="inlineStr"/>
+      <c r="F3316" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3317" t="inlineStr"/>
+      <c r="D3317" t="inlineStr"/>
+      <c r="E3317" t="inlineStr"/>
+      <c r="F3317" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3318" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="C3318" t="inlineStr"/>
+      <c r="D3318" t="inlineStr"/>
+      <c r="E3318" t="inlineStr"/>
+      <c r="F3318" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3319" t="inlineStr"/>
+      <c r="D3319" t="inlineStr"/>
+      <c r="E3319" t="inlineStr"/>
+      <c r="F3319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3320" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="C3320" t="inlineStr"/>
+      <c r="D3320" t="inlineStr"/>
+      <c r="E3320" t="inlineStr"/>
+      <c r="F3320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3321" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3321" t="inlineStr"/>
+      <c r="D3321" t="inlineStr"/>
+      <c r="E3321" t="inlineStr"/>
+      <c r="F3321" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3322" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3322" t="inlineStr"/>
+      <c r="D3322" t="inlineStr"/>
+      <c r="E3322" t="inlineStr"/>
+      <c r="F3322" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3323" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3323" t="inlineStr"/>
+      <c r="D3323" t="inlineStr"/>
+      <c r="E3323" t="inlineStr"/>
+      <c r="F3323" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3324" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3324" t="inlineStr"/>
+      <c r="D3324" t="inlineStr"/>
+      <c r="E3324" t="inlineStr"/>
+      <c r="F3324" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3325" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3325" t="inlineStr"/>
+      <c r="D3325" t="inlineStr"/>
+      <c r="E3325" t="inlineStr"/>
+      <c r="F3325" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3326" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3326" t="inlineStr"/>
+      <c r="D3326" t="inlineStr"/>
+      <c r="E3326" t="inlineStr"/>
+      <c r="F3326" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3327">
+      <c r="A3327" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3327" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3327" t="inlineStr"/>
+      <c r="D3327" t="inlineStr"/>
+      <c r="E3327" t="inlineStr"/>
+      <c r="F3327" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3328">
+      <c r="A3328" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3328" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3328" t="inlineStr"/>
+      <c r="D3328" t="inlineStr"/>
+      <c r="E3328" t="inlineStr"/>
+      <c r="F3328" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3329">
+      <c r="A3329" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3329" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C3329" t="inlineStr"/>
+      <c r="D3329" t="inlineStr"/>
+      <c r="E3329" t="inlineStr"/>
+      <c r="F3329" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3330">
+      <c r="A3330" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3330" t="inlineStr"/>
+      <c r="D3330" t="inlineStr"/>
+      <c r="E3330" t="inlineStr"/>
+      <c r="F3330" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3331">
+      <c r="A3331" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3331" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3331" t="inlineStr"/>
+      <c r="D3331" t="inlineStr"/>
+      <c r="E3331" t="inlineStr"/>
+      <c r="F3331" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3332">
+      <c r="A3332" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3332" t="inlineStr">
+        <is>
+          <t>[35]</t>
+        </is>
+      </c>
+      <c r="C3332" t="inlineStr"/>
+      <c r="D3332" t="inlineStr"/>
+      <c r="E3332" t="inlineStr"/>
+      <c r="F3332" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3333">
+      <c r="A3333" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3333" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3333" t="inlineStr"/>
+      <c r="D3333" t="inlineStr"/>
+      <c r="E3333" t="inlineStr"/>
+      <c r="F3333" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3334">
+      <c r="A3334" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3334" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="C3334" t="inlineStr"/>
+      <c r="D3334" t="inlineStr"/>
+      <c r="E3334" t="inlineStr"/>
+      <c r="F3334" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3335">
+      <c r="A3335" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3335" t="inlineStr"/>
+      <c r="D3335" t="inlineStr"/>
+      <c r="E3335" t="inlineStr"/>
+      <c r="F3335" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3336">
+      <c r="A3336" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3336" t="inlineStr"/>
+      <c r="D3336" t="inlineStr"/>
+      <c r="E3336" t="inlineStr"/>
+      <c r="F3336" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3337">
+      <c r="A3337" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3337" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3337" t="inlineStr"/>
+      <c r="D3337" t="inlineStr"/>
+      <c r="E3337" t="inlineStr"/>
+      <c r="F3337" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3338">
+      <c r="A3338" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3338" t="inlineStr"/>
+      <c r="D3338" t="inlineStr"/>
+      <c r="E3338" t="inlineStr"/>
+      <c r="F3338" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3339">
+      <c r="A3339" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3339" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3339" t="inlineStr"/>
+      <c r="D3339" t="inlineStr"/>
+      <c r="E3339" t="inlineStr"/>
+      <c r="F3339" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3340">
+      <c r="A3340" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3340" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="C3340" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3340" t="inlineStr"/>
+      <c r="E3340" t="inlineStr"/>
+      <c r="F3340" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3341">
+      <c r="A3341" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3341" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3341" t="inlineStr"/>
+      <c r="D3341" t="inlineStr"/>
+      <c r="E3341" t="inlineStr"/>
+      <c r="F3341" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3342">
+      <c r="A3342" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3342" t="inlineStr">
+        <is>
+          <t>[29]</t>
+        </is>
+      </c>
+      <c r="C3342" t="inlineStr"/>
+      <c r="D3342" t="inlineStr"/>
+      <c r="E3342" t="inlineStr"/>
+      <c r="F3342" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3343">
+      <c r="A3343" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3343" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3343" t="inlineStr"/>
+      <c r="D3343" t="inlineStr"/>
+      <c r="E3343" t="inlineStr"/>
+      <c r="F3343" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3344">
+      <c r="A3344" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3344" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3344" t="inlineStr"/>
+      <c r="D3344" t="inlineStr"/>
+      <c r="E3344" t="inlineStr"/>
+      <c r="F3344" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3345">
+      <c r="A3345" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3345" t="inlineStr">
+        <is>
+          <t>[33]</t>
+        </is>
+      </c>
+      <c r="C3345" t="inlineStr"/>
+      <c r="D3345" t="inlineStr"/>
+      <c r="E3345" t="inlineStr"/>
+      <c r="F3345" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3346">
+      <c r="A3346" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3346" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3346" t="inlineStr"/>
+      <c r="D3346" t="inlineStr"/>
+      <c r="E3346" t="inlineStr"/>
+      <c r="F3346" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3347">
+      <c r="A3347" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3347" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3347" t="inlineStr"/>
+      <c r="D3347" t="inlineStr"/>
+      <c r="E3347" t="inlineStr"/>
+      <c r="F3347" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3348">
+      <c r="A3348" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3348" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3348" t="inlineStr"/>
+      <c r="D3348" t="inlineStr"/>
+      <c r="E3348" t="inlineStr"/>
+      <c r="F3348" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3349">
+      <c r="A3349" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3349" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3349" t="inlineStr"/>
+      <c r="D3349" t="inlineStr"/>
+      <c r="E3349" t="inlineStr"/>
+      <c r="F3349" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3350">
+      <c r="A3350" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3350" t="inlineStr"/>
+      <c r="D3350" t="inlineStr"/>
+      <c r="E3350" t="inlineStr"/>
+      <c r="F3350" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3351">
+      <c r="A3351" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3351" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3351" t="inlineStr"/>
+      <c r="D3351" t="inlineStr"/>
+      <c r="E3351" t="inlineStr"/>
+      <c r="F3351" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3352">
+      <c r="A3352" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3352" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C3352" t="inlineStr"/>
+      <c r="D3352" t="inlineStr"/>
+      <c r="E3352" t="inlineStr"/>
+      <c r="F3352" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3353">
+      <c r="A3353" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3353" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3353" t="inlineStr"/>
+      <c r="D3353" t="inlineStr"/>
+      <c r="E3353" t="inlineStr"/>
+      <c r="F3353" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3354">
+      <c r="A3354" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3354" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C3354" t="inlineStr"/>
+      <c r="D3354" t="inlineStr"/>
+      <c r="E3354" t="inlineStr"/>
+      <c r="F3354" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3355">
+      <c r="A3355" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3355" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3355" t="inlineStr"/>
+      <c r="D3355" t="inlineStr"/>
+      <c r="E3355" t="inlineStr"/>
+      <c r="F3355" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3356">
+      <c r="A3356" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3356" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C3356" t="inlineStr"/>
+      <c r="D3356" t="inlineStr"/>
+      <c r="E3356" t="inlineStr"/>
+      <c r="F3356" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3357">
+      <c r="A3357" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3357" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3357" t="inlineStr"/>
+      <c r="D3357" t="inlineStr"/>
+      <c r="E3357" t="inlineStr"/>
+      <c r="F3357" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3358">
+      <c r="A3358" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3358" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C3358" t="inlineStr"/>
+      <c r="D3358" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3358" t="inlineStr"/>
+      <c r="F3358" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3359">
+      <c r="A3359" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3359" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3359" t="inlineStr"/>
+      <c r="D3359" t="inlineStr"/>
+      <c r="E3359" t="inlineStr"/>
+      <c r="F3359" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3360">
+      <c r="A3360" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3360" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3360" t="inlineStr"/>
+      <c r="D3360" t="inlineStr"/>
+      <c r="E3360" t="inlineStr"/>
+      <c r="F3360" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3361">
+      <c r="A3361" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3361" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3361" t="inlineStr"/>
+      <c r="D3361" t="inlineStr"/>
+      <c r="E3361" t="inlineStr"/>
+      <c r="F3361" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3362">
+      <c r="A3362" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3362" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3362" t="inlineStr"/>
+      <c r="D3362" t="inlineStr"/>
+      <c r="E3362" t="inlineStr"/>
+      <c r="F3362" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3363">
+      <c r="A3363" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3363" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3363" t="inlineStr"/>
+      <c r="D3363" t="inlineStr"/>
+      <c r="E3363" t="inlineStr"/>
+      <c r="F3363" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3364">
+      <c r="A3364" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3364" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3364" t="inlineStr"/>
+      <c r="D3364" t="inlineStr"/>
+      <c r="E3364" t="inlineStr"/>
+      <c r="F3364" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3365">
+      <c r="A3365" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3365" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3365" t="inlineStr"/>
+      <c r="D3365" t="inlineStr"/>
+      <c r="E3365" t="inlineStr"/>
+      <c r="F3365" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3366">
+      <c r="A3366" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3366" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3366" t="inlineStr"/>
+      <c r="D3366" t="inlineStr"/>
+      <c r="E3366" t="inlineStr"/>
+      <c r="F3366" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3367" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3367" t="inlineStr"/>
+      <c r="D3367" t="inlineStr"/>
+      <c r="E3367" t="inlineStr"/>
+      <c r="F3367" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3368" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3368" t="inlineStr"/>
+      <c r="D3368" t="inlineStr"/>
+      <c r="E3368" t="inlineStr"/>
+      <c r="F3368" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3369" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3369" t="inlineStr"/>
+      <c r="D3369" t="inlineStr"/>
+      <c r="E3369" t="inlineStr"/>
+      <c r="F3369" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3370" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3370" t="inlineStr"/>
+      <c r="D3370" t="inlineStr"/>
+      <c r="E3370" t="inlineStr"/>
+      <c r="F3370" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3371" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3371" t="inlineStr"/>
+      <c r="D3371" t="inlineStr"/>
+      <c r="E3371" t="inlineStr"/>
+      <c r="F3371" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3372" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3372" t="inlineStr"/>
+      <c r="D3372" t="inlineStr"/>
+      <c r="E3372" t="inlineStr"/>
+      <c r="F3372" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3373" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3373" t="inlineStr"/>
+      <c r="D3373" t="inlineStr"/>
+      <c r="E3373" t="inlineStr"/>
+      <c r="F3373" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3374" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3374" t="inlineStr"/>
+      <c r="D3374" t="inlineStr"/>
+      <c r="E3374" t="inlineStr"/>
+      <c r="F3374" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3375" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3375" t="inlineStr"/>
+      <c r="D3375" t="inlineStr"/>
+      <c r="E3375" t="inlineStr"/>
+      <c r="F3375" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3376" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3376" t="inlineStr"/>
+      <c r="D3376" t="inlineStr"/>
+      <c r="E3376" t="inlineStr"/>
+      <c r="F3376" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3377" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3377" t="inlineStr"/>
+      <c r="D3377" t="inlineStr"/>
+      <c r="E3377" t="inlineStr"/>
+      <c r="F3377" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3378" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3378" t="inlineStr"/>
+      <c r="D3378" t="inlineStr"/>
+      <c r="E3378" t="inlineStr"/>
+      <c r="F3378" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3379" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3379" t="inlineStr"/>
+      <c r="D3379" t="inlineStr"/>
+      <c r="E3379" t="inlineStr"/>
+      <c r="F3379" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3380" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3380" t="inlineStr"/>
+      <c r="D3380" t="inlineStr"/>
+      <c r="E3380" t="inlineStr"/>
+      <c r="F3380" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3381" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3381" t="inlineStr"/>
+      <c r="D3381" t="inlineStr"/>
+      <c r="E3381" t="inlineStr"/>
+      <c r="F3381" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3382" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3382" t="inlineStr"/>
+      <c r="D3382" t="inlineStr"/>
+      <c r="E3382" t="inlineStr"/>
+      <c r="F3382" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3383" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3383" t="inlineStr"/>
+      <c r="D3383" t="inlineStr"/>
+      <c r="E3383" t="inlineStr"/>
+      <c r="F3383" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3384" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3384" t="inlineStr"/>
+      <c r="D3384" t="inlineStr"/>
+      <c r="E3384" t="inlineStr"/>
+      <c r="F3384" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3385" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3385" t="inlineStr"/>
+      <c r="D3385" t="inlineStr"/>
+      <c r="E3385" t="inlineStr"/>
+      <c r="F3385" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3386" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3386" t="inlineStr"/>
+      <c r="D3386" t="inlineStr"/>
+      <c r="E3386" t="inlineStr"/>
+      <c r="F3386" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3387" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3387" t="inlineStr"/>
+      <c r="D3387" t="inlineStr"/>
+      <c r="E3387" t="inlineStr"/>
+      <c r="F3387" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3388" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3388" t="inlineStr"/>
+      <c r="D3388" t="inlineStr"/>
+      <c r="E3388" t="inlineStr"/>
+      <c r="F3388" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3389" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3389" t="inlineStr"/>
+      <c r="D3389" t="inlineStr"/>
+      <c r="E3389" t="inlineStr"/>
+      <c r="F3389" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3390" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3390" t="inlineStr"/>
+      <c r="D3390" t="inlineStr"/>
+      <c r="E3390" t="inlineStr"/>
+      <c r="F3390" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3391" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="C3391" t="inlineStr"/>
+      <c r="D3391" t="inlineStr"/>
+      <c r="E3391" t="inlineStr"/>
+      <c r="F3391" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3392" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3392" t="inlineStr"/>
+      <c r="D3392" t="inlineStr"/>
+      <c r="E3392" t="inlineStr"/>
+      <c r="F3392" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3393" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3393" t="inlineStr"/>
+      <c r="D3393" t="inlineStr"/>
+      <c r="E3393" t="inlineStr"/>
+      <c r="F3393" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3394" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3394" t="inlineStr"/>
+      <c r="D3394" t="inlineStr"/>
+      <c r="E3394" t="inlineStr"/>
+      <c r="F3394" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3395" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3395" t="inlineStr"/>
+      <c r="D3395" t="inlineStr"/>
+      <c r="E3395" t="inlineStr"/>
+      <c r="F3395" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3396" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3396" t="inlineStr"/>
+      <c r="D3396" t="inlineStr"/>
+      <c r="E3396" t="inlineStr"/>
+      <c r="F3396" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3397" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C3397" t="inlineStr"/>
+      <c r="D3397" t="inlineStr"/>
+      <c r="E3397" t="inlineStr"/>
+      <c r="F3397" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3398" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3398" t="inlineStr"/>
+      <c r="D3398" t="inlineStr"/>
+      <c r="E3398" t="inlineStr"/>
+      <c r="F3398" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3399" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C3399" t="inlineStr"/>
+      <c r="D3399" t="inlineStr"/>
+      <c r="E3399" t="inlineStr"/>
+      <c r="F3399" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3400" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3400" t="inlineStr"/>
+      <c r="D3400" t="inlineStr"/>
+      <c r="E3400" t="inlineStr"/>
+      <c r="F3400" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3401" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3401" t="inlineStr"/>
+      <c r="D3401" t="inlineStr"/>
+      <c r="E3401" t="inlineStr"/>
+      <c r="F3401" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3402" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C3402" t="inlineStr"/>
+      <c r="D3402" t="inlineStr"/>
+      <c r="E3402" t="inlineStr"/>
+      <c r="F3402" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3403" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3403" t="inlineStr"/>
+      <c r="D3403" t="inlineStr"/>
+      <c r="E3403" t="inlineStr"/>
+      <c r="F3403" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3404" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3404" t="inlineStr"/>
+      <c r="D3404" t="inlineStr"/>
+      <c r="E3404" t="inlineStr"/>
+      <c r="F3404" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3405" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3405" t="inlineStr"/>
+      <c r="D3405" t="inlineStr"/>
+      <c r="E3405" t="inlineStr"/>
+      <c r="F3405" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3406" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3406" t="inlineStr"/>
+      <c r="D3406" t="inlineStr"/>
+      <c r="E3406" t="inlineStr"/>
+      <c r="F3406" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3407" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3407" t="inlineStr"/>
+      <c r="D3407" t="inlineStr"/>
+      <c r="E3407" t="inlineStr"/>
+      <c r="F3407" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3408" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3408" t="inlineStr"/>
+      <c r="D3408" t="inlineStr"/>
+      <c r="E3408" t="inlineStr"/>
+      <c r="F3408" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3409" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3409" t="inlineStr"/>
+      <c r="D3409" t="inlineStr"/>
+      <c r="E3409" t="inlineStr"/>
+      <c r="F3409" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3410" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3410" t="inlineStr"/>
+      <c r="D3410" t="inlineStr"/>
+      <c r="E3410" t="inlineStr"/>
+      <c r="F3410" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3411" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C3411" t="inlineStr"/>
+      <c r="D3411" t="inlineStr"/>
+      <c r="E3411" t="inlineStr"/>
+      <c r="F3411" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3412" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3412" t="inlineStr"/>
+      <c r="D3412" t="inlineStr"/>
+      <c r="E3412" t="inlineStr"/>
+      <c r="F3412" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3413" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3413" t="inlineStr"/>
+      <c r="D3413" t="inlineStr"/>
+      <c r="E3413" t="inlineStr"/>
+      <c r="F3413" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3414" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C3414" t="inlineStr"/>
+      <c r="D3414" t="inlineStr"/>
+      <c r="E3414" t="inlineStr"/>
+      <c r="F3414" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3415" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="C3415" t="inlineStr"/>
+      <c r="D3415" t="inlineStr"/>
+      <c r="E3415" t="inlineStr"/>
+      <c r="F3415" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3416" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3416" t="inlineStr"/>
+      <c r="D3416" t="inlineStr"/>
+      <c r="E3416" t="inlineStr"/>
+      <c r="F3416" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3417" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3417" t="inlineStr"/>
+      <c r="D3417" t="inlineStr"/>
+      <c r="E3417" t="inlineStr"/>
+      <c r="F3417" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3418" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3418" t="inlineStr"/>
+      <c r="D3418" t="inlineStr"/>
+      <c r="E3418" t="inlineStr"/>
+      <c r="F3418" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3419" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3419" t="inlineStr"/>
+      <c r="D3419" t="inlineStr"/>
+      <c r="E3419" t="inlineStr"/>
+      <c r="F3419" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3420" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3420" t="inlineStr"/>
+      <c r="D3420" t="inlineStr"/>
+      <c r="E3420" t="inlineStr"/>
+      <c r="F3420" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3421" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3421" t="inlineStr"/>
+      <c r="D3421" t="inlineStr"/>
+      <c r="E3421" t="inlineStr"/>
+      <c r="F3421" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3422" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3422" t="inlineStr"/>
+      <c r="D3422" t="inlineStr"/>
+      <c r="E3422" t="inlineStr"/>
+      <c r="F3422" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3423" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C3423" t="inlineStr"/>
+      <c r="D3423" t="inlineStr"/>
+      <c r="E3423" t="inlineStr"/>
+      <c r="F3423" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3424" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="C3424" t="inlineStr"/>
+      <c r="D3424" t="inlineStr"/>
+      <c r="E3424" t="inlineStr"/>
+      <c r="F3424" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3425" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3425" t="inlineStr"/>
+      <c r="D3425" t="inlineStr"/>
+      <c r="E3425" t="inlineStr"/>
+      <c r="F3425" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3426" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3426" t="inlineStr"/>
+      <c r="D3426" t="inlineStr"/>
+      <c r="E3426" t="inlineStr"/>
+      <c r="F3426" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3427" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3427" t="inlineStr"/>
+      <c r="D3427" t="inlineStr"/>
+      <c r="E3427" t="inlineStr"/>
+      <c r="F3427" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3428" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3428" t="inlineStr"/>
+      <c r="D3428" t="inlineStr"/>
+      <c r="E3428" t="inlineStr"/>
+      <c r="F3428" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3429" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3429" t="inlineStr"/>
+      <c r="D3429" t="inlineStr"/>
+      <c r="E3429" t="inlineStr"/>
+      <c r="F3429" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3430" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3430" t="inlineStr"/>
+      <c r="D3430" t="inlineStr"/>
+      <c r="E3430" t="inlineStr"/>
+      <c r="F3430" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3431" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="C3431" t="inlineStr"/>
+      <c r="D3431" t="inlineStr"/>
+      <c r="E3431" t="inlineStr"/>
+      <c r="F3431" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3432" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3432" t="inlineStr"/>
+      <c r="D3432" t="inlineStr"/>
+      <c r="E3432" t="inlineStr"/>
+      <c r="F3432" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3433" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="C3433" t="inlineStr"/>
+      <c r="D3433" t="inlineStr"/>
+      <c r="E3433" t="inlineStr"/>
+      <c r="F3433" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3434" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3434" t="inlineStr"/>
+      <c r="D3434" t="inlineStr"/>
+      <c r="E3434" t="inlineStr"/>
+      <c r="F3434" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3435" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C3435" t="inlineStr"/>
+      <c r="D3435" t="inlineStr"/>
+      <c r="E3435" t="inlineStr"/>
+      <c r="F3435" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3436" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3436" t="inlineStr"/>
+      <c r="D3436" t="inlineStr"/>
+      <c r="E3436" t="inlineStr"/>
+      <c r="F3436" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3437" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3437" t="inlineStr"/>
+      <c r="D3437" t="inlineStr"/>
+      <c r="E3437" t="inlineStr"/>
+      <c r="F3437" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3438" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C3438" t="inlineStr"/>
+      <c r="D3438" t="inlineStr"/>
+      <c r="E3438" t="inlineStr"/>
+      <c r="F3438" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3439" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3439" t="inlineStr"/>
+      <c r="D3439" t="inlineStr"/>
+      <c r="E3439" t="inlineStr"/>
+      <c r="F3439" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3440" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3440" t="inlineStr"/>
+      <c r="D3440" t="inlineStr"/>
+      <c r="E3440" t="inlineStr"/>
+      <c r="F3440" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3441" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3441" t="inlineStr"/>
+      <c r="D3441" t="inlineStr"/>
+      <c r="E3441" t="inlineStr"/>
+      <c r="F3441" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3442" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3442" t="inlineStr"/>
+      <c r="D3442" t="inlineStr"/>
+      <c r="E3442" t="inlineStr"/>
+      <c r="F3442" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3443" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3443" t="inlineStr"/>
+      <c r="D3443" t="inlineStr"/>
+      <c r="E3443" t="inlineStr"/>
+      <c r="F3443" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3444" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3444" t="inlineStr"/>
+      <c r="D3444" t="inlineStr"/>
+      <c r="E3444" t="inlineStr"/>
+      <c r="F3444" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3445" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3445" t="inlineStr"/>
+      <c r="D3445" t="inlineStr"/>
+      <c r="E3445" t="inlineStr"/>
+      <c r="F3445" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3446" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3446" t="inlineStr"/>
+      <c r="D3446" t="inlineStr"/>
+      <c r="E3446" t="inlineStr"/>
+      <c r="F3446" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3447" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3447" t="inlineStr"/>
+      <c r="D3447" t="inlineStr"/>
+      <c r="E3447" t="inlineStr"/>
+      <c r="F3447" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3448" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3448" t="inlineStr"/>
+      <c r="D3448" t="inlineStr"/>
+      <c r="E3448" t="inlineStr"/>
+      <c r="F3448" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3449" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3449" t="inlineStr"/>
+      <c r="D3449" t="inlineStr"/>
+      <c r="E3449" t="inlineStr"/>
+      <c r="F3449" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3450" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3450" t="inlineStr"/>
+      <c r="D3450" t="inlineStr"/>
+      <c r="E3450" t="inlineStr"/>
+      <c r="F3450" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3451" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3451" t="inlineStr"/>
+      <c r="D3451" t="inlineStr"/>
+      <c r="E3451" t="inlineStr"/>
+      <c r="F3451" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3452" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3452" t="inlineStr"/>
+      <c r="D3452" t="inlineStr"/>
+      <c r="E3452" t="inlineStr"/>
+      <c r="F3452" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3453" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3453" t="inlineStr"/>
+      <c r="D3453" t="inlineStr"/>
+      <c r="E3453" t="inlineStr"/>
+      <c r="F3453" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3454" t="inlineStr">
+        <is>
+          <t>[31]</t>
+        </is>
+      </c>
+      <c r="C3454" t="inlineStr"/>
+      <c r="D3454" t="inlineStr"/>
+      <c r="E3454" t="inlineStr"/>
+      <c r="F3454" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3455" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3455" t="inlineStr"/>
+      <c r="D3455" t="inlineStr"/>
+      <c r="E3455" t="inlineStr"/>
+      <c r="F3455" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3456" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3456" t="inlineStr"/>
+      <c r="D3456" t="inlineStr"/>
+      <c r="E3456" t="inlineStr"/>
+      <c r="F3456" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3457" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3457" t="inlineStr"/>
+      <c r="D3457" t="inlineStr"/>
+      <c r="E3457" t="inlineStr"/>
+      <c r="F3457" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3458" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3458" t="inlineStr"/>
+      <c r="D3458" t="inlineStr"/>
+      <c r="E3458" t="inlineStr"/>
+      <c r="F3458" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3459" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3459" t="inlineStr"/>
+      <c r="D3459" t="inlineStr"/>
+      <c r="E3459" t="inlineStr"/>
+      <c r="F3459" t="n">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3459"/>
+  <dimension ref="A1:F3545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54623,6 +54623,1418 @@
         <v>141</v>
       </c>
     </row>
+    <row r="3460">
+      <c r="A3460" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3460" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="C3460" t="inlineStr"/>
+      <c r="D3460" t="inlineStr"/>
+      <c r="E3460" t="inlineStr"/>
+      <c r="F3460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3461" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3461" t="inlineStr"/>
+      <c r="D3461" t="inlineStr"/>
+      <c r="E3461" t="inlineStr"/>
+      <c r="F3461" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3462" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3462" t="inlineStr"/>
+      <c r="D3462" t="inlineStr"/>
+      <c r="E3462" t="inlineStr"/>
+      <c r="F3462" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3463" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3463" t="inlineStr"/>
+      <c r="D3463" t="inlineStr"/>
+      <c r="E3463" t="inlineStr"/>
+      <c r="F3463" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3464" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3464" t="inlineStr"/>
+      <c r="D3464" t="inlineStr"/>
+      <c r="E3464" t="inlineStr"/>
+      <c r="F3464" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3465" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="C3465" t="inlineStr"/>
+      <c r="D3465" t="inlineStr"/>
+      <c r="E3465" t="inlineStr"/>
+      <c r="F3465" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3466" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C3466" t="inlineStr"/>
+      <c r="D3466" t="inlineStr"/>
+      <c r="E3466" t="inlineStr"/>
+      <c r="F3466" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3467" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="C3467" t="inlineStr"/>
+      <c r="D3467" t="inlineStr"/>
+      <c r="E3467" t="inlineStr"/>
+      <c r="F3467" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3468" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C3468" t="inlineStr"/>
+      <c r="D3468" t="inlineStr"/>
+      <c r="E3468" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3468" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3469" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3469" t="inlineStr"/>
+      <c r="D3469" t="inlineStr"/>
+      <c r="E3469" t="inlineStr"/>
+      <c r="F3469" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3470" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C3470" t="inlineStr"/>
+      <c r="D3470" t="inlineStr"/>
+      <c r="E3470" t="inlineStr"/>
+      <c r="F3470" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3471" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3471" t="inlineStr"/>
+      <c r="D3471" t="inlineStr"/>
+      <c r="E3471" t="inlineStr"/>
+      <c r="F3471" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3472" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="C3472" t="inlineStr"/>
+      <c r="D3472" t="inlineStr"/>
+      <c r="E3472" t="inlineStr"/>
+      <c r="F3472" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3473" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3473" t="inlineStr"/>
+      <c r="D3473" t="inlineStr"/>
+      <c r="E3473" t="inlineStr"/>
+      <c r="F3473" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3474" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3474" t="inlineStr"/>
+      <c r="D3474" t="inlineStr"/>
+      <c r="E3474" t="inlineStr"/>
+      <c r="F3474" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3475" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3475" t="inlineStr"/>
+      <c r="D3475" t="inlineStr"/>
+      <c r="E3475" t="inlineStr"/>
+      <c r="F3475" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3476" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3476" t="inlineStr"/>
+      <c r="D3476" t="inlineStr"/>
+      <c r="E3476" t="inlineStr"/>
+      <c r="F3476" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3477" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3477" t="inlineStr"/>
+      <c r="D3477" t="inlineStr"/>
+      <c r="E3477" t="inlineStr"/>
+      <c r="F3477" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3478" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3478" t="inlineStr"/>
+      <c r="D3478" t="inlineStr"/>
+      <c r="E3478" t="inlineStr"/>
+      <c r="F3478" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3479" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3479" t="inlineStr"/>
+      <c r="D3479" t="inlineStr"/>
+      <c r="E3479" t="inlineStr"/>
+      <c r="F3479" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3480" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3480" t="inlineStr"/>
+      <c r="D3480" t="inlineStr"/>
+      <c r="E3480" t="inlineStr"/>
+      <c r="F3480" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3481">
+      <c r="A3481" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3481" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3481" t="inlineStr"/>
+      <c r="D3481" t="inlineStr"/>
+      <c r="E3481" t="inlineStr"/>
+      <c r="F3481" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3482">
+      <c r="A3482" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3482" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C3482" t="inlineStr"/>
+      <c r="D3482" t="inlineStr"/>
+      <c r="E3482" t="inlineStr"/>
+      <c r="F3482" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3483">
+      <c r="A3483" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3483" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3483" t="inlineStr"/>
+      <c r="D3483" t="inlineStr"/>
+      <c r="E3483" t="inlineStr"/>
+      <c r="F3483" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3484">
+      <c r="A3484" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3484" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3484" t="inlineStr"/>
+      <c r="D3484" t="inlineStr"/>
+      <c r="E3484" t="inlineStr"/>
+      <c r="F3484" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3485">
+      <c r="A3485" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3485" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C3485" t="inlineStr"/>
+      <c r="D3485" t="inlineStr"/>
+      <c r="E3485" t="inlineStr"/>
+      <c r="F3485" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3486">
+      <c r="A3486" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3486" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3486" t="inlineStr"/>
+      <c r="D3486" t="inlineStr"/>
+      <c r="E3486" t="inlineStr"/>
+      <c r="F3486" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3487">
+      <c r="A3487" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3487" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3487" t="inlineStr"/>
+      <c r="D3487" t="inlineStr"/>
+      <c r="E3487" t="inlineStr"/>
+      <c r="F3487" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3488">
+      <c r="A3488" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3488" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3488" t="inlineStr"/>
+      <c r="D3488" t="inlineStr"/>
+      <c r="E3488" t="inlineStr"/>
+      <c r="F3488" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3489">
+      <c r="A3489" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3489" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3489" t="inlineStr"/>
+      <c r="D3489" t="inlineStr"/>
+      <c r="E3489" t="inlineStr"/>
+      <c r="F3489" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3490">
+      <c r="A3490" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3490" t="inlineStr">
+        <is>
+          <t>[29]</t>
+        </is>
+      </c>
+      <c r="C3490" t="inlineStr"/>
+      <c r="D3490" t="inlineStr"/>
+      <c r="E3490" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3490" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3491">
+      <c r="A3491" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3491" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3491" t="inlineStr"/>
+      <c r="D3491" t="inlineStr"/>
+      <c r="E3491" t="inlineStr"/>
+      <c r="F3491" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3492">
+      <c r="A3492" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3492" t="inlineStr">
+        <is>
+          <t>[13]</t>
+        </is>
+      </c>
+      <c r="C3492" t="inlineStr"/>
+      <c r="D3492" t="inlineStr"/>
+      <c r="E3492" t="inlineStr"/>
+      <c r="F3492" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3493">
+      <c r="A3493" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3493" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3493" t="inlineStr"/>
+      <c r="D3493" t="inlineStr"/>
+      <c r="E3493" t="inlineStr"/>
+      <c r="F3493" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3494">
+      <c r="A3494" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3494" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C3494" t="inlineStr"/>
+      <c r="D3494" t="inlineStr"/>
+      <c r="E3494" t="inlineStr"/>
+      <c r="F3494" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3495">
+      <c r="A3495" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3495" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="C3495" t="inlineStr"/>
+      <c r="D3495" t="inlineStr"/>
+      <c r="E3495" t="inlineStr"/>
+      <c r="F3495" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3496">
+      <c r="A3496" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3496" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3496" t="inlineStr"/>
+      <c r="D3496" t="inlineStr"/>
+      <c r="E3496" t="inlineStr"/>
+      <c r="F3496" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3497">
+      <c r="A3497" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3497" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3497" t="inlineStr"/>
+      <c r="D3497" t="inlineStr"/>
+      <c r="E3497" t="inlineStr"/>
+      <c r="F3497" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3498">
+      <c r="A3498" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3498" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C3498" t="inlineStr"/>
+      <c r="D3498" t="inlineStr"/>
+      <c r="E3498" t="inlineStr"/>
+      <c r="F3498" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3499">
+      <c r="A3499" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3499" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="C3499" t="inlineStr"/>
+      <c r="D3499" t="inlineStr"/>
+      <c r="E3499" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F3499" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3500">
+      <c r="A3500" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3500" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3500" t="inlineStr"/>
+      <c r="D3500" t="inlineStr"/>
+      <c r="E3500" t="inlineStr"/>
+      <c r="F3500" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3501">
+      <c r="A3501" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3501" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3501" t="inlineStr"/>
+      <c r="D3501" t="inlineStr"/>
+      <c r="E3501" t="inlineStr"/>
+      <c r="F3501" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3502">
+      <c r="A3502" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3502" t="inlineStr">
+        <is>
+          <t>[29]</t>
+        </is>
+      </c>
+      <c r="C3502" t="inlineStr"/>
+      <c r="D3502" t="inlineStr"/>
+      <c r="E3502" t="inlineStr"/>
+      <c r="F3502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3503">
+      <c r="A3503" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3503" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C3503" t="inlineStr"/>
+      <c r="D3503" t="inlineStr"/>
+      <c r="E3503" t="inlineStr"/>
+      <c r="F3503" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3504">
+      <c r="A3504" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3504" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3504" t="inlineStr"/>
+      <c r="D3504" t="inlineStr"/>
+      <c r="E3504" t="inlineStr"/>
+      <c r="F3504" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3505">
+      <c r="A3505" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3505" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3505" t="inlineStr"/>
+      <c r="D3505" t="inlineStr"/>
+      <c r="E3505" t="inlineStr"/>
+      <c r="F3505" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3506">
+      <c r="A3506" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3506" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="C3506" t="inlineStr"/>
+      <c r="D3506" t="inlineStr"/>
+      <c r="E3506" t="inlineStr"/>
+      <c r="F3506" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3507">
+      <c r="A3507" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3507" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="C3507" t="inlineStr"/>
+      <c r="D3507" t="inlineStr"/>
+      <c r="E3507" t="inlineStr"/>
+      <c r="F3507" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3508">
+      <c r="A3508" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3508" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="C3508" t="inlineStr"/>
+      <c r="D3508" t="inlineStr"/>
+      <c r="E3508" t="inlineStr"/>
+      <c r="F3508" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3509">
+      <c r="A3509" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3509" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="C3509" t="inlineStr"/>
+      <c r="D3509" t="inlineStr"/>
+      <c r="E3509" t="inlineStr"/>
+      <c r="F3509" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3510">
+      <c r="A3510" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3510" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C3510" t="inlineStr"/>
+      <c r="D3510" t="inlineStr"/>
+      <c r="E3510" t="inlineStr"/>
+      <c r="F3510" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3511">
+      <c r="A3511" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3511" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="C3511" t="inlineStr"/>
+      <c r="D3511" t="inlineStr"/>
+      <c r="E3511" t="inlineStr"/>
+      <c r="F3511" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3512">
+      <c r="A3512" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3512" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="C3512" t="inlineStr"/>
+      <c r="D3512" t="inlineStr"/>
+      <c r="E3512" t="inlineStr"/>
+      <c r="F3512" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3513">
+      <c r="A3513" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3513" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="C3513" t="inlineStr"/>
+      <c r="D3513" t="inlineStr"/>
+      <c r="E3513" t="inlineStr"/>
+      <c r="F3513" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3514">
+      <c r="A3514" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3514" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C3514" t="inlineStr"/>
+      <c r="D3514" t="inlineStr"/>
+      <c r="E3514" t="inlineStr"/>
+      <c r="F3514" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3515">
+      <c r="A3515" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3515" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C3515" t="inlineStr"/>
+      <c r="D3515" t="inlineStr"/>
+      <c r="E3515" t="inlineStr"/>
+      <c r="F3515" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3516">
+      <c r="A3516" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3516" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="C3516" t="inlineStr"/>
+      <c r="D3516" t="inlineStr"/>
+      <c r="E3516" t="inlineStr"/>
+      <c r="F3516" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3517">
+      <c r="A3517" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3517" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C3517" t="inlineStr"/>
+      <c r="D3517" t="inlineStr"/>
+      <c r="E3517" t="inlineStr"/>
+      <c r="F3517" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3518">
+      <c r="A3518" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3518" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C3518" t="inlineStr"/>
+      <c r="D3518" t="inlineStr"/>
+      <c r="E3518" t="inlineStr"/>
+      <c r="F3518" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3519">
+      <c r="A3519" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3519" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="C3519" t="inlineStr"/>
+      <c r="D3519" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3519" t="inlineStr"/>
+      <c r="F3519" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3520">
+      <c r="A3520" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3520" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C3520" t="inlineStr"/>
+      <c r="D3520" t="inlineStr"/>
+      <c r="E3520" t="inlineStr"/>
+      <c r="F3520" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3521">
+      <c r="A3521" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3521" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C3521" t="inlineStr"/>
+      <c r="D3521" t="inlineStr"/>
+      <c r="E3521" t="inlineStr"/>
+      <c r="F3521" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3522">
+      <c r="A3522" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3522" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C3522" t="inlineStr"/>
+      <c r="D3522" t="inlineStr"/>
+      <c r="E3522" t="inlineStr"/>
+      <c r="F3522" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3523">
+      <c r="A3523" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3523" t="inlineStr">
+        <is>
+          <t>[31]</t>
+        </is>
+      </c>
+      <c r="C3523" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3523" t="inlineStr"/>
+      <c r="E3523" t="inlineStr"/>
+      <c r="F3523" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3524">
+      <c r="A3524" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3524" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C3524" t="inlineStr"/>
+      <c r="D3524" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3524" t="inlineStr"/>
+      <c r="F3524" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3525">
+      <c r="A3525" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3525" t="inlineStr">
+        <is>
+          <t>[35, 22]</t>
+        </is>
+      </c>
+      <c r="C3525" t="inlineStr"/>
+      <c r="D3525" t="inlineStr"/>
+      <c r="E3525" t="inlineStr"/>
+      <c r="F3525" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3526">
+      <c r="A3526" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3526" t="inlineStr">
+        <is>
+          <t>[33]</t>
+        </is>
+      </c>
+      <c r="C3526" t="inlineStr"/>
+      <c r="D3526" t="inlineStr"/>
+      <c r="E3526" t="inlineStr"/>
+      <c r="F3526" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3527">
+      <c r="A3527" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3527" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="C3527" t="inlineStr"/>
+      <c r="D3527" t="inlineStr"/>
+      <c r="E3527" t="inlineStr"/>
+      <c r="F3527" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3528">
+      <c r="A3528" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3528" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C3528" t="inlineStr"/>
+      <c r="D3528" t="inlineStr"/>
+      <c r="E3528" t="inlineStr"/>
+      <c r="F3528" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3529">
+      <c r="A3529" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3529" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C3529" t="inlineStr"/>
+      <c r="D3529" t="inlineStr"/>
+      <c r="E3529" t="inlineStr"/>
+      <c r="F3529" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3530">
+      <c r="A3530" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3530" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="C3530" t="inlineStr"/>
+      <c r="D3530" t="inlineStr"/>
+      <c r="E3530" t="inlineStr"/>
+      <c r="F3530" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3531">
+      <c r="A3531" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3531" t="inlineStr">
+        <is>
+          <t>[13]</t>
+        </is>
+      </c>
+      <c r="C3531" t="inlineStr"/>
+      <c r="D3531" t="inlineStr"/>
+      <c r="E3531" t="inlineStr"/>
+      <c r="F3531" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3532">
+      <c r="A3532" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3532" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C3532" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D3532" t="inlineStr"/>
+      <c r="E3532" t="inlineStr"/>
+      <c r="F3532" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3533">
+      <c r="A3533" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3533" t="inlineStr">
+        <is>
+          <t>[35]</t>
+        </is>
+      </c>
+      <c r="C3533" t="inlineStr"/>
+      <c r="D3533" t="inlineStr"/>
+      <c r="E3533" t="inlineStr"/>
+      <c r="F3533" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3534">
+      <c r="A3534" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3534" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="C3534" t="inlineStr"/>
+      <c r="D3534" t="inlineStr"/>
+      <c r="E3534" t="inlineStr"/>
+      <c r="F3534" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3535">
+      <c r="A3535" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3535" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C3535" t="inlineStr"/>
+      <c r="D3535" t="inlineStr"/>
+      <c r="E3535" t="inlineStr"/>
+      <c r="F3535" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3536">
+      <c r="A3536" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3536" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3536" t="inlineStr"/>
+      <c r="D3536" t="inlineStr"/>
+      <c r="E3536" t="inlineStr"/>
+      <c r="F3536" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3537">
+      <c r="A3537" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3537" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="C3537" t="inlineStr"/>
+      <c r="D3537" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3537" t="inlineStr"/>
+      <c r="F3537" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3538">
+      <c r="A3538" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3538" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C3538" t="inlineStr"/>
+      <c r="D3538" t="inlineStr"/>
+      <c r="E3538" t="inlineStr"/>
+      <c r="F3538" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3539">
+      <c r="A3539" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3539" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3539" t="inlineStr"/>
+      <c r="D3539" t="inlineStr"/>
+      <c r="E3539" t="inlineStr"/>
+      <c r="F3539" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3540">
+      <c r="A3540" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3540" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C3540" t="inlineStr"/>
+      <c r="D3540" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E3540" t="inlineStr"/>
+      <c r="F3540" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3541">
+      <c r="A3541" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3541" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C3541" t="inlineStr"/>
+      <c r="D3541" t="inlineStr"/>
+      <c r="E3541" t="inlineStr"/>
+      <c r="F3541" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3542">
+      <c r="A3542" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3542" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="C3542" t="inlineStr"/>
+      <c r="D3542" t="inlineStr"/>
+      <c r="E3542" t="inlineStr"/>
+      <c r="F3542" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3543">
+      <c r="A3543" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3543" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="C3543" t="inlineStr"/>
+      <c r="D3543" t="inlineStr"/>
+      <c r="E3543" t="inlineStr"/>
+      <c r="F3543" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3544">
+      <c r="A3544" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3544" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="C3544" t="inlineStr"/>
+      <c r="D3544" t="inlineStr"/>
+      <c r="E3544" t="inlineStr"/>
+      <c r="F3544" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3545">
+      <c r="A3545" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3545" t="inlineStr">
+        <is>
+          <t>[36]</t>
+        </is>
+      </c>
+      <c r="C3545" t="inlineStr"/>
+      <c r="D3545" t="inlineStr"/>
+      <c r="E3545" t="inlineStr"/>
+      <c r="F3545" t="n">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2136"/>
+  <dimension ref="A1:F2444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36901,6 +36901,4982 @@
         <v>97</v>
       </c>
     </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr"/>
+      <c r="D2137" t="inlineStr"/>
+      <c r="E2137" t="inlineStr"/>
+      <c r="F2137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr"/>
+      <c r="D2138" t="inlineStr"/>
+      <c r="E2138" t="inlineStr"/>
+      <c r="F2138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr"/>
+      <c r="D2139" t="inlineStr"/>
+      <c r="E2139" t="inlineStr"/>
+      <c r="F2139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr"/>
+      <c r="D2140" t="inlineStr"/>
+      <c r="E2140" t="inlineStr"/>
+      <c r="F2140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>[31]</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr"/>
+      <c r="D2141" t="inlineStr"/>
+      <c r="E2141" t="inlineStr"/>
+      <c r="F2141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr"/>
+      <c r="D2142" t="inlineStr"/>
+      <c r="E2142" t="inlineStr"/>
+      <c r="F2142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr"/>
+      <c r="D2143" t="inlineStr"/>
+      <c r="E2143" t="inlineStr"/>
+      <c r="F2143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr"/>
+      <c r="D2144" t="inlineStr"/>
+      <c r="E2144" t="inlineStr"/>
+      <c r="F2144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr"/>
+      <c r="D2145" t="inlineStr"/>
+      <c r="E2145" t="inlineStr"/>
+      <c r="F2145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr"/>
+      <c r="D2146" t="inlineStr"/>
+      <c r="E2146" t="inlineStr"/>
+      <c r="F2146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr"/>
+      <c r="D2147" t="inlineStr"/>
+      <c r="E2147" t="inlineStr"/>
+      <c r="F2147" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr"/>
+      <c r="D2148" t="inlineStr"/>
+      <c r="E2148" t="inlineStr"/>
+      <c r="F2148" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr"/>
+      <c r="D2149" t="inlineStr"/>
+      <c r="E2149" t="inlineStr"/>
+      <c r="F2149" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr"/>
+      <c r="D2150" t="inlineStr"/>
+      <c r="E2150" t="inlineStr"/>
+      <c r="F2150" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr"/>
+      <c r="D2151" t="inlineStr"/>
+      <c r="E2151" t="inlineStr"/>
+      <c r="F2151" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr"/>
+      <c r="D2152" t="inlineStr"/>
+      <c r="E2152" t="inlineStr"/>
+      <c r="F2152" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr"/>
+      <c r="D2153" t="inlineStr"/>
+      <c r="E2153" t="inlineStr"/>
+      <c r="F2153" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr"/>
+      <c r="D2154" t="inlineStr"/>
+      <c r="E2154" t="inlineStr"/>
+      <c r="F2154" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr"/>
+      <c r="D2155" t="inlineStr"/>
+      <c r="E2155" t="inlineStr"/>
+      <c r="F2155" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr"/>
+      <c r="D2156" t="inlineStr"/>
+      <c r="E2156" t="inlineStr"/>
+      <c r="F2156" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr"/>
+      <c r="D2157" t="inlineStr"/>
+      <c r="E2157" t="inlineStr"/>
+      <c r="F2157" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr"/>
+      <c r="D2158" t="inlineStr"/>
+      <c r="E2158" t="inlineStr"/>
+      <c r="F2158" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr"/>
+      <c r="D2159" t="inlineStr"/>
+      <c r="E2159" t="inlineStr"/>
+      <c r="F2159" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr"/>
+      <c r="D2160" t="inlineStr"/>
+      <c r="E2160" t="inlineStr"/>
+      <c r="F2160" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr"/>
+      <c r="D2161" t="inlineStr"/>
+      <c r="E2161" t="inlineStr"/>
+      <c r="F2161" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr"/>
+      <c r="D2162" t="inlineStr"/>
+      <c r="E2162" t="inlineStr"/>
+      <c r="F2162" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr"/>
+      <c r="D2163" t="inlineStr"/>
+      <c r="E2163" t="inlineStr"/>
+      <c r="F2163" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr"/>
+      <c r="D2164" t="inlineStr"/>
+      <c r="E2164" t="inlineStr"/>
+      <c r="F2164" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr"/>
+      <c r="D2165" t="inlineStr"/>
+      <c r="E2165" t="inlineStr"/>
+      <c r="F2165" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr"/>
+      <c r="D2166" t="inlineStr"/>
+      <c r="E2166" t="inlineStr"/>
+      <c r="F2166" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr"/>
+      <c r="D2167" t="inlineStr"/>
+      <c r="E2167" t="inlineStr"/>
+      <c r="F2167" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr"/>
+      <c r="D2168" t="inlineStr"/>
+      <c r="E2168" t="inlineStr"/>
+      <c r="F2168" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr"/>
+      <c r="D2169" t="inlineStr"/>
+      <c r="E2169" t="inlineStr"/>
+      <c r="F2169" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr"/>
+      <c r="D2170" t="inlineStr"/>
+      <c r="E2170" t="inlineStr"/>
+      <c r="F2170" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr"/>
+      <c r="D2171" t="inlineStr"/>
+      <c r="E2171" t="inlineStr"/>
+      <c r="F2171" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr"/>
+      <c r="D2172" t="inlineStr"/>
+      <c r="E2172" t="inlineStr"/>
+      <c r="F2172" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr"/>
+      <c r="D2173" t="inlineStr"/>
+      <c r="E2173" t="inlineStr"/>
+      <c r="F2173" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr"/>
+      <c r="D2174" t="inlineStr"/>
+      <c r="E2174" t="inlineStr"/>
+      <c r="F2174" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr"/>
+      <c r="D2175" t="inlineStr"/>
+      <c r="E2175" t="inlineStr"/>
+      <c r="F2175" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr"/>
+      <c r="D2176" t="inlineStr"/>
+      <c r="E2176" t="inlineStr"/>
+      <c r="F2176" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr"/>
+      <c r="D2177" t="inlineStr"/>
+      <c r="E2177" t="inlineStr"/>
+      <c r="F2177" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr"/>
+      <c r="D2178" t="inlineStr"/>
+      <c r="E2178" t="inlineStr"/>
+      <c r="F2178" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr"/>
+      <c r="D2179" t="inlineStr"/>
+      <c r="E2179" t="inlineStr"/>
+      <c r="F2179" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr"/>
+      <c r="D2180" t="inlineStr"/>
+      <c r="E2180" t="inlineStr"/>
+      <c r="F2180" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr"/>
+      <c r="D2181" t="inlineStr"/>
+      <c r="E2181" t="inlineStr"/>
+      <c r="F2181" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr"/>
+      <c r="D2182" t="inlineStr"/>
+      <c r="E2182" t="inlineStr"/>
+      <c r="F2182" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr"/>
+      <c r="D2183" t="inlineStr"/>
+      <c r="E2183" t="inlineStr"/>
+      <c r="F2183" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr"/>
+      <c r="D2184" t="inlineStr"/>
+      <c r="E2184" t="inlineStr"/>
+      <c r="F2184" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr"/>
+      <c r="D2185" t="inlineStr"/>
+      <c r="E2185" t="inlineStr"/>
+      <c r="F2185" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr"/>
+      <c r="D2186" t="inlineStr"/>
+      <c r="E2186" t="inlineStr"/>
+      <c r="F2186" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr"/>
+      <c r="D2187" t="inlineStr"/>
+      <c r="E2187" t="inlineStr"/>
+      <c r="F2187" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr"/>
+      <c r="D2188" t="inlineStr"/>
+      <c r="E2188" t="inlineStr"/>
+      <c r="F2188" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr"/>
+      <c r="D2189" t="inlineStr"/>
+      <c r="E2189" t="inlineStr"/>
+      <c r="F2189" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr"/>
+      <c r="D2190" t="inlineStr"/>
+      <c r="E2190" t="inlineStr"/>
+      <c r="F2190" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr"/>
+      <c r="D2191" t="inlineStr"/>
+      <c r="E2191" t="inlineStr"/>
+      <c r="F2191" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr"/>
+      <c r="D2192" t="inlineStr"/>
+      <c r="E2192" t="inlineStr"/>
+      <c r="F2192" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr"/>
+      <c r="D2193" t="inlineStr"/>
+      <c r="E2193" t="inlineStr"/>
+      <c r="F2193" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr"/>
+      <c r="D2194" t="inlineStr"/>
+      <c r="E2194" t="inlineStr"/>
+      <c r="F2194" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr"/>
+      <c r="D2195" t="inlineStr"/>
+      <c r="E2195" t="inlineStr"/>
+      <c r="F2195" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr"/>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2196" t="inlineStr"/>
+      <c r="F2196" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr"/>
+      <c r="D2197" t="inlineStr"/>
+      <c r="E2197" t="inlineStr"/>
+      <c r="F2197" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr"/>
+      <c r="D2198" t="inlineStr"/>
+      <c r="E2198" t="inlineStr"/>
+      <c r="F2198" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr"/>
+      <c r="D2199" t="inlineStr"/>
+      <c r="E2199" t="inlineStr"/>
+      <c r="F2199" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr"/>
+      <c r="D2200" t="inlineStr"/>
+      <c r="E2200" t="inlineStr"/>
+      <c r="F2200" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr"/>
+      <c r="D2201" t="inlineStr"/>
+      <c r="E2201" t="inlineStr"/>
+      <c r="F2201" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr"/>
+      <c r="D2202" t="inlineStr"/>
+      <c r="E2202" t="inlineStr"/>
+      <c r="F2202" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr"/>
+      <c r="D2203" t="inlineStr"/>
+      <c r="E2203" t="inlineStr"/>
+      <c r="F2203" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr"/>
+      <c r="D2204" t="inlineStr"/>
+      <c r="E2204" t="inlineStr"/>
+      <c r="F2204" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr"/>
+      <c r="D2205" t="inlineStr"/>
+      <c r="E2205" t="inlineStr"/>
+      <c r="F2205" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr"/>
+      <c r="D2206" t="inlineStr"/>
+      <c r="E2206" t="inlineStr"/>
+      <c r="F2206" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr"/>
+      <c r="D2207" t="inlineStr"/>
+      <c r="E2207" t="inlineStr"/>
+      <c r="F2207" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr"/>
+      <c r="D2208" t="inlineStr"/>
+      <c r="E2208" t="inlineStr"/>
+      <c r="F2208" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr"/>
+      <c r="D2209" t="inlineStr"/>
+      <c r="E2209" t="inlineStr"/>
+      <c r="F2209" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr"/>
+      <c r="D2210" t="inlineStr"/>
+      <c r="E2210" t="inlineStr"/>
+      <c r="F2210" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr"/>
+      <c r="D2211" t="inlineStr"/>
+      <c r="E2211" t="inlineStr"/>
+      <c r="F2211" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr"/>
+      <c r="D2212" t="inlineStr"/>
+      <c r="E2212" t="inlineStr"/>
+      <c r="F2212" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr"/>
+      <c r="D2213" t="inlineStr"/>
+      <c r="E2213" t="inlineStr"/>
+      <c r="F2213" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr"/>
+      <c r="D2214" t="inlineStr"/>
+      <c r="E2214" t="inlineStr"/>
+      <c r="F2214" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr"/>
+      <c r="D2215" t="inlineStr"/>
+      <c r="E2215" t="inlineStr"/>
+      <c r="F2215" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr"/>
+      <c r="D2216" t="inlineStr"/>
+      <c r="E2216" t="inlineStr"/>
+      <c r="F2216" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr"/>
+      <c r="D2217" t="inlineStr"/>
+      <c r="E2217" t="inlineStr"/>
+      <c r="F2217" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr"/>
+      <c r="D2218" t="inlineStr"/>
+      <c r="E2218" t="inlineStr"/>
+      <c r="F2218" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr"/>
+      <c r="D2219" t="inlineStr"/>
+      <c r="E2219" t="inlineStr"/>
+      <c r="F2219" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr"/>
+      <c r="E2220" t="inlineStr"/>
+      <c r="F2220" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr"/>
+      <c r="D2221" t="inlineStr"/>
+      <c r="E2221" t="inlineStr"/>
+      <c r="F2221" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr"/>
+      <c r="D2222" t="inlineStr"/>
+      <c r="E2222" t="inlineStr"/>
+      <c r="F2222" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr"/>
+      <c r="D2223" t="inlineStr"/>
+      <c r="E2223" t="inlineStr"/>
+      <c r="F2223" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr"/>
+      <c r="D2224" t="inlineStr"/>
+      <c r="E2224" t="inlineStr"/>
+      <c r="F2224" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr"/>
+      <c r="D2225" t="inlineStr"/>
+      <c r="E2225" t="inlineStr"/>
+      <c r="F2225" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr"/>
+      <c r="D2226" t="inlineStr"/>
+      <c r="E2226" t="inlineStr"/>
+      <c r="F2226" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr"/>
+      <c r="D2227" t="inlineStr"/>
+      <c r="E2227" t="inlineStr"/>
+      <c r="F2227" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr"/>
+      <c r="D2228" t="inlineStr"/>
+      <c r="E2228" t="inlineStr"/>
+      <c r="F2228" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr"/>
+      <c r="D2229" t="inlineStr"/>
+      <c r="E2229" t="inlineStr"/>
+      <c r="F2229" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr"/>
+      <c r="D2230" t="inlineStr"/>
+      <c r="E2230" t="inlineStr"/>
+      <c r="F2230" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr"/>
+      <c r="D2231" t="inlineStr"/>
+      <c r="E2231" t="inlineStr"/>
+      <c r="F2231" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr"/>
+      <c r="D2232" t="inlineStr"/>
+      <c r="E2232" t="inlineStr"/>
+      <c r="F2232" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr"/>
+      <c r="D2233" t="inlineStr"/>
+      <c r="E2233" t="inlineStr"/>
+      <c r="F2233" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr"/>
+      <c r="D2234" t="inlineStr"/>
+      <c r="E2234" t="inlineStr"/>
+      <c r="F2234" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr"/>
+      <c r="D2235" t="inlineStr"/>
+      <c r="E2235" t="inlineStr"/>
+      <c r="F2235" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr"/>
+      <c r="D2236" t="inlineStr"/>
+      <c r="E2236" t="inlineStr"/>
+      <c r="F2236" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr"/>
+      <c r="D2237" t="inlineStr"/>
+      <c r="E2237" t="inlineStr"/>
+      <c r="F2237" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr"/>
+      <c r="D2238" t="inlineStr"/>
+      <c r="E2238" t="inlineStr"/>
+      <c r="F2238" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr"/>
+      <c r="D2239" t="inlineStr"/>
+      <c r="E2239" t="inlineStr"/>
+      <c r="F2239" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr"/>
+      <c r="D2240" t="inlineStr"/>
+      <c r="E2240" t="inlineStr"/>
+      <c r="F2240" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr"/>
+      <c r="D2241" t="inlineStr"/>
+      <c r="E2241" t="inlineStr"/>
+      <c r="F2241" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr"/>
+      <c r="D2242" t="inlineStr"/>
+      <c r="E2242" t="inlineStr"/>
+      <c r="F2242" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr"/>
+      <c r="D2243" t="inlineStr"/>
+      <c r="E2243" t="inlineStr"/>
+      <c r="F2243" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr"/>
+      <c r="D2244" t="inlineStr"/>
+      <c r="E2244" t="inlineStr"/>
+      <c r="F2244" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr"/>
+      <c r="D2245" t="inlineStr"/>
+      <c r="E2245" t="inlineStr"/>
+      <c r="F2245" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr"/>
+      <c r="D2246" t="inlineStr"/>
+      <c r="E2246" t="inlineStr"/>
+      <c r="F2246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr"/>
+      <c r="D2247" t="inlineStr"/>
+      <c r="E2247" t="inlineStr"/>
+      <c r="F2247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr"/>
+      <c r="D2248" t="inlineStr"/>
+      <c r="E2248" t="inlineStr"/>
+      <c r="F2248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr"/>
+      <c r="D2249" t="inlineStr"/>
+      <c r="E2249" t="inlineStr"/>
+      <c r="F2249" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr"/>
+      <c r="D2250" t="inlineStr"/>
+      <c r="E2250" t="inlineStr"/>
+      <c r="F2250" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr"/>
+      <c r="D2251" t="inlineStr"/>
+      <c r="E2251" t="inlineStr"/>
+      <c r="F2251" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr"/>
+      <c r="D2252" t="inlineStr"/>
+      <c r="E2252" t="inlineStr"/>
+      <c r="F2252" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr"/>
+      <c r="D2253" t="inlineStr"/>
+      <c r="E2253" t="inlineStr"/>
+      <c r="F2253" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>[33]</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr"/>
+      <c r="D2254" t="inlineStr"/>
+      <c r="E2254" t="inlineStr"/>
+      <c r="F2254" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr"/>
+      <c r="D2255" t="inlineStr"/>
+      <c r="E2255" t="inlineStr"/>
+      <c r="F2255" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr"/>
+      <c r="D2256" t="inlineStr"/>
+      <c r="E2256" t="inlineStr"/>
+      <c r="F2256" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr"/>
+      <c r="D2257" t="inlineStr"/>
+      <c r="E2257" t="inlineStr"/>
+      <c r="F2257" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>[35]</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr"/>
+      <c r="D2258" t="inlineStr"/>
+      <c r="E2258" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2258" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr"/>
+      <c r="D2259" t="inlineStr"/>
+      <c r="E2259" t="inlineStr"/>
+      <c r="F2259" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr"/>
+      <c r="D2260" t="inlineStr"/>
+      <c r="E2260" t="inlineStr"/>
+      <c r="F2260" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr"/>
+      <c r="D2261" t="inlineStr"/>
+      <c r="E2261" t="inlineStr"/>
+      <c r="F2261" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr"/>
+      <c r="D2262" t="inlineStr"/>
+      <c r="E2262" t="inlineStr"/>
+      <c r="F2262" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr"/>
+      <c r="D2263" t="inlineStr"/>
+      <c r="E2263" t="inlineStr"/>
+      <c r="F2263" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr"/>
+      <c r="D2264" t="inlineStr"/>
+      <c r="E2264" t="inlineStr"/>
+      <c r="F2264" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr"/>
+      <c r="D2265" t="inlineStr"/>
+      <c r="E2265" t="inlineStr"/>
+      <c r="F2265" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr"/>
+      <c r="D2266" t="inlineStr"/>
+      <c r="E2266" t="inlineStr"/>
+      <c r="F2266" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr"/>
+      <c r="D2267" t="inlineStr"/>
+      <c r="E2267" t="inlineStr"/>
+      <c r="F2267" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr"/>
+      <c r="D2268" t="inlineStr"/>
+      <c r="E2268" t="inlineStr"/>
+      <c r="F2268" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr"/>
+      <c r="D2269" t="inlineStr"/>
+      <c r="E2269" t="inlineStr"/>
+      <c r="F2269" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr"/>
+      <c r="D2270" t="inlineStr"/>
+      <c r="E2270" t="inlineStr"/>
+      <c r="F2270" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr"/>
+      <c r="D2271" t="inlineStr"/>
+      <c r="E2271" t="inlineStr"/>
+      <c r="F2271" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr"/>
+      <c r="D2272" t="inlineStr"/>
+      <c r="E2272" t="inlineStr"/>
+      <c r="F2272" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr"/>
+      <c r="D2273" t="inlineStr"/>
+      <c r="E2273" t="inlineStr"/>
+      <c r="F2273" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr"/>
+      <c r="D2274" t="inlineStr"/>
+      <c r="E2274" t="inlineStr"/>
+      <c r="F2274" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr"/>
+      <c r="D2275" t="inlineStr"/>
+      <c r="E2275" t="inlineStr"/>
+      <c r="F2275" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr"/>
+      <c r="D2276" t="inlineStr"/>
+      <c r="E2276" t="inlineStr"/>
+      <c r="F2276" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr"/>
+      <c r="D2277" t="inlineStr"/>
+      <c r="E2277" t="inlineStr"/>
+      <c r="F2277" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr"/>
+      <c r="D2278" t="inlineStr"/>
+      <c r="E2278" t="inlineStr"/>
+      <c r="F2278" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr"/>
+      <c r="D2279" t="inlineStr"/>
+      <c r="E2279" t="inlineStr"/>
+      <c r="F2279" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr"/>
+      <c r="D2280" t="inlineStr"/>
+      <c r="E2280" t="inlineStr"/>
+      <c r="F2280" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr"/>
+      <c r="D2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr"/>
+      <c r="F2281" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr"/>
+      <c r="D2282" t="inlineStr"/>
+      <c r="E2282" t="inlineStr"/>
+      <c r="F2282" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr"/>
+      <c r="D2283" t="inlineStr"/>
+      <c r="E2283" t="inlineStr"/>
+      <c r="F2283" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr"/>
+      <c r="D2284" t="inlineStr"/>
+      <c r="E2284" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2284" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr"/>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2285" t="inlineStr"/>
+      <c r="F2285" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>[29]</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr"/>
+      <c r="D2286" t="inlineStr"/>
+      <c r="E2286" t="inlineStr"/>
+      <c r="F2286" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>[29]</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr"/>
+      <c r="D2287" t="inlineStr"/>
+      <c r="E2287" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2287" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr"/>
+      <c r="D2288" t="inlineStr"/>
+      <c r="E2288" t="inlineStr"/>
+      <c r="F2288" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr"/>
+      <c r="D2289" t="inlineStr"/>
+      <c r="E2289" t="inlineStr"/>
+      <c r="F2289" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr"/>
+      <c r="D2290" t="inlineStr"/>
+      <c r="E2290" t="inlineStr"/>
+      <c r="F2290" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr"/>
+      <c r="D2291" t="inlineStr"/>
+      <c r="E2291" t="inlineStr"/>
+      <c r="F2291" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr"/>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2292" t="inlineStr"/>
+      <c r="F2292" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr"/>
+      <c r="D2293" t="inlineStr"/>
+      <c r="E2293" t="inlineStr"/>
+      <c r="F2293" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr"/>
+      <c r="D2294" t="inlineStr"/>
+      <c r="E2294" t="inlineStr"/>
+      <c r="F2294" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr"/>
+      <c r="D2295" t="inlineStr"/>
+      <c r="E2295" t="inlineStr"/>
+      <c r="F2295" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr"/>
+      <c r="D2296" t="inlineStr"/>
+      <c r="E2296" t="inlineStr"/>
+      <c r="F2296" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr"/>
+      <c r="D2297" t="inlineStr"/>
+      <c r="E2297" t="inlineStr"/>
+      <c r="F2297" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr"/>
+      <c r="D2298" t="inlineStr"/>
+      <c r="E2298" t="inlineStr"/>
+      <c r="F2298" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr"/>
+      <c r="D2299" t="inlineStr"/>
+      <c r="E2299" t="inlineStr"/>
+      <c r="F2299" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr"/>
+      <c r="D2300" t="inlineStr"/>
+      <c r="E2300" t="inlineStr"/>
+      <c r="F2300" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr"/>
+      <c r="D2301" t="inlineStr"/>
+      <c r="E2301" t="inlineStr"/>
+      <c r="F2301" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr"/>
+      <c r="D2302" t="inlineStr"/>
+      <c r="E2302" t="inlineStr"/>
+      <c r="F2302" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr"/>
+      <c r="D2303" t="inlineStr"/>
+      <c r="E2303" t="inlineStr"/>
+      <c r="F2303" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr"/>
+      <c r="D2304" t="inlineStr"/>
+      <c r="E2304" t="inlineStr"/>
+      <c r="F2304" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr"/>
+      <c r="D2305" t="inlineStr"/>
+      <c r="E2305" t="inlineStr"/>
+      <c r="F2305" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr"/>
+      <c r="D2306" t="inlineStr"/>
+      <c r="E2306" t="inlineStr"/>
+      <c r="F2306" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr"/>
+      <c r="D2307" t="inlineStr"/>
+      <c r="E2307" t="inlineStr"/>
+      <c r="F2307" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr"/>
+      <c r="D2308" t="inlineStr"/>
+      <c r="E2308" t="inlineStr"/>
+      <c r="F2308" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr"/>
+      <c r="D2309" t="inlineStr"/>
+      <c r="E2309" t="inlineStr"/>
+      <c r="F2309" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr"/>
+      <c r="D2310" t="inlineStr"/>
+      <c r="E2310" t="inlineStr"/>
+      <c r="F2310" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr"/>
+      <c r="D2311" t="inlineStr"/>
+      <c r="E2311" t="inlineStr"/>
+      <c r="F2311" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr"/>
+      <c r="D2312" t="inlineStr"/>
+      <c r="E2312" t="inlineStr"/>
+      <c r="F2312" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr"/>
+      <c r="D2313" t="inlineStr"/>
+      <c r="E2313" t="inlineStr"/>
+      <c r="F2313" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr"/>
+      <c r="D2314" t="inlineStr"/>
+      <c r="E2314" t="inlineStr"/>
+      <c r="F2314" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr"/>
+      <c r="D2315" t="inlineStr"/>
+      <c r="E2315" t="inlineStr"/>
+      <c r="F2315" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr"/>
+      <c r="D2316" t="inlineStr"/>
+      <c r="E2316" t="inlineStr"/>
+      <c r="F2316" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr"/>
+      <c r="D2317" t="inlineStr"/>
+      <c r="E2317" t="inlineStr"/>
+      <c r="F2317" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr"/>
+      <c r="D2318" t="inlineStr"/>
+      <c r="E2318" t="inlineStr"/>
+      <c r="F2318" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr"/>
+      <c r="D2319" t="inlineStr"/>
+      <c r="E2319" t="inlineStr"/>
+      <c r="F2319" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr"/>
+      <c r="D2320" t="inlineStr"/>
+      <c r="E2320" t="inlineStr"/>
+      <c r="F2320" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr"/>
+      <c r="D2321" t="inlineStr"/>
+      <c r="E2321" t="inlineStr"/>
+      <c r="F2321" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr"/>
+      <c r="D2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr"/>
+      <c r="F2322" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr"/>
+      <c r="D2323" t="inlineStr"/>
+      <c r="E2323" t="inlineStr"/>
+      <c r="F2323" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr"/>
+      <c r="D2324" t="inlineStr"/>
+      <c r="E2324" t="inlineStr"/>
+      <c r="F2324" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr"/>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="E2325" t="inlineStr"/>
+      <c r="F2325" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr"/>
+      <c r="D2326" t="inlineStr"/>
+      <c r="E2326" t="inlineStr"/>
+      <c r="F2326" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr"/>
+      <c r="D2327" t="inlineStr"/>
+      <c r="E2327" t="inlineStr"/>
+      <c r="F2327" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr"/>
+      <c r="D2328" t="inlineStr"/>
+      <c r="E2328" t="inlineStr"/>
+      <c r="F2328" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr"/>
+      <c r="D2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr"/>
+      <c r="F2329" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr"/>
+      <c r="D2330" t="inlineStr"/>
+      <c r="E2330" t="inlineStr"/>
+      <c r="F2330" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr"/>
+      <c r="D2331" t="inlineStr"/>
+      <c r="E2331" t="inlineStr"/>
+      <c r="F2331" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr"/>
+      <c r="D2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr"/>
+      <c r="F2332" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr"/>
+      <c r="D2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr"/>
+      <c r="F2333" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr"/>
+      <c r="D2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr"/>
+      <c r="F2334" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>[35]</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr"/>
+      <c r="D2335" t="inlineStr"/>
+      <c r="E2335" t="inlineStr"/>
+      <c r="F2335" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr"/>
+      <c r="D2336" t="inlineStr"/>
+      <c r="E2336" t="inlineStr"/>
+      <c r="F2336" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr"/>
+      <c r="D2337" t="inlineStr"/>
+      <c r="E2337" t="inlineStr"/>
+      <c r="F2337" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr"/>
+      <c r="D2338" t="inlineStr"/>
+      <c r="E2338" t="inlineStr"/>
+      <c r="F2338" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr"/>
+      <c r="D2339" t="inlineStr"/>
+      <c r="E2339" t="inlineStr"/>
+      <c r="F2339" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr"/>
+      <c r="D2340" t="inlineStr"/>
+      <c r="E2340" t="inlineStr"/>
+      <c r="F2340" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr"/>
+      <c r="D2341" t="inlineStr"/>
+      <c r="E2341" t="inlineStr"/>
+      <c r="F2341" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr"/>
+      <c r="D2342" t="inlineStr"/>
+      <c r="E2342" t="inlineStr"/>
+      <c r="F2342" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr"/>
+      <c r="D2343" t="inlineStr"/>
+      <c r="E2343" t="inlineStr"/>
+      <c r="F2343" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr"/>
+      <c r="D2344" t="inlineStr"/>
+      <c r="E2344" t="inlineStr"/>
+      <c r="F2344" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr"/>
+      <c r="D2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr"/>
+      <c r="F2345" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr"/>
+      <c r="D2346" t="inlineStr"/>
+      <c r="E2346" t="inlineStr"/>
+      <c r="F2346" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr"/>
+      <c r="D2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr"/>
+      <c r="F2347" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr"/>
+      <c r="D2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr"/>
+      <c r="F2348" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>acierto</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr"/>
+      <c r="F2349" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr"/>
+      <c r="D2350" t="inlineStr"/>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2350" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr"/>
+      <c r="D2351" t="inlineStr"/>
+      <c r="E2351" t="inlineStr"/>
+      <c r="F2351" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr"/>
+      <c r="D2352" t="inlineStr"/>
+      <c r="E2352" t="inlineStr"/>
+      <c r="F2352" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr"/>
+      <c r="D2353" t="inlineStr"/>
+      <c r="E2353" t="inlineStr"/>
+      <c r="F2353" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr"/>
+      <c r="D2354" t="inlineStr"/>
+      <c r="E2354" t="inlineStr"/>
+      <c r="F2354" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr"/>
+      <c r="D2355" t="inlineStr"/>
+      <c r="E2355" t="inlineStr"/>
+      <c r="F2355" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr"/>
+      <c r="D2356" t="inlineStr"/>
+      <c r="E2356" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2356" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr"/>
+      <c r="D2357" t="inlineStr"/>
+      <c r="E2357" t="inlineStr"/>
+      <c r="F2357" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr"/>
+      <c r="D2358" t="inlineStr"/>
+      <c r="E2358" t="inlineStr"/>
+      <c r="F2358" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr"/>
+      <c r="D2359" t="inlineStr"/>
+      <c r="E2359" t="inlineStr"/>
+      <c r="F2359" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr"/>
+      <c r="D2360" t="inlineStr"/>
+      <c r="E2360" t="inlineStr"/>
+      <c r="F2360" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr"/>
+      <c r="D2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr"/>
+      <c r="F2361" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr"/>
+      <c r="D2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr"/>
+      <c r="F2362" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>[18]</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr"/>
+      <c r="D2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr"/>
+      <c r="F2363" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr"/>
+      <c r="D2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr"/>
+      <c r="F2364" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr"/>
+      <c r="D2365" t="inlineStr"/>
+      <c r="E2365" t="inlineStr"/>
+      <c r="F2365" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr"/>
+      <c r="D2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr"/>
+      <c r="F2366" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr"/>
+      <c r="D2367" t="inlineStr"/>
+      <c r="E2367" t="inlineStr"/>
+      <c r="F2367" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr"/>
+      <c r="D2368" t="inlineStr"/>
+      <c r="E2368" t="inlineStr"/>
+      <c r="F2368" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>[29]</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr"/>
+      <c r="D2369" t="inlineStr"/>
+      <c r="E2369" t="inlineStr"/>
+      <c r="F2369" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr"/>
+      <c r="D2370" t="inlineStr"/>
+      <c r="E2370" t="inlineStr"/>
+      <c r="F2370" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr"/>
+      <c r="D2371" t="inlineStr"/>
+      <c r="E2371" t="inlineStr"/>
+      <c r="F2371" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr"/>
+      <c r="D2372" t="inlineStr"/>
+      <c r="E2372" t="inlineStr"/>
+      <c r="F2372" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr"/>
+      <c r="D2373" t="inlineStr"/>
+      <c r="E2373" t="inlineStr"/>
+      <c r="F2373" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr"/>
+      <c r="D2374" t="inlineStr"/>
+      <c r="E2374" t="inlineStr"/>
+      <c r="F2374" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr"/>
+      <c r="D2375" t="inlineStr"/>
+      <c r="E2375" t="inlineStr"/>
+      <c r="F2375" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr"/>
+      <c r="D2376" t="inlineStr"/>
+      <c r="E2376" t="inlineStr"/>
+      <c r="F2376" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr"/>
+      <c r="D2377" t="inlineStr"/>
+      <c r="E2377" t="inlineStr"/>
+      <c r="F2377" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr"/>
+      <c r="D2378" t="inlineStr"/>
+      <c r="E2378" t="inlineStr"/>
+      <c r="F2378" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr"/>
+      <c r="D2379" t="inlineStr"/>
+      <c r="E2379" t="inlineStr"/>
+      <c r="F2379" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr"/>
+      <c r="D2380" t="inlineStr"/>
+      <c r="E2380" t="inlineStr"/>
+      <c r="F2380" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr"/>
+      <c r="D2381" t="inlineStr"/>
+      <c r="E2381" t="inlineStr"/>
+      <c r="F2381" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr"/>
+      <c r="D2382" t="inlineStr"/>
+      <c r="E2382" t="inlineStr"/>
+      <c r="F2382" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr"/>
+      <c r="D2383" t="inlineStr"/>
+      <c r="E2383" t="inlineStr"/>
+      <c r="F2383" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr"/>
+      <c r="D2384" t="inlineStr"/>
+      <c r="E2384" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="F2384" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr"/>
+      <c r="D2385" t="inlineStr"/>
+      <c r="E2385" t="inlineStr"/>
+      <c r="F2385" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr"/>
+      <c r="D2386" t="inlineStr"/>
+      <c r="E2386" t="inlineStr"/>
+      <c r="F2386" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>[24]</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr"/>
+      <c r="D2387" t="inlineStr"/>
+      <c r="E2387" t="inlineStr"/>
+      <c r="F2387" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr"/>
+      <c r="D2388" t="inlineStr"/>
+      <c r="E2388" t="inlineStr"/>
+      <c r="F2388" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr"/>
+      <c r="D2389" t="inlineStr"/>
+      <c r="E2389" t="inlineStr"/>
+      <c r="F2389" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr"/>
+      <c r="D2390" t="inlineStr"/>
+      <c r="E2390" t="inlineStr"/>
+      <c r="F2390" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>[18]</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr"/>
+      <c r="D2391" t="inlineStr"/>
+      <c r="E2391" t="inlineStr"/>
+      <c r="F2391" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr"/>
+      <c r="D2392" t="inlineStr"/>
+      <c r="E2392" t="inlineStr"/>
+      <c r="F2392" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr"/>
+      <c r="D2393" t="inlineStr"/>
+      <c r="E2393" t="inlineStr"/>
+      <c r="F2393" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr"/>
+      <c r="D2394" t="inlineStr"/>
+      <c r="E2394" t="inlineStr"/>
+      <c r="F2394" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr"/>
+      <c r="D2395" t="inlineStr"/>
+      <c r="E2395" t="inlineStr"/>
+      <c r="F2395" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr"/>
+      <c r="D2396" t="inlineStr"/>
+      <c r="E2396" t="inlineStr"/>
+      <c r="F2396" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr"/>
+      <c r="D2397" t="inlineStr"/>
+      <c r="E2397" t="inlineStr"/>
+      <c r="F2397" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr"/>
+      <c r="D2398" t="inlineStr"/>
+      <c r="E2398" t="inlineStr"/>
+      <c r="F2398" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr"/>
+      <c r="D2399" t="inlineStr"/>
+      <c r="E2399" t="inlineStr"/>
+      <c r="F2399" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr"/>
+      <c r="D2400" t="inlineStr"/>
+      <c r="E2400" t="inlineStr"/>
+      <c r="F2400" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr"/>
+      <c r="D2401" t="inlineStr"/>
+      <c r="E2401" t="inlineStr"/>
+      <c r="F2401" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr"/>
+      <c r="D2402" t="inlineStr"/>
+      <c r="E2402" t="inlineStr"/>
+      <c r="F2402" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr"/>
+      <c r="D2403" t="inlineStr"/>
+      <c r="E2403" t="inlineStr"/>
+      <c r="F2403" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr"/>
+      <c r="D2404" t="inlineStr"/>
+      <c r="E2404" t="inlineStr"/>
+      <c r="F2404" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr"/>
+      <c r="D2405" t="inlineStr"/>
+      <c r="E2405" t="inlineStr"/>
+      <c r="F2405" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr"/>
+      <c r="D2406" t="inlineStr"/>
+      <c r="E2406" t="inlineStr"/>
+      <c r="F2406" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr"/>
+      <c r="D2407" t="inlineStr"/>
+      <c r="E2407" t="inlineStr"/>
+      <c r="F2407" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr"/>
+      <c r="D2408" t="inlineStr"/>
+      <c r="E2408" t="inlineStr"/>
+      <c r="F2408" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr"/>
+      <c r="D2409" t="inlineStr"/>
+      <c r="E2409" t="inlineStr"/>
+      <c r="F2409" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr"/>
+      <c r="D2410" t="inlineStr"/>
+      <c r="E2410" t="inlineStr"/>
+      <c r="F2410" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr"/>
+      <c r="D2411" t="inlineStr"/>
+      <c r="E2411" t="inlineStr"/>
+      <c r="F2411" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr"/>
+      <c r="D2412" t="inlineStr"/>
+      <c r="E2412" t="inlineStr"/>
+      <c r="F2412" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr"/>
+      <c r="D2413" t="inlineStr"/>
+      <c r="E2413" t="inlineStr"/>
+      <c r="F2413" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr"/>
+      <c r="D2414" t="inlineStr"/>
+      <c r="E2414" t="inlineStr"/>
+      <c r="F2414" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr"/>
+      <c r="D2415" t="inlineStr"/>
+      <c r="E2415" t="inlineStr"/>
+      <c r="F2415" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr"/>
+      <c r="D2416" t="inlineStr"/>
+      <c r="E2416" t="inlineStr"/>
+      <c r="F2416" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr"/>
+      <c r="D2417" t="inlineStr"/>
+      <c r="E2417" t="inlineStr"/>
+      <c r="F2417" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>[13]</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr"/>
+      <c r="D2418" t="inlineStr"/>
+      <c r="E2418" t="inlineStr"/>
+      <c r="F2418" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr"/>
+      <c r="D2419" t="inlineStr"/>
+      <c r="E2419" t="inlineStr"/>
+      <c r="F2419" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr"/>
+      <c r="D2420" t="inlineStr"/>
+      <c r="E2420" t="inlineStr"/>
+      <c r="F2420" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr"/>
+      <c r="D2421" t="inlineStr"/>
+      <c r="E2421" t="inlineStr"/>
+      <c r="F2421" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr"/>
+      <c r="D2422" t="inlineStr"/>
+      <c r="E2422" t="inlineStr"/>
+      <c r="F2422" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr"/>
+      <c r="D2423" t="inlineStr"/>
+      <c r="E2423" t="inlineStr"/>
+      <c r="F2423" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr"/>
+      <c r="D2424" t="inlineStr"/>
+      <c r="E2424" t="inlineStr"/>
+      <c r="F2424" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr"/>
+      <c r="D2425" t="inlineStr"/>
+      <c r="E2425" t="inlineStr"/>
+      <c r="F2425" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr"/>
+      <c r="D2426" t="inlineStr"/>
+      <c r="E2426" t="inlineStr"/>
+      <c r="F2426" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr"/>
+      <c r="D2427" t="inlineStr"/>
+      <c r="E2427" t="inlineStr"/>
+      <c r="F2427" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr"/>
+      <c r="D2428" t="inlineStr"/>
+      <c r="E2428" t="inlineStr"/>
+      <c r="F2428" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr"/>
+      <c r="D2429" t="inlineStr"/>
+      <c r="E2429" t="inlineStr"/>
+      <c r="F2429" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr"/>
+      <c r="D2430" t="inlineStr"/>
+      <c r="E2430" t="inlineStr"/>
+      <c r="F2430" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr"/>
+      <c r="D2431" t="inlineStr"/>
+      <c r="E2431" t="inlineStr"/>
+      <c r="F2431" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr"/>
+      <c r="D2432" t="inlineStr"/>
+      <c r="E2432" t="inlineStr"/>
+      <c r="F2432" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr"/>
+      <c r="D2433" t="inlineStr"/>
+      <c r="E2433" t="inlineStr"/>
+      <c r="F2433" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr"/>
+      <c r="D2434" t="inlineStr"/>
+      <c r="E2434" t="inlineStr"/>
+      <c r="F2434" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr"/>
+      <c r="D2435" t="inlineStr"/>
+      <c r="E2435" t="inlineStr"/>
+      <c r="F2435" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr"/>
+      <c r="D2436" t="inlineStr"/>
+      <c r="E2436" t="inlineStr"/>
+      <c r="F2436" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr"/>
+      <c r="D2437" t="inlineStr"/>
+      <c r="E2437" t="inlineStr"/>
+      <c r="F2437" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr"/>
+      <c r="D2438" t="inlineStr"/>
+      <c r="E2438" t="inlineStr"/>
+      <c r="F2438" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr"/>
+      <c r="D2439" t="inlineStr"/>
+      <c r="E2439" t="inlineStr"/>
+      <c r="F2439" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr"/>
+      <c r="D2440" t="inlineStr"/>
+      <c r="E2440" t="inlineStr"/>
+      <c r="F2440" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr"/>
+      <c r="D2441" t="inlineStr"/>
+      <c r="E2441" t="inlineStr"/>
+      <c r="F2441" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr"/>
+      <c r="D2442" t="inlineStr"/>
+      <c r="E2442" t="inlineStr"/>
+      <c r="F2442" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr"/>
+      <c r="D2443" t="inlineStr"/>
+      <c r="E2443" t="inlineStr"/>
+      <c r="F2443" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr"/>
+      <c r="D2444" t="inlineStr"/>
+      <c r="E2444" t="inlineStr"/>
+      <c r="F2444" t="n">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
